--- a/e1_match_results.xlsx
+++ b/e1_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="1042">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -1775,15 +1775,15 @@
     <t>19:45</t>
   </si>
   <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
     <t>12:00</t>
   </si>
   <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
     <t>14:00</t>
   </si>
   <si>
@@ -2015,6 +2015,15 @@
     <t>James Linington</t>
   </si>
   <si>
+    <t>Craig Pawson</t>
+  </si>
+  <si>
+    <t>Darren Bond</t>
+  </si>
+  <si>
+    <t>Thomas Kirk</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/1ae41d3c/Blackburn-Rovers-Derby-County-August-9-2024-Championship</t>
   </si>
   <si>
@@ -3057,6 +3066,78 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/8843bf80/Preston-North-End-Blackburn-Rovers-September-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/195bc214/Plymouth-Argyle-Luton-Town-September-27-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0fd10cd6/Derby-County-Norwich-City-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/901c1b82/Blackburn-Rovers-Queens-Park-Rangers-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bdad062b/Sheffield-Wednesday-West-Bromwich-Albion-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1592fcfa/Middlesbrough-Stoke-City-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4b6683f4/Watford-Sunderland-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5878c137/Leeds-United-Coventry-City-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/597b09d3/Millwall-Preston-North-End-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/65f173f3/Hull-City-Cardiff-City-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/75a9500f/Oxford-United-Burnley-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d8d01d42/Portsmouth-Sheffield-United-September-28-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6dc67563/Swansea-City-Bristol-City-September-29-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/05de17a9/Coventry-City-Blackburn-Rovers-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/15e46af7/Burnley-Plymouth-Argyle-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3a71cd8d/Sunderland-Derby-County-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/59700177/Queens-Park-Rangers-Hull-City-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a67955c6/Norwich-City-Leeds-United-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c0cad892/Cardiff-City-Millwall-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee04264d/Luton-Town-Oxford-United-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9afc6e0a/West-Bromwich-Albion-Middlesbrough-October-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/389c3828/Stoke-City-Portsmouth-October-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4f8b9672/Preston-North-End-Watford-October-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/84ae4d2d/Sheffield-United-Swansea-City-October-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/81814d03/Bristol-City-Sheffield-Wednesday-October-2-2024-Championship</t>
   </si>
 </sst>
 </file>
@@ -3236,7 +3317,7 @@
         <v>#N/A</v>
       </c>
       <c r="U2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3">
@@ -3301,7 +3382,7 @@
         <v>#N/A</v>
       </c>
       <c r="U3" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4">
@@ -3366,7 +3447,7 @@
         <v>#N/A</v>
       </c>
       <c r="U4" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5">
@@ -3431,7 +3512,7 @@
         <v>#N/A</v>
       </c>
       <c r="U5" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6">
@@ -3496,7 +3577,7 @@
         <v>#N/A</v>
       </c>
       <c r="U6" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7">
@@ -3561,7 +3642,7 @@
         <v>#N/A</v>
       </c>
       <c r="U7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8">
@@ -3626,7 +3707,7 @@
         <v>#N/A</v>
       </c>
       <c r="U8" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9">
@@ -3691,7 +3772,7 @@
         <v>#N/A</v>
       </c>
       <c r="U9" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10">
@@ -3756,7 +3837,7 @@
         <v>#N/A</v>
       </c>
       <c r="U10" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11">
@@ -3821,7 +3902,7 @@
         <v>#N/A</v>
       </c>
       <c r="U11" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12">
@@ -3886,7 +3967,7 @@
         <v>#N/A</v>
       </c>
       <c r="U12" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13">
@@ -3951,7 +4032,7 @@
         <v>#N/A</v>
       </c>
       <c r="U13" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14">
@@ -4016,7 +4097,7 @@
         <v>#N/A</v>
       </c>
       <c r="U14" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15">
@@ -4081,7 +4162,7 @@
         <v>#N/A</v>
       </c>
       <c r="U15" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16">
@@ -4146,7 +4227,7 @@
         <v>#N/A</v>
       </c>
       <c r="U16" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="17">
@@ -4211,7 +4292,7 @@
         <v>#N/A</v>
       </c>
       <c r="U17" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18">
@@ -4276,7 +4357,7 @@
         <v>#N/A</v>
       </c>
       <c r="U18" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="19">
@@ -4341,7 +4422,7 @@
         <v>#N/A</v>
       </c>
       <c r="U19" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20">
@@ -4406,7 +4487,7 @@
         <v>#N/A</v>
       </c>
       <c r="U20" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21">
@@ -4471,7 +4552,7 @@
         <v>#N/A</v>
       </c>
       <c r="U21" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22">
@@ -4536,7 +4617,7 @@
         <v>#N/A</v>
       </c>
       <c r="U22" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23">
@@ -4601,7 +4682,7 @@
         <v>#N/A</v>
       </c>
       <c r="U23" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24">
@@ -4666,7 +4747,7 @@
         <v>#N/A</v>
       </c>
       <c r="U24" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25">
@@ -4731,7 +4812,7 @@
         <v>#N/A</v>
       </c>
       <c r="U25" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26">
@@ -4796,7 +4877,7 @@
         <v>#N/A</v>
       </c>
       <c r="U26" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27">
@@ -4861,7 +4942,7 @@
         <v>#N/A</v>
       </c>
       <c r="U27" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28">
@@ -4926,7 +5007,7 @@
         <v>#N/A</v>
       </c>
       <c r="U28" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="29">
@@ -4991,7 +5072,7 @@
         <v>#N/A</v>
       </c>
       <c r="U29" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="30">
@@ -5056,7 +5137,7 @@
         <v>#N/A</v>
       </c>
       <c r="U30" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="31">
@@ -5121,7 +5202,7 @@
         <v>#N/A</v>
       </c>
       <c r="U31" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="32">
@@ -5186,7 +5267,7 @@
         <v>#N/A</v>
       </c>
       <c r="U32" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33">
@@ -5251,7 +5332,7 @@
         <v>#N/A</v>
       </c>
       <c r="U33" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="34">
@@ -5316,7 +5397,7 @@
         <v>#N/A</v>
       </c>
       <c r="U34" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="35">
@@ -5381,7 +5462,7 @@
         <v>#N/A</v>
       </c>
       <c r="U35" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="36">
@@ -5446,7 +5527,7 @@
         <v>#N/A</v>
       </c>
       <c r="U36" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37">
@@ -5511,7 +5592,7 @@
         <v>#N/A</v>
       </c>
       <c r="U37" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="38">
@@ -5576,7 +5657,7 @@
         <v>#N/A</v>
       </c>
       <c r="U38" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39">
@@ -5641,7 +5722,7 @@
         <v>#N/A</v>
       </c>
       <c r="U39" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="40">
@@ -5706,7 +5787,7 @@
         <v>#N/A</v>
       </c>
       <c r="U40" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="41">
@@ -5771,7 +5852,7 @@
         <v>#N/A</v>
       </c>
       <c r="U41" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="42">
@@ -5836,7 +5917,7 @@
         <v>#N/A</v>
       </c>
       <c r="U42" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="43">
@@ -5901,7 +5982,7 @@
         <v>#N/A</v>
       </c>
       <c r="U43" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="44">
@@ -5966,7 +6047,7 @@
         <v>#N/A</v>
       </c>
       <c r="U44" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="45">
@@ -6031,7 +6112,7 @@
         <v>#N/A</v>
       </c>
       <c r="U45" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="46">
@@ -6096,7 +6177,7 @@
         <v>#N/A</v>
       </c>
       <c r="U46" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="47">
@@ -6161,7 +6242,7 @@
         <v>#N/A</v>
       </c>
       <c r="U47" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="48">
@@ -6226,7 +6307,7 @@
         <v>#N/A</v>
       </c>
       <c r="U48" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="49">
@@ -6291,7 +6372,7 @@
         <v>#N/A</v>
       </c>
       <c r="U49" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="50">
@@ -6356,7 +6437,7 @@
         <v>#N/A</v>
       </c>
       <c r="U50" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="51">
@@ -6421,7 +6502,7 @@
         <v>#N/A</v>
       </c>
       <c r="U51" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="52">
@@ -6486,7 +6567,7 @@
         <v>#N/A</v>
       </c>
       <c r="U52" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="53">
@@ -6551,7 +6632,7 @@
         <v>#N/A</v>
       </c>
       <c r="U53" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="54">
@@ -6616,7 +6697,7 @@
         <v>#N/A</v>
       </c>
       <c r="U54" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="55">
@@ -6681,7 +6762,7 @@
         <v>#N/A</v>
       </c>
       <c r="U55" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="56">
@@ -6746,7 +6827,7 @@
         <v>#N/A</v>
       </c>
       <c r="U56" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="57">
@@ -6811,7 +6892,7 @@
         <v>#N/A</v>
       </c>
       <c r="U57" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="58">
@@ -6876,7 +6957,7 @@
         <v>#N/A</v>
       </c>
       <c r="U58" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="59">
@@ -6941,7 +7022,7 @@
         <v>#N/A</v>
       </c>
       <c r="U59" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="60">
@@ -7006,7 +7087,7 @@
         <v>#N/A</v>
       </c>
       <c r="U60" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="61">
@@ -7071,7 +7152,7 @@
         <v>#N/A</v>
       </c>
       <c r="U61" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="62">
@@ -7136,7 +7217,7 @@
         <v>#N/A</v>
       </c>
       <c r="U62" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="63">
@@ -7201,7 +7282,7 @@
         <v>#N/A</v>
       </c>
       <c r="U63" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="64">
@@ -7266,7 +7347,7 @@
         <v>#N/A</v>
       </c>
       <c r="U64" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="65">
@@ -7331,7 +7412,7 @@
         <v>#N/A</v>
       </c>
       <c r="U65" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="66">
@@ -7396,7 +7477,7 @@
         <v>#N/A</v>
       </c>
       <c r="U66" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="67">
@@ -7461,7 +7542,7 @@
         <v>#N/A</v>
       </c>
       <c r="U67" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="68">
@@ -7526,7 +7607,7 @@
         <v>#N/A</v>
       </c>
       <c r="U68" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="69">
@@ -7591,7 +7672,7 @@
         <v>#N/A</v>
       </c>
       <c r="U69" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="70">
@@ -7656,7 +7737,7 @@
         <v>#N/A</v>
       </c>
       <c r="U70" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="71">
@@ -7721,7 +7802,7 @@
         <v>#N/A</v>
       </c>
       <c r="U71" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="72">
@@ -7786,7 +7867,7 @@
         <v>#N/A</v>
       </c>
       <c r="U72" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="73">
@@ -7851,7 +7932,7 @@
         <v>#N/A</v>
       </c>
       <c r="U73" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="74">
@@ -7916,7 +7997,7 @@
         <v>#N/A</v>
       </c>
       <c r="U74" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="75">
@@ -7981,7 +8062,7 @@
         <v>#N/A</v>
       </c>
       <c r="U75" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="76">
@@ -8046,7 +8127,7 @@
         <v>#N/A</v>
       </c>
       <c r="U76" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="77">
@@ -8111,7 +8192,7 @@
         <v>#N/A</v>
       </c>
       <c r="U77" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="78">
@@ -8176,7 +8257,7 @@
         <v>#N/A</v>
       </c>
       <c r="U78" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="79">
@@ -8241,7 +8322,7 @@
         <v>#N/A</v>
       </c>
       <c r="U79" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="80">
@@ -8306,7 +8387,7 @@
         <v>#N/A</v>
       </c>
       <c r="U80" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="81">
@@ -8371,7 +8452,7 @@
         <v>#N/A</v>
       </c>
       <c r="U81" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="82">
@@ -8436,7 +8517,7 @@
         <v>#N/A</v>
       </c>
       <c r="U82" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="83">
@@ -8468,7 +8549,7 @@
         <v>45606.0</v>
       </c>
       <c r="J83" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="K83" t="s">
         <v>611</v>
@@ -8501,7 +8582,7 @@
         <v>#N/A</v>
       </c>
       <c r="U83" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="84">
@@ -8533,7 +8614,7 @@
         <v>45606.0</v>
       </c>
       <c r="J84" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K84" t="s">
         <v>597</v>
@@ -8566,7 +8647,7 @@
         <v>#N/A</v>
       </c>
       <c r="U84" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="85">
@@ -8631,7 +8712,7 @@
         <v>#N/A</v>
       </c>
       <c r="U85" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="86">
@@ -8696,7 +8777,7 @@
         <v>#N/A</v>
       </c>
       <c r="U86" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="87">
@@ -8761,7 +8842,7 @@
         <v>#N/A</v>
       </c>
       <c r="U87" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="88">
@@ -8826,7 +8907,7 @@
         <v>#N/A</v>
       </c>
       <c r="U88" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="89">
@@ -8891,7 +8972,7 @@
         <v>#N/A</v>
       </c>
       <c r="U89" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="90">
@@ -8956,7 +9037,7 @@
         <v>#N/A</v>
       </c>
       <c r="U90" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="91">
@@ -9021,7 +9102,7 @@
         <v>#N/A</v>
       </c>
       <c r="U91" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="92">
@@ -9086,7 +9167,7 @@
         <v>#N/A</v>
       </c>
       <c r="U92" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="93">
@@ -9151,7 +9232,7 @@
         <v>#N/A</v>
       </c>
       <c r="U93" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="94">
@@ -9216,7 +9297,7 @@
         <v>#N/A</v>
       </c>
       <c r="U94" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="95">
@@ -9281,7 +9362,7 @@
         <v>#N/A</v>
       </c>
       <c r="U95" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="96">
@@ -9346,7 +9427,7 @@
         <v>#N/A</v>
       </c>
       <c r="U96" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="97">
@@ -9411,7 +9492,7 @@
         <v>#N/A</v>
       </c>
       <c r="U97" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="98">
@@ -9476,7 +9557,7 @@
         <v>#N/A</v>
       </c>
       <c r="U98" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="99">
@@ -9541,7 +9622,7 @@
         <v>#N/A</v>
       </c>
       <c r="U99" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="100">
@@ -9606,7 +9687,7 @@
         <v>#N/A</v>
       </c>
       <c r="U100" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="101">
@@ -9671,7 +9752,7 @@
         <v>#N/A</v>
       </c>
       <c r="U101" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="102">
@@ -9736,7 +9817,7 @@
         <v>#N/A</v>
       </c>
       <c r="U102" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="103">
@@ -9801,7 +9882,7 @@
         <v>#N/A</v>
       </c>
       <c r="U103" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="104">
@@ -9866,7 +9947,7 @@
         <v>#N/A</v>
       </c>
       <c r="U104" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="105">
@@ -9931,7 +10012,7 @@
         <v>#N/A</v>
       </c>
       <c r="U105" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="106">
@@ -9996,7 +10077,7 @@
         <v>#N/A</v>
       </c>
       <c r="U106" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="107">
@@ -10061,7 +10142,7 @@
         <v>#N/A</v>
       </c>
       <c r="U107" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="108">
@@ -10126,7 +10207,7 @@
         <v>#N/A</v>
       </c>
       <c r="U108" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="109">
@@ -10191,7 +10272,7 @@
         <v>#N/A</v>
       </c>
       <c r="U109" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="110">
@@ -10256,7 +10337,7 @@
         <v>#N/A</v>
       </c>
       <c r="U110" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="111">
@@ -10321,7 +10402,7 @@
         <v>#N/A</v>
       </c>
       <c r="U111" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="112">
@@ -10386,7 +10467,7 @@
         <v>#N/A</v>
       </c>
       <c r="U112" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="113">
@@ -10451,7 +10532,7 @@
         <v>#N/A</v>
       </c>
       <c r="U113" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="114">
@@ -10483,7 +10564,7 @@
         <v>45626.0</v>
       </c>
       <c r="J114" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K114" t="s">
         <v>593</v>
@@ -10516,7 +10597,7 @@
         <v>#N/A</v>
       </c>
       <c r="U114" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="115">
@@ -10581,7 +10662,7 @@
         <v>#N/A</v>
       </c>
       <c r="U115" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="116">
@@ -10646,7 +10727,7 @@
         <v>#N/A</v>
       </c>
       <c r="U116" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="117">
@@ -10711,7 +10792,7 @@
         <v>#N/A</v>
       </c>
       <c r="U117" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="118">
@@ -10776,7 +10857,7 @@
         <v>#N/A</v>
       </c>
       <c r="U118" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="119">
@@ -10841,7 +10922,7 @@
         <v>#N/A</v>
       </c>
       <c r="U119" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="120">
@@ -10906,7 +10987,7 @@
         <v>#N/A</v>
       </c>
       <c r="U120" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="121">
@@ -10971,7 +11052,7 @@
         <v>#N/A</v>
       </c>
       <c r="U121" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="122">
@@ -11036,7 +11117,7 @@
         <v>#N/A</v>
       </c>
       <c r="U122" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="123">
@@ -11101,7 +11182,7 @@
         <v>#N/A</v>
       </c>
       <c r="U123" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="124">
@@ -11166,7 +11247,7 @@
         <v>#N/A</v>
       </c>
       <c r="U124" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="125">
@@ -11231,7 +11312,7 @@
         <v>#N/A</v>
       </c>
       <c r="U125" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="126">
@@ -11296,7 +11377,7 @@
         <v>#N/A</v>
       </c>
       <c r="U126" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="127">
@@ -11361,7 +11442,7 @@
         <v>#N/A</v>
       </c>
       <c r="U127" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="128">
@@ -11426,7 +11507,7 @@
         <v>#N/A</v>
       </c>
       <c r="U128" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="129">
@@ -11491,7 +11572,7 @@
         <v>#N/A</v>
       </c>
       <c r="U129" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="130">
@@ -11556,7 +11637,7 @@
         <v>#N/A</v>
       </c>
       <c r="U130" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="131">
@@ -11621,7 +11702,7 @@
         <v>#N/A</v>
       </c>
       <c r="U131" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="132">
@@ -11686,7 +11767,7 @@
         <v>#N/A</v>
       </c>
       <c r="U132" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="133">
@@ -11751,7 +11832,7 @@
         <v>#N/A</v>
       </c>
       <c r="U133" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="134">
@@ -11816,7 +11897,7 @@
         <v>#N/A</v>
       </c>
       <c r="U134" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="135">
@@ -11881,7 +11962,7 @@
         <v>#N/A</v>
       </c>
       <c r="U135" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="136">
@@ -11946,7 +12027,7 @@
         <v>#N/A</v>
       </c>
       <c r="U136" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="137">
@@ -12011,7 +12092,7 @@
         <v>#N/A</v>
       </c>
       <c r="U137" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="138">
@@ -12076,7 +12157,7 @@
         <v>#N/A</v>
       </c>
       <c r="U138" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="139">
@@ -12141,7 +12222,7 @@
         <v>#N/A</v>
       </c>
       <c r="U139" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="140">
@@ -12206,7 +12287,7 @@
         <v>#N/A</v>
       </c>
       <c r="U140" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="141">
@@ -12271,7 +12352,7 @@
         <v>#N/A</v>
       </c>
       <c r="U141" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="142">
@@ -12336,7 +12417,7 @@
         <v>#N/A</v>
       </c>
       <c r="U142" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="143">
@@ -12401,7 +12482,7 @@
         <v>#N/A</v>
       </c>
       <c r="U143" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="144">
@@ -12466,7 +12547,7 @@
         <v>#N/A</v>
       </c>
       <c r="U144" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="145">
@@ -12498,7 +12579,7 @@
         <v>45522.0</v>
       </c>
       <c r="J145" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K145" t="s">
         <v>614</v>
@@ -12531,7 +12612,7 @@
         <v>#N/A</v>
       </c>
       <c r="U145" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="146">
@@ -12596,7 +12677,7 @@
         <v>#N/A</v>
       </c>
       <c r="U146" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="147">
@@ -12661,7 +12742,7 @@
         <v>#N/A</v>
       </c>
       <c r="U147" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="148">
@@ -12726,7 +12807,7 @@
         <v>#N/A</v>
       </c>
       <c r="U148" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="149">
@@ -12791,7 +12872,7 @@
         <v>#N/A</v>
       </c>
       <c r="U149" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="150">
@@ -12856,7 +12937,7 @@
         <v>#N/A</v>
       </c>
       <c r="U150" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="151">
@@ -12921,7 +13002,7 @@
         <v>#N/A</v>
       </c>
       <c r="U151" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="152">
@@ -12986,7 +13067,7 @@
         <v>#N/A</v>
       </c>
       <c r="U152" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="153">
@@ -13051,7 +13132,7 @@
         <v>#N/A</v>
       </c>
       <c r="U153" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="154">
@@ -13116,7 +13197,7 @@
         <v>#N/A</v>
       </c>
       <c r="U154" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="155">
@@ -13181,7 +13262,7 @@
         <v>#N/A</v>
       </c>
       <c r="U155" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="156">
@@ -13246,7 +13327,7 @@
         <v>#N/A</v>
       </c>
       <c r="U156" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="157">
@@ -13311,7 +13392,7 @@
         <v>#N/A</v>
       </c>
       <c r="U157" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="158">
@@ -13376,7 +13457,7 @@
         <v>#N/A</v>
       </c>
       <c r="U158" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="159">
@@ -13441,7 +13522,7 @@
         <v>#N/A</v>
       </c>
       <c r="U159" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="160">
@@ -13506,7 +13587,7 @@
         <v>#N/A</v>
       </c>
       <c r="U160" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="161">
@@ -13571,7 +13652,7 @@
         <v>#N/A</v>
       </c>
       <c r="U161" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="162">
@@ -13636,7 +13717,7 @@
         <v>#N/A</v>
       </c>
       <c r="U162" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="163">
@@ -13701,7 +13782,7 @@
         <v>#N/A</v>
       </c>
       <c r="U163" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="164">
@@ -13766,7 +13847,7 @@
         <v>#N/A</v>
       </c>
       <c r="U164" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="165">
@@ -13831,7 +13912,7 @@
         <v>#N/A</v>
       </c>
       <c r="U165" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="166">
@@ -13896,7 +13977,7 @@
         <v>#N/A</v>
       </c>
       <c r="U166" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="167">
@@ -13961,7 +14042,7 @@
         <v>#N/A</v>
       </c>
       <c r="U167" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="168">
@@ -14026,7 +14107,7 @@
         <v>#N/A</v>
       </c>
       <c r="U168" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="169">
@@ -14091,7 +14172,7 @@
         <v>#N/A</v>
       </c>
       <c r="U169" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="170">
@@ -14156,7 +14237,7 @@
         <v>#N/A</v>
       </c>
       <c r="U170" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="171">
@@ -14221,7 +14302,7 @@
         <v>#N/A</v>
       </c>
       <c r="U171" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="172">
@@ -14286,7 +14367,7 @@
         <v>#N/A</v>
       </c>
       <c r="U172" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="173">
@@ -14351,7 +14432,7 @@
         <v>#N/A</v>
       </c>
       <c r="U173" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="174">
@@ -14416,7 +14497,7 @@
         <v>#N/A</v>
       </c>
       <c r="U174" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="175">
@@ -14481,7 +14562,7 @@
         <v>#N/A</v>
       </c>
       <c r="U175" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="176">
@@ -14546,7 +14627,7 @@
         <v>#N/A</v>
       </c>
       <c r="U176" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="177">
@@ -14611,7 +14692,7 @@
         <v>#N/A</v>
       </c>
       <c r="U177" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="178">
@@ -14676,7 +14757,7 @@
         <v>#N/A</v>
       </c>
       <c r="U178" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="179">
@@ -14741,7 +14822,7 @@
         <v>#N/A</v>
       </c>
       <c r="U179" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="180">
@@ -14806,7 +14887,7 @@
         <v>#N/A</v>
       </c>
       <c r="U180" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="181">
@@ -14871,7 +14952,7 @@
         <v>#N/A</v>
       </c>
       <c r="U181" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="182">
@@ -14936,7 +15017,7 @@
         <v>#N/A</v>
       </c>
       <c r="U182" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="183">
@@ -15001,7 +15082,7 @@
         <v>#N/A</v>
       </c>
       <c r="U183" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="184">
@@ -15066,7 +15147,7 @@
         <v>#N/A</v>
       </c>
       <c r="U184" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="185">
@@ -15131,7 +15212,7 @@
         <v>#N/A</v>
       </c>
       <c r="U185" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="186">
@@ -15196,7 +15277,7 @@
         <v>#N/A</v>
       </c>
       <c r="U186" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="187">
@@ -15261,7 +15342,7 @@
         <v>#N/A</v>
       </c>
       <c r="U187" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="188">
@@ -15326,7 +15407,7 @@
         <v>#N/A</v>
       </c>
       <c r="U188" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="189">
@@ -15391,7 +15472,7 @@
         <v>#N/A</v>
       </c>
       <c r="U189" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="190">
@@ -15456,7 +15537,7 @@
         <v>#N/A</v>
       </c>
       <c r="U190" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="191">
@@ -15521,7 +15602,7 @@
         <v>#N/A</v>
       </c>
       <c r="U191" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="192">
@@ -15586,7 +15667,7 @@
         <v>#N/A</v>
       </c>
       <c r="U192" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="193">
@@ -15651,7 +15732,7 @@
         <v>#N/A</v>
       </c>
       <c r="U193" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="194">
@@ -15716,7 +15797,7 @@
         <v>#N/A</v>
       </c>
       <c r="U194" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="195">
@@ -15781,7 +15862,7 @@
         <v>#N/A</v>
       </c>
       <c r="U195" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="196">
@@ -15846,7 +15927,7 @@
         <v>#N/A</v>
       </c>
       <c r="U196" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="197">
@@ -15911,7 +15992,7 @@
         <v>#N/A</v>
       </c>
       <c r="U197" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="198">
@@ -15976,7 +16057,7 @@
         <v>#N/A</v>
       </c>
       <c r="U198" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="199">
@@ -16041,7 +16122,7 @@
         <v>#N/A</v>
       </c>
       <c r="U199" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="200">
@@ -16106,7 +16187,7 @@
         <v>#N/A</v>
       </c>
       <c r="U200" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="201">
@@ -16171,7 +16252,7 @@
         <v>#N/A</v>
       </c>
       <c r="U201" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="202">
@@ -16236,7 +16317,7 @@
         <v>#N/A</v>
       </c>
       <c r="U202" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="203">
@@ -16301,7 +16382,7 @@
         <v>#N/A</v>
       </c>
       <c r="U203" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="204">
@@ -16366,7 +16447,7 @@
         <v>#N/A</v>
       </c>
       <c r="U204" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="205">
@@ -16431,7 +16512,7 @@
         <v>#N/A</v>
       </c>
       <c r="U205" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="206">
@@ -16496,7 +16577,7 @@
         <v>#N/A</v>
       </c>
       <c r="U206" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="207">
@@ -16561,7 +16642,7 @@
         <v>#N/A</v>
       </c>
       <c r="U207" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="208">
@@ -16593,7 +16674,7 @@
         <v>45658.0</v>
       </c>
       <c r="J208" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K208" t="s">
         <v>599</v>
@@ -16626,7 +16707,7 @@
         <v>#N/A</v>
       </c>
       <c r="U208" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="209">
@@ -16691,7 +16772,7 @@
         <v>#N/A</v>
       </c>
       <c r="U209" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="210">
@@ -16756,7 +16837,7 @@
         <v>#N/A</v>
       </c>
       <c r="U210" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="211">
@@ -16821,7 +16902,7 @@
         <v>#N/A</v>
       </c>
       <c r="U211" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="212">
@@ -16886,7 +16967,7 @@
         <v>#N/A</v>
       </c>
       <c r="U212" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="213">
@@ -16951,7 +17032,7 @@
         <v>#N/A</v>
       </c>
       <c r="U213" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="214">
@@ -17016,7 +17097,7 @@
         <v>#N/A</v>
       </c>
       <c r="U214" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="215">
@@ -17081,7 +17162,7 @@
         <v>#N/A</v>
       </c>
       <c r="U215" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="216">
@@ -17146,7 +17227,7 @@
         <v>#N/A</v>
       </c>
       <c r="U216" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="217">
@@ -17211,7 +17292,7 @@
         <v>#N/A</v>
       </c>
       <c r="U217" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="218">
@@ -17276,7 +17357,7 @@
         <v>#N/A</v>
       </c>
       <c r="U218" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
     </row>
     <row r="219">
@@ -17341,7 +17422,7 @@
         <v>#N/A</v>
       </c>
       <c r="U219" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="220">
@@ -17406,7 +17487,7 @@
         <v>#N/A</v>
       </c>
       <c r="U220" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="221">
@@ -17471,7 +17552,7 @@
         <v>#N/A</v>
       </c>
       <c r="U221" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="222">
@@ -17536,7 +17617,7 @@
         <v>#N/A</v>
       </c>
       <c r="U222" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="223">
@@ -17601,7 +17682,7 @@
         <v>#N/A</v>
       </c>
       <c r="U223" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="224">
@@ -17666,7 +17747,7 @@
         <v>#N/A</v>
       </c>
       <c r="U224" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="225">
@@ -17731,7 +17812,7 @@
         <v>#N/A</v>
       </c>
       <c r="U225" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="226">
@@ -17796,7 +17877,7 @@
         <v>#N/A</v>
       </c>
       <c r="U226" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="227">
@@ -17861,7 +17942,7 @@
         <v>#N/A</v>
       </c>
       <c r="U227" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="228">
@@ -17926,7 +18007,7 @@
         <v>#N/A</v>
       </c>
       <c r="U228" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="229">
@@ -17991,7 +18072,7 @@
         <v>#N/A</v>
       </c>
       <c r="U229" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="230">
@@ -18056,7 +18137,7 @@
         <v>#N/A</v>
       </c>
       <c r="U230" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="231">
@@ -18121,7 +18202,7 @@
         <v>#N/A</v>
       </c>
       <c r="U231" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="232">
@@ -18186,7 +18267,7 @@
         <v>#N/A</v>
       </c>
       <c r="U232" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="233">
@@ -18251,7 +18332,7 @@
         <v>#N/A</v>
       </c>
       <c r="U233" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="234">
@@ -18316,7 +18397,7 @@
         <v>#N/A</v>
       </c>
       <c r="U234" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="235">
@@ -18381,7 +18462,7 @@
         <v>#N/A</v>
       </c>
       <c r="U235" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="236">
@@ -18446,7 +18527,7 @@
         <v>#N/A</v>
       </c>
       <c r="U236" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="237">
@@ -18511,7 +18592,7 @@
         <v>#N/A</v>
       </c>
       <c r="U237" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="238">
@@ -18576,7 +18657,7 @@
         <v>#N/A</v>
       </c>
       <c r="U238" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="239">
@@ -18641,7 +18722,7 @@
         <v>#N/A</v>
       </c>
       <c r="U239" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="240">
@@ -18706,7 +18787,7 @@
         <v>#N/A</v>
       </c>
       <c r="U240" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="241">
@@ -18771,7 +18852,7 @@
         <v>#N/A</v>
       </c>
       <c r="U241" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="242">
@@ -18836,7 +18917,7 @@
         <v>#N/A</v>
       </c>
       <c r="U242" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="243">
@@ -18901,7 +18982,7 @@
         <v>#N/A</v>
       </c>
       <c r="U243" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="244">
@@ -18966,7 +19047,7 @@
         <v>#N/A</v>
       </c>
       <c r="U244" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="245">
@@ -19031,7 +19112,7 @@
         <v>#N/A</v>
       </c>
       <c r="U245" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="246">
@@ -19096,7 +19177,7 @@
         <v>#N/A</v>
       </c>
       <c r="U246" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="247">
@@ -19161,7 +19242,7 @@
         <v>#N/A</v>
       </c>
       <c r="U247" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="248">
@@ -19226,7 +19307,7 @@
         <v>#N/A</v>
       </c>
       <c r="U248" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="249">
@@ -19291,7 +19372,7 @@
         <v>#N/A</v>
       </c>
       <c r="U249" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="250">
@@ -19356,7 +19437,7 @@
         <v>#N/A</v>
       </c>
       <c r="U250" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="251">
@@ -19421,7 +19502,7 @@
         <v>#N/A</v>
       </c>
       <c r="U251" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="252">
@@ -19486,7 +19567,7 @@
         <v>#N/A</v>
       </c>
       <c r="U252" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="253">
@@ -19551,7 +19632,7 @@
         <v>#N/A</v>
       </c>
       <c r="U253" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="254">
@@ -19616,7 +19697,7 @@
         <v>#N/A</v>
       </c>
       <c r="U254" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="255">
@@ -19681,7 +19762,7 @@
         <v>#N/A</v>
       </c>
       <c r="U255" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="256">
@@ -19746,7 +19827,7 @@
         <v>#N/A</v>
       </c>
       <c r="U256" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="257">
@@ -19811,7 +19892,7 @@
         <v>#N/A</v>
       </c>
       <c r="U257" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="258">
@@ -19876,7 +19957,7 @@
         <v>#N/A</v>
       </c>
       <c r="U258" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="259">
@@ -19941,7 +20022,7 @@
         <v>#N/A</v>
       </c>
       <c r="U259" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="260">
@@ -20006,7 +20087,7 @@
         <v>#N/A</v>
       </c>
       <c r="U260" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="261">
@@ -20071,7 +20152,7 @@
         <v>#N/A</v>
       </c>
       <c r="U261" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="262">
@@ -20136,7 +20217,7 @@
         <v>#N/A</v>
       </c>
       <c r="U262" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="263">
@@ -20201,7 +20282,7 @@
         <v>#N/A</v>
       </c>
       <c r="U263" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="264">
@@ -20266,7 +20347,7 @@
         <v>#N/A</v>
       </c>
       <c r="U264" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="265">
@@ -20331,7 +20412,7 @@
         <v>#N/A</v>
       </c>
       <c r="U265" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="266">
@@ -20396,7 +20477,7 @@
         <v>#N/A</v>
       </c>
       <c r="U266" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="267">
@@ -20461,7 +20542,7 @@
         <v>#N/A</v>
       </c>
       <c r="U267" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="268">
@@ -20526,7 +20607,7 @@
         <v>#N/A</v>
       </c>
       <c r="U268" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="269">
@@ -20591,7 +20672,7 @@
         <v>#N/A</v>
       </c>
       <c r="U269" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="270">
@@ -20656,7 +20737,7 @@
         <v>#N/A</v>
       </c>
       <c r="U270" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="271">
@@ -20721,7 +20802,7 @@
         <v>#N/A</v>
       </c>
       <c r="U271" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="272">
@@ -20786,7 +20867,7 @@
         <v>#N/A</v>
       </c>
       <c r="U272" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="273">
@@ -20851,7 +20932,7 @@
         <v>#N/A</v>
       </c>
       <c r="U273" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="274">
@@ -20916,7 +20997,7 @@
         <v>#N/A</v>
       </c>
       <c r="U274" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="275">
@@ -20981,7 +21062,7 @@
         <v>#N/A</v>
       </c>
       <c r="U275" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="276">
@@ -21046,7 +21127,7 @@
         <v>#N/A</v>
       </c>
       <c r="U276" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="277">
@@ -21111,7 +21192,7 @@
         <v>#N/A</v>
       </c>
       <c r="U277" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="278">
@@ -21176,7 +21257,7 @@
         <v>#N/A</v>
       </c>
       <c r="U278" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="279">
@@ -21241,7 +21322,7 @@
         <v>#N/A</v>
       </c>
       <c r="U279" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="280">
@@ -21306,7 +21387,7 @@
         <v>#N/A</v>
       </c>
       <c r="U280" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="281">
@@ -21371,7 +21452,7 @@
         <v>#N/A</v>
       </c>
       <c r="U281" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="282">
@@ -21436,7 +21517,7 @@
         <v>#N/A</v>
       </c>
       <c r="U282" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="283">
@@ -21501,7 +21582,7 @@
         <v>#N/A</v>
       </c>
       <c r="U283" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="284">
@@ -21566,7 +21647,7 @@
         <v>#N/A</v>
       </c>
       <c r="U284" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="285">
@@ -21631,7 +21712,7 @@
         <v>#N/A</v>
       </c>
       <c r="U285" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="286">
@@ -21696,7 +21777,7 @@
         <v>#N/A</v>
       </c>
       <c r="U286" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="287">
@@ -21761,7 +21842,7 @@
         <v>#N/A</v>
       </c>
       <c r="U287" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="288">
@@ -21826,7 +21907,7 @@
         <v>#N/A</v>
       </c>
       <c r="U288" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="289">
@@ -21891,7 +21972,7 @@
         <v>#N/A</v>
       </c>
       <c r="U289" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="290">
@@ -21956,7 +22037,7 @@
         <v>#N/A</v>
       </c>
       <c r="U290" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="291">
@@ -22021,7 +22102,7 @@
         <v>#N/A</v>
       </c>
       <c r="U291" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="292">
@@ -22086,7 +22167,7 @@
         <v>#N/A</v>
       </c>
       <c r="U292" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
     </row>
     <row r="293">
@@ -22151,7 +22232,7 @@
         <v>#N/A</v>
       </c>
       <c r="U293" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="294">
@@ -22216,7 +22297,7 @@
         <v>#N/A</v>
       </c>
       <c r="U294" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="295">
@@ -22281,7 +22362,7 @@
         <v>#N/A</v>
       </c>
       <c r="U295" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="296">
@@ -22346,7 +22427,7 @@
         <v>#N/A</v>
       </c>
       <c r="U296" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="297">
@@ -22411,7 +22492,7 @@
         <v>#N/A</v>
       </c>
       <c r="U297" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="298">
@@ -22476,7 +22557,7 @@
         <v>#N/A</v>
       </c>
       <c r="U298" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="299">
@@ -22541,7 +22622,7 @@
         <v>#N/A</v>
       </c>
       <c r="U299" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="300">
@@ -22606,7 +22687,7 @@
         <v>#N/A</v>
       </c>
       <c r="U300" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="301">
@@ -22671,7 +22752,7 @@
         <v>#N/A</v>
       </c>
       <c r="U301" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="302">
@@ -22736,7 +22817,7 @@
         <v>#N/A</v>
       </c>
       <c r="U302" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="303">
@@ -22801,7 +22882,7 @@
         <v>#N/A</v>
       </c>
       <c r="U303" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="304">
@@ -22866,7 +22947,7 @@
         <v>#N/A</v>
       </c>
       <c r="U304" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="305">
@@ -22931,7 +23012,7 @@
         <v>#N/A</v>
       </c>
       <c r="U305" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="306">
@@ -22996,7 +23077,7 @@
         <v>#N/A</v>
       </c>
       <c r="U306" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="307">
@@ -23061,7 +23142,7 @@
         <v>#N/A</v>
       </c>
       <c r="U307" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="308">
@@ -23126,7 +23207,7 @@
         <v>#N/A</v>
       </c>
       <c r="U308" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="309">
@@ -23191,7 +23272,7 @@
         <v>#N/A</v>
       </c>
       <c r="U309" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="310">
@@ -23256,7 +23337,7 @@
         <v>#N/A</v>
       </c>
       <c r="U310" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="311">
@@ -23321,7 +23402,7 @@
         <v>#N/A</v>
       </c>
       <c r="U311" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="312">
@@ -23386,7 +23467,7 @@
         <v>#N/A</v>
       </c>
       <c r="U312" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="313">
@@ -23451,7 +23532,7 @@
         <v>#N/A</v>
       </c>
       <c r="U313" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="314">
@@ -23516,7 +23597,7 @@
         <v>#N/A</v>
       </c>
       <c r="U314" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="315">
@@ -23581,7 +23662,7 @@
         <v>#N/A</v>
       </c>
       <c r="U315" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="316">
@@ -23646,7 +23727,7 @@
         <v>#N/A</v>
       </c>
       <c r="U316" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="317">
@@ -23711,7 +23792,7 @@
         <v>#N/A</v>
       </c>
       <c r="U317" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="318">
@@ -23776,7 +23857,7 @@
         <v>#N/A</v>
       </c>
       <c r="U318" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="319">
@@ -23841,7 +23922,7 @@
         <v>#N/A</v>
       </c>
       <c r="U319" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="320">
@@ -23906,7 +23987,7 @@
         <v>#N/A</v>
       </c>
       <c r="U320" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="321">
@@ -23971,7 +24052,7 @@
         <v>#N/A</v>
       </c>
       <c r="U321" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="322">
@@ -24036,7 +24117,7 @@
         <v>#N/A</v>
       </c>
       <c r="U322" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="323">
@@ -24101,7 +24182,7 @@
         <v>#N/A</v>
       </c>
       <c r="U323" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="324">
@@ -24166,7 +24247,7 @@
         <v>#N/A</v>
       </c>
       <c r="U324" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="325">
@@ -24231,7 +24312,7 @@
         <v>#N/A</v>
       </c>
       <c r="U325" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="326">
@@ -24296,7 +24377,7 @@
         <v>#N/A</v>
       </c>
       <c r="U326" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="327">
@@ -24361,7 +24442,7 @@
         <v>#N/A</v>
       </c>
       <c r="U327" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="328">
@@ -24426,7 +24507,7 @@
         <v>#N/A</v>
       </c>
       <c r="U328" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="329">
@@ -24491,7 +24572,7 @@
         <v>#N/A</v>
       </c>
       <c r="U329" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="330">
@@ -24556,7 +24637,7 @@
         <v>#N/A</v>
       </c>
       <c r="U330" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="331">
@@ -24621,7 +24702,7 @@
         <v>#N/A</v>
       </c>
       <c r="U331" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="332">
@@ -24686,7 +24767,7 @@
         <v>#N/A</v>
       </c>
       <c r="U332" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="333">
@@ -24751,7 +24832,7 @@
         <v>#N/A</v>
       </c>
       <c r="U333" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="334">
@@ -24816,7 +24897,7 @@
         <v>#N/A</v>
       </c>
       <c r="U334" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="335">
@@ -24881,7 +24962,7 @@
         <v>#N/A</v>
       </c>
       <c r="U335" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="336">
@@ -24946,7 +25027,7 @@
         <v>#N/A</v>
       </c>
       <c r="U336" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="337">
@@ -25011,7 +25092,7 @@
         <v>#N/A</v>
       </c>
       <c r="U337" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="338">
@@ -25076,7 +25157,7 @@
         <v>#N/A</v>
       </c>
       <c r="U338" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="339">
@@ -25141,7 +25222,7 @@
         <v>#N/A</v>
       </c>
       <c r="U339" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="340">
@@ -25206,7 +25287,7 @@
         <v>#N/A</v>
       </c>
       <c r="U340" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="341">
@@ -25271,7 +25352,7 @@
         <v>#N/A</v>
       </c>
       <c r="U341" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="342">
@@ -25336,7 +25417,7 @@
         <v>#N/A</v>
       </c>
       <c r="U342" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="343">
@@ -25401,7 +25482,7 @@
         <v>#N/A</v>
       </c>
       <c r="U343" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="344">
@@ -25466,7 +25547,7 @@
         <v>#N/A</v>
       </c>
       <c r="U344" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="345">
@@ -25531,7 +25612,7 @@
         <v>#N/A</v>
       </c>
       <c r="U345" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="346">
@@ -25596,7 +25677,7 @@
         <v>#N/A</v>
       </c>
       <c r="U346" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
     </row>
     <row r="347">
@@ -25661,7 +25742,7 @@
         <v>#N/A</v>
       </c>
       <c r="U347" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="348">
@@ -25726,7 +25807,7 @@
         <v>#N/A</v>
       </c>
       <c r="U348" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="349">
@@ -25791,7 +25872,7 @@
         <v>#N/A</v>
       </c>
       <c r="U349" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="350">
@@ -25856,7 +25937,7 @@
         <v>#N/A</v>
       </c>
       <c r="U350" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="351">
@@ -25921,7 +26002,7 @@
         <v>#N/A</v>
       </c>
       <c r="U351" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="352">
@@ -25986,7 +26067,7 @@
         <v>#N/A</v>
       </c>
       <c r="U352" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
     </row>
     <row r="353">
@@ -26051,7 +26132,7 @@
         <v>#N/A</v>
       </c>
       <c r="U353" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="354">
@@ -26116,7 +26197,7 @@
         <v>#N/A</v>
       </c>
       <c r="U354" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
     <row r="355">
@@ -26181,7 +26262,7 @@
         <v>#N/A</v>
       </c>
       <c r="U355" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="356">
@@ -26246,7 +26327,7 @@
         <v>#N/A</v>
       </c>
       <c r="U356" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="357">
@@ -26311,7 +26392,7 @@
         <v>#N/A</v>
       </c>
       <c r="U357" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="358">
@@ -26376,7 +26457,7 @@
         <v>#N/A</v>
       </c>
       <c r="U358" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="359">
@@ -26441,7 +26522,7 @@
         <v>#N/A</v>
       </c>
       <c r="U359" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="360">
@@ -26506,7 +26587,7 @@
         <v>#N/A</v>
       </c>
       <c r="U360" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="361">
@@ -26571,7 +26652,7 @@
         <v>#N/A</v>
       </c>
       <c r="U361" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="362">
@@ -26636,7 +26717,7 @@
         <v>#N/A</v>
       </c>
       <c r="U362" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="363">
@@ -26701,7 +26782,7 @@
         <v>#N/A</v>
       </c>
       <c r="U363" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="364">
@@ -26766,7 +26847,7 @@
         <v>#N/A</v>
       </c>
       <c r="U364" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="365">
@@ -26831,7 +26912,7 @@
         <v>#N/A</v>
       </c>
       <c r="U365" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="366">
@@ -26896,7 +26977,7 @@
         <v>#N/A</v>
       </c>
       <c r="U366" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="367">
@@ -26961,7 +27042,7 @@
         <v>#N/A</v>
       </c>
       <c r="U367" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="368">
@@ -27026,7 +27107,7 @@
         <v>#N/A</v>
       </c>
       <c r="U368" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="369">
@@ -27091,7 +27172,7 @@
         <v>#N/A</v>
       </c>
       <c r="U369" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="370">
@@ -27156,7 +27237,7 @@
         <v>#N/A</v>
       </c>
       <c r="U370" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="371">
@@ -27221,7 +27302,7 @@
         <v>#N/A</v>
       </c>
       <c r="U371" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="372">
@@ -27286,7 +27367,7 @@
         <v>#N/A</v>
       </c>
       <c r="U372" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="373">
@@ -27351,7 +27432,7 @@
         <v>#N/A</v>
       </c>
       <c r="U373" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="374">
@@ -27416,7 +27497,7 @@
         <v>#N/A</v>
       </c>
       <c r="U374" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="375">
@@ -27481,7 +27562,7 @@
         <v>#N/A</v>
       </c>
       <c r="U375" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="376">
@@ -27546,7 +27627,7 @@
         <v>#N/A</v>
       </c>
       <c r="U376" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="377">
@@ -27611,7 +27692,7 @@
         <v>#N/A</v>
       </c>
       <c r="U377" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="378">
@@ -27676,7 +27757,7 @@
         <v>#N/A</v>
       </c>
       <c r="U378" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="379">
@@ -27741,7 +27822,7 @@
         <v>#N/A</v>
       </c>
       <c r="U379" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="380">
@@ -27806,7 +27887,7 @@
         <v>#N/A</v>
       </c>
       <c r="U380" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="381">
@@ -27871,7 +27952,7 @@
         <v>#N/A</v>
       </c>
       <c r="U381" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="382">
@@ -27936,7 +28017,7 @@
         <v>#N/A</v>
       </c>
       <c r="U382" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="383">
@@ -28001,7 +28082,7 @@
         <v>#N/A</v>
       </c>
       <c r="U383" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="384">
@@ -28066,7 +28147,7 @@
         <v>#N/A</v>
       </c>
       <c r="U384" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="385">
@@ -28131,7 +28212,7 @@
         <v>#N/A</v>
       </c>
       <c r="U385" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="386">
@@ -28196,7 +28277,7 @@
         <v>#N/A</v>
       </c>
       <c r="U386" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="387">
@@ -28261,7 +28342,7 @@
         <v>#N/A</v>
       </c>
       <c r="U387" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="388">
@@ -28326,7 +28407,7 @@
         <v>#N/A</v>
       </c>
       <c r="U388" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="389">
@@ -28391,7 +28472,7 @@
         <v>#N/A</v>
       </c>
       <c r="U389" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="390">
@@ -28456,7 +28537,7 @@
         <v>#N/A</v>
       </c>
       <c r="U390" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="391">
@@ -28521,7 +28602,7 @@
         <v>#N/A</v>
       </c>
       <c r="U391" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="392">
@@ -28586,7 +28667,7 @@
         <v>#N/A</v>
       </c>
       <c r="U392" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="393">
@@ -28651,7 +28732,7 @@
         <v>#N/A</v>
       </c>
       <c r="U393" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="394">
@@ -28716,7 +28797,7 @@
         <v>#N/A</v>
       </c>
       <c r="U394" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="395">
@@ -28781,7 +28862,7 @@
         <v>#N/A</v>
       </c>
       <c r="U395" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="396">
@@ -28846,7 +28927,7 @@
         <v>#N/A</v>
       </c>
       <c r="U396" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="397">
@@ -28911,7 +28992,7 @@
         <v>#N/A</v>
       </c>
       <c r="U397" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="398">
@@ -28976,7 +29057,7 @@
         <v>#N/A</v>
       </c>
       <c r="U398" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="399">
@@ -29041,7 +29122,7 @@
         <v>#N/A</v>
       </c>
       <c r="U399" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="400">
@@ -29106,7 +29187,7 @@
         <v>#N/A</v>
       </c>
       <c r="U400" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="401">
@@ -29171,7 +29252,7 @@
         <v>#N/A</v>
       </c>
       <c r="U401" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="402">
@@ -29236,7 +29317,7 @@
         <v>#N/A</v>
       </c>
       <c r="U402" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="403">
@@ -29301,7 +29382,7 @@
         <v>#N/A</v>
       </c>
       <c r="U403" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="404">
@@ -29366,7 +29447,7 @@
         <v>#N/A</v>
       </c>
       <c r="U404" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="405">
@@ -29431,7 +29512,7 @@
         <v>#N/A</v>
       </c>
       <c r="U405" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="406">
@@ -29496,7 +29577,7 @@
         <v>#N/A</v>
       </c>
       <c r="U406" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="407">
@@ -29561,7 +29642,7 @@
         <v>#N/A</v>
       </c>
       <c r="U407" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
     </row>
     <row r="408">
@@ -29626,7 +29707,7 @@
         <v>#N/A</v>
       </c>
       <c r="U408" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
     </row>
     <row r="409">
@@ -29691,7 +29772,7 @@
         <v>#N/A</v>
       </c>
       <c r="U409" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="410">
@@ -29756,7 +29837,7 @@
         <v>#N/A</v>
       </c>
       <c r="U410" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="411">
@@ -29821,7 +29902,7 @@
         <v>#N/A</v>
       </c>
       <c r="U411" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="412">
@@ -29886,7 +29967,7 @@
         <v>#N/A</v>
       </c>
       <c r="U412" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="413">
@@ -29951,7 +30032,7 @@
         <v>#N/A</v>
       </c>
       <c r="U413" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="414">
@@ -30016,7 +30097,7 @@
         <v>#N/A</v>
       </c>
       <c r="U414" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="415">
@@ -30081,7 +30162,7 @@
         <v>#N/A</v>
       </c>
       <c r="U415" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="416">
@@ -30146,7 +30227,7 @@
         <v>#N/A</v>
       </c>
       <c r="U416" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="417">
@@ -30211,7 +30292,7 @@
         <v>#N/A</v>
       </c>
       <c r="U417" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="418">
@@ -30276,7 +30357,7 @@
         <v>#N/A</v>
       </c>
       <c r="U418" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="419">
@@ -30341,7 +30422,7 @@
         <v>#N/A</v>
       </c>
       <c r="U419" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="420">
@@ -30406,7 +30487,7 @@
         <v>#N/A</v>
       </c>
       <c r="U420" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="421">
@@ -30471,7 +30552,7 @@
         <v>#N/A</v>
       </c>
       <c r="U421" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="422">
@@ -30536,7 +30617,7 @@
         <v>#N/A</v>
       </c>
       <c r="U422" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="423">
@@ -30601,7 +30682,7 @@
         <v>#N/A</v>
       </c>
       <c r="U423" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="424">
@@ -30666,7 +30747,7 @@
         <v>#N/A</v>
       </c>
       <c r="U424" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="425">
@@ -30731,7 +30812,7 @@
         <v>#N/A</v>
       </c>
       <c r="U425" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="426">
@@ -30796,7 +30877,7 @@
         <v>#N/A</v>
       </c>
       <c r="U426" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="427">
@@ -30861,7 +30942,7 @@
         <v>#N/A</v>
       </c>
       <c r="U427" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="428">
@@ -30926,7 +31007,7 @@
         <v>#N/A</v>
       </c>
       <c r="U428" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="429">
@@ -30991,7 +31072,7 @@
         <v>#N/A</v>
       </c>
       <c r="U429" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="430">
@@ -31056,7 +31137,7 @@
         <v>#N/A</v>
       </c>
       <c r="U430" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="431">
@@ -31121,7 +31202,7 @@
         <v>#N/A</v>
       </c>
       <c r="U431" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="432">
@@ -31186,7 +31267,7 @@
         <v>#N/A</v>
       </c>
       <c r="U432" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="433">
@@ -31251,7 +31332,7 @@
         <v>#N/A</v>
       </c>
       <c r="U433" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="434">
@@ -31316,7 +31397,7 @@
         <v>#N/A</v>
       </c>
       <c r="U434" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="435">
@@ -31381,7 +31462,7 @@
         <v>#N/A</v>
       </c>
       <c r="U435" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="436">
@@ -31446,7 +31527,7 @@
         <v>#N/A</v>
       </c>
       <c r="U436" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="437">
@@ -31511,7 +31592,7 @@
         <v>#N/A</v>
       </c>
       <c r="U437" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="438">
@@ -31576,7 +31657,7 @@
         <v>#N/A</v>
       </c>
       <c r="U438" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="439">
@@ -31641,7 +31722,7 @@
         <v>#N/A</v>
       </c>
       <c r="U439" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="440">
@@ -31706,7 +31787,7 @@
         <v>#N/A</v>
       </c>
       <c r="U440" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="441">
@@ -31771,7 +31852,7 @@
         <v>#N/A</v>
       </c>
       <c r="U441" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="442">
@@ -31836,7 +31917,7 @@
         <v>#N/A</v>
       </c>
       <c r="U442" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="443">
@@ -31901,7 +31982,7 @@
         <v>#N/A</v>
       </c>
       <c r="U443" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="444">
@@ -31966,7 +32047,7 @@
         <v>#N/A</v>
       </c>
       <c r="U444" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="445">
@@ -32031,7 +32112,7 @@
         <v>#N/A</v>
       </c>
       <c r="U445" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="446">
@@ -32096,7 +32177,7 @@
         <v>#N/A</v>
       </c>
       <c r="U446" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="447">
@@ -32161,7 +32242,7 @@
         <v>#N/A</v>
       </c>
       <c r="U447" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="448">
@@ -32226,7 +32307,7 @@
         <v>#N/A</v>
       </c>
       <c r="U448" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="449">
@@ -32291,7 +32372,7 @@
         <v>#N/A</v>
       </c>
       <c r="U449" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="450">
@@ -32356,7 +32437,7 @@
         <v>#N/A</v>
       </c>
       <c r="U450" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="451">
@@ -32421,7 +32502,7 @@
         <v>#N/A</v>
       </c>
       <c r="U451" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="452">
@@ -32486,7 +32567,7 @@
         <v>#N/A</v>
       </c>
       <c r="U452" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="453">
@@ -32551,7 +32632,7 @@
         <v>#N/A</v>
       </c>
       <c r="U453" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="454">
@@ -32616,7 +32697,7 @@
         <v>#N/A</v>
       </c>
       <c r="U454" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="455">
@@ -32681,7 +32762,7 @@
         <v>#N/A</v>
       </c>
       <c r="U455" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="456">
@@ -32746,7 +32827,7 @@
         <v>#N/A</v>
       </c>
       <c r="U456" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="457">
@@ -32811,7 +32892,7 @@
         <v>#N/A</v>
       </c>
       <c r="U457" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="458">
@@ -32876,7 +32957,7 @@
         <v>#N/A</v>
       </c>
       <c r="U458" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="459">
@@ -32941,7 +33022,7 @@
         <v>#N/A</v>
       </c>
       <c r="U459" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="460">
@@ -33006,7 +33087,7 @@
         <v>#N/A</v>
       </c>
       <c r="U460" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="461">
@@ -33071,7 +33152,7 @@
         <v>#N/A</v>
       </c>
       <c r="U461" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="462">
@@ -33136,7 +33217,7 @@
         <v>#N/A</v>
       </c>
       <c r="U462" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="463">
@@ -33201,7 +33282,7 @@
         <v>#N/A</v>
       </c>
       <c r="U463" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="464">
@@ -33266,7 +33347,7 @@
         <v>#N/A</v>
       </c>
       <c r="U464" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="465">
@@ -33331,7 +33412,7 @@
         <v>#N/A</v>
       </c>
       <c r="U465" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="466">
@@ -33396,7 +33477,7 @@
         <v>#N/A</v>
       </c>
       <c r="U466" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="467">
@@ -33461,7 +33542,7 @@
         <v>#N/A</v>
       </c>
       <c r="U467" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="468">
@@ -33526,7 +33607,7 @@
         <v>#N/A</v>
       </c>
       <c r="U468" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="469">
@@ -33591,7 +33672,7 @@
         <v>#N/A</v>
       </c>
       <c r="U469" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="470">
@@ -33656,7 +33737,7 @@
         <v>#N/A</v>
       </c>
       <c r="U470" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="471">
@@ -33721,7 +33802,7 @@
         <v>#N/A</v>
       </c>
       <c r="U471" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="472">
@@ -33786,7 +33867,7 @@
         <v>#N/A</v>
       </c>
       <c r="U472" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="473">
@@ -33851,7 +33932,7 @@
         <v>#N/A</v>
       </c>
       <c r="U473" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="474">
@@ -33916,7 +33997,7 @@
         <v>#N/A</v>
       </c>
       <c r="U474" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="475">
@@ -33981,7 +34062,7 @@
         <v>#N/A</v>
       </c>
       <c r="U475" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="476">
@@ -34046,7 +34127,7 @@
         <v>#N/A</v>
       </c>
       <c r="U476" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="477">
@@ -34111,7 +34192,7 @@
         <v>#N/A</v>
       </c>
       <c r="U477" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="478">
@@ -34176,7 +34257,7 @@
         <v>#N/A</v>
       </c>
       <c r="U478" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="479">
@@ -34241,7 +34322,7 @@
         <v>#N/A</v>
       </c>
       <c r="U479" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="480">
@@ -34306,7 +34387,7 @@
         <v>#N/A</v>
       </c>
       <c r="U480" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="481">
@@ -34371,7 +34452,7 @@
         <v>#N/A</v>
       </c>
       <c r="U481" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="482">
@@ -34436,7 +34517,7 @@
         <v>#N/A</v>
       </c>
       <c r="U482" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="483">
@@ -34501,7 +34582,7 @@
         <v>#N/A</v>
       </c>
       <c r="U483" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="484">
@@ -34566,7 +34647,7 @@
         <v>#N/A</v>
       </c>
       <c r="U484" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="485">
@@ -34631,7 +34712,7 @@
         <v>#N/A</v>
       </c>
       <c r="U485" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="486">
@@ -34696,7 +34777,7 @@
         <v>#N/A</v>
       </c>
       <c r="U486" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="487">
@@ -34761,7 +34842,7 @@
         <v>#N/A</v>
       </c>
       <c r="U487" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="488">
@@ -34826,7 +34907,7 @@
         <v>#N/A</v>
       </c>
       <c r="U488" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="489">
@@ -34891,7 +34972,7 @@
         <v>#N/A</v>
       </c>
       <c r="U489" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="490">
@@ -34956,7 +35037,7 @@
         <v>#N/A</v>
       </c>
       <c r="U490" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="491">
@@ -35021,7 +35102,7 @@
         <v>#N/A</v>
       </c>
       <c r="U491" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="492">
@@ -35086,7 +35167,7 @@
         <v>#N/A</v>
       </c>
       <c r="U492" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="493">
@@ -35151,7 +35232,7 @@
         <v>#N/A</v>
       </c>
       <c r="U493" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="494">
@@ -35216,7 +35297,7 @@
         <v>#N/A</v>
       </c>
       <c r="U494" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="495">
@@ -35281,7 +35362,7 @@
         <v>#N/A</v>
       </c>
       <c r="U495" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="496">
@@ -35346,7 +35427,7 @@
         <v>#N/A</v>
       </c>
       <c r="U496" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="497">
@@ -35411,7 +35492,7 @@
         <v>#N/A</v>
       </c>
       <c r="U497" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
     </row>
     <row r="498">
@@ -35476,7 +35557,7 @@
         <v>#N/A</v>
       </c>
       <c r="U498" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="499">
@@ -35541,7 +35622,7 @@
         <v>#N/A</v>
       </c>
       <c r="U499" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="500">
@@ -35606,7 +35687,7 @@
         <v>#N/A</v>
       </c>
       <c r="U500" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="501">
@@ -35671,7 +35752,7 @@
         <v>#N/A</v>
       </c>
       <c r="U501" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="502">
@@ -35736,7 +35817,7 @@
         <v>#N/A</v>
       </c>
       <c r="U502" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="503">
@@ -35801,7 +35882,7 @@
         <v>#N/A</v>
       </c>
       <c r="U503" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="504">
@@ -35866,7 +35947,7 @@
         <v>#N/A</v>
       </c>
       <c r="U504" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="505">
@@ -35931,7 +36012,7 @@
         <v>#N/A</v>
       </c>
       <c r="U505" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="506">
@@ -35996,7 +36077,7 @@
         <v>#N/A</v>
       </c>
       <c r="U506" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="507">
@@ -36061,7 +36142,7 @@
         <v>#N/A</v>
       </c>
       <c r="U507" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="508">
@@ -36126,7 +36207,7 @@
         <v>#N/A</v>
       </c>
       <c r="U508" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="509">
@@ -36191,7 +36272,7 @@
         <v>#N/A</v>
       </c>
       <c r="U509" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="510">
@@ -36256,7 +36337,7 @@
         <v>#N/A</v>
       </c>
       <c r="U510" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="511">
@@ -36321,7 +36402,7 @@
         <v>#N/A</v>
       </c>
       <c r="U511" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="512">
@@ -36386,7 +36467,7 @@
         <v>#N/A</v>
       </c>
       <c r="U512" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="513">
@@ -36451,7 +36532,7 @@
         <v>#N/A</v>
       </c>
       <c r="U513" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="514">
@@ -36516,7 +36597,7 @@
         <v>#N/A</v>
       </c>
       <c r="U514" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="515">
@@ -36581,7 +36662,7 @@
         <v>#N/A</v>
       </c>
       <c r="U515" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="516">
@@ -36646,7 +36727,7 @@
         <v>#N/A</v>
       </c>
       <c r="U516" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="517">
@@ -36678,7 +36759,7 @@
         <v>45557.0</v>
       </c>
       <c r="J517" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K517" t="s">
         <v>594</v>
@@ -36711,7 +36792,7 @@
         <v>#N/A</v>
       </c>
       <c r="U517" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="518">
@@ -36748,35 +36829,35 @@
       <c r="K518" t="s">
         <v>613</v>
       </c>
-      <c r="L518" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M518" t="e">
-        <v>#N/A</v>
+      <c r="L518" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M518" t="n">
+        <v>1.6</v>
       </c>
       <c r="N518" t="s">
         <v>604</v>
       </c>
-      <c r="O518" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P518" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q518" t="e">
-        <v>#N/A</v>
+      <c r="O518" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P518" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q518" t="n">
+        <v>16616.0</v>
       </c>
       <c r="R518" t="s">
         <v>637</v>
       </c>
       <c r="S518" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="T518" t="e">
         <v>#N/A</v>
       </c>
       <c r="U518" t="s">
-        <v>935</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="519">
@@ -36813,35 +36894,35 @@
       <c r="K519" t="s">
         <v>615</v>
       </c>
-      <c r="L519" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M519" t="e">
-        <v>#N/A</v>
+      <c r="L519" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M519" t="n">
+        <v>1.4</v>
       </c>
       <c r="N519" t="s">
         <v>616</v>
       </c>
-      <c r="O519" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P519" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q519" t="e">
-        <v>#N/A</v>
+      <c r="O519" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P519" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>28915.0</v>
       </c>
       <c r="R519" t="s">
         <v>639</v>
       </c>
       <c r="S519" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T519" t="e">
         <v>#N/A</v>
       </c>
       <c r="U519" t="s">
-        <v>931</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="520">
@@ -36878,35 +36959,35 @@
       <c r="K520" t="s">
         <v>593</v>
       </c>
-      <c r="L520" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M520" t="e">
-        <v>#N/A</v>
+      <c r="L520" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M520" t="n">
+        <v>2.2</v>
       </c>
       <c r="N520" t="s">
         <v>602</v>
       </c>
-      <c r="O520" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P520" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q520" t="e">
-        <v>#N/A</v>
+      <c r="O520" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P520" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>13789.0</v>
       </c>
       <c r="R520" t="s">
         <v>617</v>
       </c>
       <c r="S520" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
       <c r="T520" t="e">
         <v>#N/A</v>
       </c>
       <c r="U520" t="s">
-        <v>939</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="521">
@@ -36943,35 +37024,35 @@
       <c r="K521" t="s">
         <v>603</v>
       </c>
-      <c r="L521" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M521" t="e">
-        <v>#N/A</v>
+      <c r="L521" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M521" t="n">
+        <v>1.2</v>
       </c>
       <c r="N521" t="s">
         <v>609</v>
       </c>
-      <c r="O521" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P521" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q521" t="e">
-        <v>#N/A</v>
+      <c r="O521" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P521" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>26308.0</v>
       </c>
       <c r="R521" t="s">
         <v>627</v>
       </c>
       <c r="S521" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="T521" t="e">
         <v>#N/A</v>
       </c>
       <c r="U521" t="s">
-        <v>934</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="522">
@@ -37008,35 +37089,35 @@
       <c r="K522" t="s">
         <v>596</v>
       </c>
-      <c r="L522" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M522" t="e">
-        <v>#N/A</v>
+      <c r="L522" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M522" t="n">
+        <v>2.4</v>
       </c>
       <c r="N522" t="s">
         <v>598</v>
       </c>
-      <c r="O522" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P522" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q522" t="e">
-        <v>#N/A</v>
+      <c r="O522" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P522" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>24610.0</v>
       </c>
       <c r="R522" t="s">
         <v>620</v>
       </c>
       <c r="S522" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="T522" t="e">
         <v>#N/A</v>
       </c>
       <c r="U522" t="s">
-        <v>941</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="523">
@@ -37073,35 +37154,35 @@
       <c r="K523" t="s">
         <v>608</v>
       </c>
-      <c r="L523" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M523" t="e">
-        <v>#N/A</v>
+      <c r="L523" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M523" t="n">
+        <v>1.9</v>
       </c>
       <c r="N523" t="s">
         <v>614</v>
       </c>
-      <c r="O523" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P523" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q523" t="e">
-        <v>#N/A</v>
+      <c r="O523" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P523" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>20335.0</v>
       </c>
       <c r="R523" t="s">
         <v>632</v>
       </c>
       <c r="S523" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="T523" t="e">
         <v>#N/A</v>
       </c>
       <c r="U523" t="s">
-        <v>936</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="524">
@@ -37138,35 +37219,35 @@
       <c r="K524" t="s">
         <v>601</v>
       </c>
-      <c r="L524" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M524" t="e">
-        <v>#N/A</v>
+      <c r="L524" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M524" t="n">
+        <v>1.7</v>
       </c>
       <c r="N524" t="s">
         <v>607</v>
       </c>
-      <c r="O524" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P524" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q524" t="e">
-        <v>#N/A</v>
+      <c r="O524" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P524" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>36625.0</v>
       </c>
       <c r="R524" t="s">
         <v>625</v>
       </c>
       <c r="S524" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="T524" t="e">
         <v>#N/A</v>
       </c>
       <c r="U524" t="s">
-        <v>932</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="525">
@@ -37203,35 +37284,35 @@
       <c r="K525" t="s">
         <v>599</v>
       </c>
-      <c r="L525" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M525" t="e">
-        <v>#N/A</v>
+      <c r="L525" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M525" t="n">
+        <v>2.6</v>
       </c>
       <c r="N525" t="s">
         <v>594</v>
       </c>
-      <c r="O525" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P525" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q525" t="e">
-        <v>#N/A</v>
+      <c r="O525" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P525" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>13674.0</v>
       </c>
       <c r="R525" t="s">
         <v>623</v>
       </c>
       <c r="S525" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="T525" t="e">
         <v>#N/A</v>
       </c>
       <c r="U525" t="s">
-        <v>933</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="526">
@@ -37268,35 +37349,35 @@
       <c r="K526" t="s">
         <v>597</v>
       </c>
-      <c r="L526" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M526" t="e">
-        <v>#N/A</v>
+      <c r="L526" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M526" t="n">
+        <v>2.3</v>
       </c>
       <c r="N526" t="s">
         <v>600</v>
       </c>
-      <c r="O526" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P526" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q526" t="e">
-        <v>#N/A</v>
+      <c r="O526" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P526" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>22665.0</v>
       </c>
       <c r="R526" t="s">
         <v>621</v>
       </c>
       <c r="S526" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="T526" t="e">
         <v>#N/A</v>
       </c>
       <c r="U526" t="s">
-        <v>938</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="527">
@@ -37333,35 +37414,35 @@
       <c r="K527" t="s">
         <v>595</v>
       </c>
-      <c r="L527" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M527" t="e">
-        <v>#N/A</v>
+      <c r="L527" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M527" t="n">
+        <v>0.1</v>
       </c>
       <c r="N527" t="s">
         <v>612</v>
       </c>
-      <c r="O527" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P527" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q527" t="e">
-        <v>#N/A</v>
+      <c r="O527" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P527" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>11517.0</v>
       </c>
       <c r="R527" t="s">
         <v>619</v>
       </c>
       <c r="S527" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="T527" t="e">
         <v>#N/A</v>
       </c>
       <c r="U527" t="s">
-        <v>940</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="528">
@@ -37398,35 +37479,35 @@
       <c r="K528" t="s">
         <v>605</v>
       </c>
-      <c r="L528" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M528" t="e">
-        <v>#N/A</v>
+      <c r="L528" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M528" t="n">
+        <v>0.5</v>
       </c>
       <c r="N528" t="s">
         <v>611</v>
       </c>
-      <c r="O528" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P528" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q528" t="e">
-        <v>#N/A</v>
+      <c r="O528" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P528" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>20330.0</v>
       </c>
       <c r="R528" t="s">
         <v>629</v>
       </c>
       <c r="S528" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="T528" t="e">
         <v>#N/A</v>
       </c>
       <c r="U528" t="s">
-        <v>942</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="529">
@@ -37463,35 +37544,35 @@
       <c r="K529" t="s">
         <v>610</v>
       </c>
-      <c r="L529" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M529" t="e">
-        <v>#N/A</v>
+      <c r="L529" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M529" t="n">
+        <v>0.9</v>
       </c>
       <c r="N529" t="s">
         <v>606</v>
       </c>
-      <c r="O529" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P529" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q529" t="e">
-        <v>#N/A</v>
+      <c r="O529" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P529" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>16328.0</v>
       </c>
       <c r="R529" t="s">
         <v>634</v>
       </c>
       <c r="S529" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="T529" t="e">
         <v>#N/A</v>
       </c>
       <c r="U529" t="s">
-        <v>937</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="530">
@@ -37528,35 +37609,35 @@
       <c r="K530" t="s">
         <v>607</v>
       </c>
-      <c r="L530" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M530" t="e">
-        <v>#N/A</v>
+      <c r="L530" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M530" t="n">
+        <v>1.1</v>
       </c>
       <c r="N530" t="s">
         <v>593</v>
       </c>
-      <c r="O530" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P530" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q530" t="e">
-        <v>#N/A</v>
+      <c r="O530" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P530" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>24583.0</v>
       </c>
       <c r="R530" t="s">
         <v>631</v>
       </c>
       <c r="S530" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="T530" t="e">
         <v>#N/A</v>
       </c>
       <c r="U530" t="s">
-        <v>885</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="531">
@@ -37593,35 +37674,35 @@
       <c r="K531" t="s">
         <v>612</v>
       </c>
-      <c r="L531" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M531" t="e">
-        <v>#N/A</v>
+      <c r="L531" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M531" t="n">
+        <v>1.4</v>
       </c>
       <c r="N531" t="s">
         <v>613</v>
       </c>
-      <c r="O531" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P531" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q531" t="e">
-        <v>#N/A</v>
+      <c r="O531" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P531" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>18779.0</v>
       </c>
       <c r="R531" t="s">
         <v>636</v>
       </c>
       <c r="S531" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="T531" t="e">
         <v>#N/A</v>
       </c>
       <c r="U531" t="s">
-        <v>894</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="532">
@@ -37658,35 +37739,35 @@
       <c r="K532" t="s">
         <v>614</v>
       </c>
-      <c r="L532" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M532" t="e">
-        <v>#N/A</v>
+      <c r="L532" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M532" t="n">
+        <v>1.0</v>
       </c>
       <c r="N532" t="s">
         <v>615</v>
       </c>
-      <c r="O532" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P532" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q532" t="e">
-        <v>#N/A</v>
+      <c r="O532" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P532" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>39017.0</v>
       </c>
       <c r="R532" t="s">
         <v>638</v>
       </c>
       <c r="S532" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="T532" t="e">
         <v>#N/A</v>
       </c>
       <c r="U532" t="s">
-        <v>887</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="533">
@@ -37723,35 +37804,35 @@
       <c r="K533" t="s">
         <v>602</v>
       </c>
-      <c r="L533" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M533" t="e">
-        <v>#N/A</v>
+      <c r="L533" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M533" t="n">
+        <v>2.3</v>
       </c>
       <c r="N533" t="s">
         <v>597</v>
       </c>
-      <c r="O533" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P533" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q533" t="e">
-        <v>#N/A</v>
+      <c r="O533" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P533" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>13407.0</v>
       </c>
       <c r="R533" t="s">
         <v>626</v>
       </c>
       <c r="S533" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="T533" t="e">
         <v>#N/A</v>
       </c>
       <c r="U533" t="s">
-        <v>889</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="534">
@@ -37788,35 +37869,35 @@
       <c r="K534" t="s">
         <v>616</v>
       </c>
-      <c r="L534" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M534" t="e">
-        <v>#N/A</v>
+      <c r="L534" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M534" t="n">
+        <v>1.4</v>
       </c>
       <c r="N534" t="s">
         <v>601</v>
       </c>
-      <c r="O534" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P534" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q534" t="e">
-        <v>#N/A</v>
+      <c r="O534" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P534" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>26261.0</v>
       </c>
       <c r="R534" t="s">
         <v>640</v>
       </c>
       <c r="S534" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="T534" t="e">
         <v>#N/A</v>
       </c>
       <c r="U534" t="s">
-        <v>893</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="535">
@@ -37853,35 +37934,35 @@
       <c r="K535" t="s">
         <v>600</v>
       </c>
-      <c r="L535" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M535" t="e">
-        <v>#N/A</v>
+      <c r="L535" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M535" t="n">
+        <v>0.8</v>
       </c>
       <c r="N535" t="s">
         <v>599</v>
       </c>
-      <c r="O535" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P535" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q535" t="e">
-        <v>#N/A</v>
+      <c r="O535" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P535" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>15687.0</v>
       </c>
       <c r="R535" t="s">
         <v>624</v>
       </c>
       <c r="S535" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="T535" t="e">
         <v>#N/A</v>
       </c>
       <c r="U535" t="s">
-        <v>883</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="536">
@@ -37918,35 +37999,35 @@
       <c r="K536" t="s">
         <v>604</v>
       </c>
-      <c r="L536" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M536" t="e">
-        <v>#N/A</v>
+      <c r="L536" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M536" t="n">
+        <v>1.2</v>
       </c>
       <c r="N536" t="s">
         <v>595</v>
       </c>
-      <c r="O536" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P536" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q536" t="e">
-        <v>#N/A</v>
+      <c r="O536" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P536" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q536" t="n">
+        <v>11397.0</v>
       </c>
       <c r="R536" t="s">
         <v>628</v>
       </c>
       <c r="S536" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="T536" t="e">
         <v>#N/A</v>
       </c>
       <c r="U536" t="s">
-        <v>886</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="537">
@@ -37983,35 +38064,35 @@
       <c r="K537" t="s">
         <v>609</v>
       </c>
-      <c r="L537" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M537" t="e">
-        <v>#N/A</v>
+      <c r="L537" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M537" t="n">
+        <v>1.4</v>
       </c>
       <c r="N537" t="s">
         <v>596</v>
       </c>
-      <c r="O537" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P537" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q537" t="e">
-        <v>#N/A</v>
+      <c r="O537" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P537" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q537" t="n">
+        <v>23769.0</v>
       </c>
       <c r="R537" t="s">
         <v>633</v>
       </c>
       <c r="S537" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="T537" t="e">
         <v>#N/A</v>
       </c>
       <c r="U537" t="s">
-        <v>890</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="538">
@@ -38048,35 +38129,35 @@
       <c r="K538" t="s">
         <v>598</v>
       </c>
-      <c r="L538" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M538" t="e">
-        <v>#N/A</v>
+      <c r="L538" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M538" t="n">
+        <v>2.5</v>
       </c>
       <c r="N538" t="s">
         <v>605</v>
       </c>
-      <c r="O538" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P538" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q538" t="e">
-        <v>#N/A</v>
+      <c r="O538" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P538" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>20824.0</v>
       </c>
       <c r="R538" t="s">
         <v>622</v>
       </c>
       <c r="S538" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="T538" t="e">
         <v>#N/A</v>
       </c>
       <c r="U538" t="s">
-        <v>892</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="539">
@@ -38113,35 +38194,35 @@
       <c r="K539" t="s">
         <v>594</v>
       </c>
-      <c r="L539" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M539" t="e">
-        <v>#N/A</v>
+      <c r="L539" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M539" t="n">
+        <v>2.7</v>
       </c>
       <c r="N539" t="s">
         <v>608</v>
       </c>
-      <c r="O539" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P539" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q539" t="e">
-        <v>#N/A</v>
+      <c r="O539" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P539" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>13602.0</v>
       </c>
       <c r="R539" t="s">
         <v>618</v>
       </c>
       <c r="S539" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="T539" t="e">
         <v>#N/A</v>
       </c>
       <c r="U539" t="s">
-        <v>888</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="540">
@@ -38178,35 +38259,35 @@
       <c r="K540" t="s">
         <v>611</v>
       </c>
-      <c r="L540" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M540" t="e">
-        <v>#N/A</v>
+      <c r="L540" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M540" t="n">
+        <v>1.6</v>
       </c>
       <c r="N540" t="s">
         <v>610</v>
       </c>
-      <c r="O540" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P540" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q540" t="e">
-        <v>#N/A</v>
+      <c r="O540" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P540" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>25112.0</v>
       </c>
       <c r="R540" t="s">
         <v>635</v>
       </c>
       <c r="S540" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="T540" t="e">
         <v>#N/A</v>
       </c>
       <c r="U540" t="s">
-        <v>884</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="541">
@@ -38243,35 +38324,35 @@
       <c r="K541" t="s">
         <v>606</v>
       </c>
-      <c r="L541" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M541" t="e">
-        <v>#N/A</v>
+      <c r="L541" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M541" t="n">
+        <v>0.9</v>
       </c>
       <c r="N541" t="s">
         <v>603</v>
       </c>
-      <c r="O541" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P541" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q541" t="e">
-        <v>#N/A</v>
+      <c r="O541" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P541" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q541" t="n">
+        <v>20293.0</v>
       </c>
       <c r="R541" t="s">
         <v>630</v>
       </c>
       <c r="S541" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="T541" t="e">
         <v>#N/A</v>
       </c>
       <c r="U541" t="s">
-        <v>891</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="542">
@@ -38336,7 +38417,7 @@
         <v>#N/A</v>
       </c>
       <c r="U542" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="543">
@@ -38401,7 +38482,7 @@
         <v>#N/A</v>
       </c>
       <c r="U543" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="544">
@@ -38466,7 +38547,7 @@
         <v>#N/A</v>
       </c>
       <c r="U544" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="545">
@@ -38531,7 +38612,7 @@
         <v>#N/A</v>
       </c>
       <c r="U545" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="546">
@@ -38596,7 +38677,7 @@
         <v>#N/A</v>
       </c>
       <c r="U546" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="547">
@@ -38661,7 +38742,7 @@
         <v>#N/A</v>
       </c>
       <c r="U547" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="548">
@@ -38726,7 +38807,7 @@
         <v>#N/A</v>
       </c>
       <c r="U548" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="549">
@@ -38791,7 +38872,7 @@
         <v>#N/A</v>
       </c>
       <c r="U549" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="550">
@@ -38856,7 +38937,7 @@
         <v>#N/A</v>
       </c>
       <c r="U550" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="551">
@@ -38921,7 +39002,7 @@
         <v>#N/A</v>
       </c>
       <c r="U551" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="552">
@@ -38986,7 +39067,7 @@
         <v>#N/A</v>
       </c>
       <c r="U552" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="553">
@@ -39051,7 +39132,7 @@
         <v>#N/A</v>
       </c>
       <c r="U553" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>

--- a/e1_match_results.xlsx
+++ b/e1_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="1086">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -1946,75 +1946,96 @@
     <t>Matt Donohue</t>
   </si>
   <si>
+    <t>Lewis Smith</t>
+  </si>
+  <si>
+    <t>Joshua Smith</t>
+  </si>
+  <si>
+    <t>Leigh Doughty</t>
+  </si>
+  <si>
+    <t>Stephen Martin</t>
+  </si>
+  <si>
+    <t>Andrew Kitchen</t>
+  </si>
+  <si>
+    <t>David Webb</t>
+  </si>
+  <si>
+    <t>Stuart Attwell</t>
+  </si>
+  <si>
+    <t>Anthony Backhouse</t>
+  </si>
+  <si>
+    <t>Michael Salisbury</t>
+  </si>
+  <si>
+    <t>James Linington</t>
+  </si>
+  <si>
+    <t>Samuel Allison</t>
+  </si>
+  <si>
+    <t>Robert Madley</t>
+  </si>
+  <si>
+    <t>Will Finnie</t>
+  </si>
+  <si>
+    <t>Gavin Ward</t>
+  </si>
+  <si>
+    <t>James Bell</t>
+  </si>
+  <si>
+    <t>Dean Whitestone</t>
+  </si>
+  <si>
+    <t>Tom Nield</t>
+  </si>
+  <si>
     <t>John Busby</t>
   </si>
   <si>
-    <t>Robert Madley</t>
-  </si>
-  <si>
-    <t>David Webb</t>
+    <t>Andrew Davies</t>
+  </si>
+  <si>
+    <t>David Coote</t>
+  </si>
+  <si>
+    <t>Sunny Gill</t>
+  </si>
+  <si>
+    <t>Simon Hooper</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t>Geoff Eltringham</t>
   </si>
   <si>
     <t>Tony Harrington</t>
   </si>
   <si>
-    <t>Andrew Davies</t>
-  </si>
-  <si>
     <t>Keith Stroud</t>
   </si>
   <si>
-    <t>Samuel Allison</t>
-  </si>
-  <si>
-    <t>Anthony Backhouse</t>
-  </si>
-  <si>
-    <t>Gavin Ward</t>
-  </si>
-  <si>
-    <t>Leigh Doughty</t>
-  </si>
-  <si>
-    <t>Tom Nield</t>
-  </si>
-  <si>
-    <t>Andrew Kitchen</t>
-  </si>
-  <si>
     <t>Peter Bankes</t>
   </si>
   <si>
-    <t>James Bell</t>
-  </si>
-  <si>
-    <t>Joshua Smith</t>
-  </si>
-  <si>
-    <t>Dean Whitestone</t>
-  </si>
-  <si>
     <t>John Brooks</t>
   </si>
   <si>
-    <t>Stephen Martin</t>
-  </si>
-  <si>
     <t>Ben Toner</t>
   </si>
   <si>
-    <t>Simon Hooper</t>
-  </si>
-  <si>
-    <t>Will Finnie</t>
-  </si>
-  <si>
     <t>Andy Madley</t>
   </si>
   <si>
-    <t>James Linington</t>
-  </si>
-  <si>
     <t>Craig Pawson</t>
   </si>
   <si>
@@ -2024,6 +2045,9 @@
     <t>Thomas Kirk</t>
   </si>
   <si>
+    <t>Tim Robinson</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/1ae41d3c/Blackburn-Rovers-Derby-County-August-9-2024-Championship</t>
   </si>
   <si>
@@ -2060,834 +2084,906 @@
     <t>https://fbref.com/en/matches/fb2dbc00/Luton-Town-Burnley-August-12-2024-Championship</t>
   </si>
   <si>
+    <t>https://fbref.com/en/matches/5f025982/Leeds-United-Sheffield-United-October-18-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/078a8d15/Preston-North-End-Coventry-City-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3c430fad/Oxford-United-West-Bromwich-Albion-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bdfb6a22/Luton-Town-Watford-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fdda86b0/Cardiff-City-Plymouth-Argyle-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5c05d9e2/Blackburn-Rovers-Swansea-City-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/63eae343/Millwall-Derby-County-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/66b6fdb2/Stoke-City-Norwich-City-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/71349150/Sheffield-Wednesday-Burnley-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3a93f3c/Queens-Park-Rangers-Portsmouth-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e0813f05/Middlesbrough-Bristol-City-October-19-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1663864f/Hull-City-Sunderland-October-20-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2125576d/Leeds-United-Watford-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4ffe09d7/Preston-North-End-Norwich-City-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3c253b7/Sheffield-Wednesday-Swansea-City-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b54f51be/Cardiff-City-Portsmouth-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e4b76915/Oxford-United-Derby-County-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fdd55c49/Stoke-City-Bristol-City-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7a4d13fc/Queens-Park-Rangers-Coventry-City-October-22-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/36fd56f6/Millwall-Plymouth-Argyle-October-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8f6e9889/Hull-City-Burnley-October-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b2475a0d/Luton-Town-Sunderland-October-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ec61f7ad/Blackburn-Rovers-West-Bromwich-Albion-October-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8cef1a6f/Middlesbrough-Sheffield-United-October-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/76ffc013/Sheffield-Wednesday-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/5bfb9659/Bristol-City-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/e297cd13/Coventry-City-vs-Luton-Town-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/2abfe087/Blackburn-Rovers-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/60c6b05f/Cardiff-City-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/e3c537a1/Swansea-City-vs-Millwall-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/1df6b87e/17892952/Sheffield-United-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/943e8050/Queens-Park-Rangers-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/22df8478/Plymouth-Argyle-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/604617a2/Sunderland-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/26ab47ee/Hull-City-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/1c781004/Middlesbrough-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/60c6b05f/Luton-Town-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/604617a2/Swansea-City-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/17892952/Derby-County-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/1df6b87e/Blackburn-Rovers-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/1c781004/Cardiff-City-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/2abfe087/Sheffield-Wednesday-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/76ffc013/Hull-City-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/22df8478/Bristol-City-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/32a1480e/Leeds-United-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/7f59c601/Coventry-City-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/8ef52968/Queens-Park-Rangers-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/943e8050/Millwall-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/1c781004/Sheffield-Wednesday-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/1df6b87e/Bristol-City-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/604617a2/Hull-City-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/7f59c601/Queens-Park-Rangers-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/2abfe087/Swansea-City-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/32a1480e/Portsmouth-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/26ab47ee/Coventry-City-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/5bfb9659/Millwall-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/17892952/Blackburn-Rovers-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/75fae011/Luton-Town-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/22df8478/Sunderland-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/60c6b05f/Burnley-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/2abfe087/Oxford-United-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/75fae011/Blackburn-Rovers-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/17892952/Millwall-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/7f59c601/Luton-Town-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/22df8478/Portsmouth-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/5bfb9659/Queens-Park-Rangers-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/26ab47ee/Plymouth-Argyle-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/1c781004/Bristol-City-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/8ef52968/Coventry-City-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/1df6b87e/Sheffield-Wednesday-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/60c6b05f/Hull-City-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/943e8050/Swansea-City-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/2abfe087/Plymouth-Argyle-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/1df6b87e/Coventry-City-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/75fae011/Sheffield-Wednesday-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/93493607/Burnley-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/bd8769d1/Luton-Town-vs-Hull-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/76ffc013/Blackburn-Rovers-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/1c781004/West-Bromwich-Albion-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/8ef52968/Millwall-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/22df8478/Derby-County-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/604617a2/Middlesbrough-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/17892952/Queens-Park-Rangers-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/5bfb9659/Swansea-City-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/bba7d733/Hull-City-vs-Sheffield-Wednesday-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/1c781004/Plymouth-Argyle-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/2abfe087/Bristol-City-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/22df8478/17892952/Preston-North-End-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/1df6b87e/Oxford-United-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/943e8050/Coventry-City-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/60c6b05f/Sunderland-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/75fae011/Queens-Park-Rangers-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/5bfb9659/Luton-Town-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/76ffc013/Millwall-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/7f59c601/Blackburn-Rovers-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/26ab47ee/Swansea-City-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/1df6b87e/Sunderland-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/2abfe087/Queens-Park-Rangers-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/7f59c601/Hull-City-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/604617a2/Millwall-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/5bfb9659/Blackburn-Rovers-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/1c781004/Luton-Town-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/17892952/Burnley-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/75fae011/Coventry-City-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/32a1480e/Bristol-City-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/76ffc013/Swansea-City-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/22df8478/West-Bromwich-Albion-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/26ab47ee/Sheffield-Wednesday-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/7f59c601/Burnley-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/22df8478/Sheffield-Wednesday-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/17892952/Sunderland-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/26ab47ee/Leeds-United-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/e297cd13/Swansea-City-vs-Luton-Town-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/76ffc013/Bristol-City-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/32a1480e/Oxford-United-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/2abfe087/Cardiff-City-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/e3c537a1/Coventry-City-vs-Millwall-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/bd8769d1/Blackburn-Rovers-vs-Hull-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/1c781004/Queens-Park-Rangers-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/1df6b87e/West-Bromwich-Albion-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e2a0f634/Coventry-City-Oxford-United-August-16-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6cc636f7/West-Bromwich-Albion-Leeds-United-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7b5e3cb2/Derby-County-Middlesbrough-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cc91bd09/Portsmouth-Luton-Town-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4d1d8962/Sheffield-United-Queens-Park-Rangers-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6abd6f80/Norwich-City-Blackburn-Rovers-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6e180658/Watford-Stoke-City-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/80b3e0c0/Plymouth-Argyle-Hull-City-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b84fdcb5/Swansea-City-Preston-North-End-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d7ca5cbb/Bristol-City-Millwall-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f207fdeb/Burnley-Cardiff-City-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ab1574d3/Sunderland-Sheffield-Wednesday-August-18-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/bba7d733/Blackburn-Rovers-vs-Sheffield-Wednesday-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/8ef52968/Bristol-City-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/26ab47ee/Burnley-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/17892952/Luton-Town-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/1c781004/Portsmouth-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/32a1480e/Swansea-City-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/5bfb9659/Middlesbrough-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/22df8478/Cardiff-City-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/1df6b87e/Millwall-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/604617a2/Queens-Park-Rangers-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/2abfe087/Hull-City-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/60c6b05f/Coventry-City-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/26ab47ee/Portsmouth-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/bd8769d1/Coventry-City-vs-Hull-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/22df8478/Leeds-United-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/93493607/Queens-Park-Rangers-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/1df6b87e/Plymouth-Argyle-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/e090f40b/Luton-Town-vs-Blackburn-Rovers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/8ef52968/Swansea-City-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/17892952/Cardiff-City-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/7f59c601/Millwall-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/604617a2/Sheffield-Wednesday-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/2abfe087/West-Bromwich-Albion-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/1c781004/Burnley-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/26ab47ee/Luton-Town-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/17892952/Sheffield-Wednesday-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/76ffc013/Coventry-City-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/bd8769d1/Swansea-City-vs-Hull-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/5bfb9659/Oxford-United-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/1df6b87e/Cardiff-City-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/32a1480e/Middlesbrough-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/1c781004/Sunderland-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/2abfe087/Burnley-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/e090f40b/Millwall-vs-Blackburn-Rovers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/22df8478/Queens-Park-Rangers-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/60c6b05f/Bristol-City-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/604617a2/Cardiff-City-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/2abfe087/Portsmouth-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/32a1480e/Coventry-City-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/93493607/Luton-Town-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/1df6b87e/Burnley-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/1c781004/Millwall-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/7f59c601/Sheffield-Wednesday-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/8ef52968/Blackburn-Rovers-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/22df8478/Hull-City-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/a757999c/Swansea-City-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/26ab47ee/West-Bromwich-Albion-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/17892952/Leeds-United-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/943e8050/Blackburn-Rovers-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/17892952/Plymouth-Argyle-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/60c6b05f/Swansea-City-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/5bfb9659/Hull-City-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/1df6b87e/Watford-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/bba7d733/Millwall-vs-Sheffield-Wednesday-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/1c781004/Coventry-City-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/75fae011/Middlesbrough-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/26ab47ee/Bristol-City-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/22df8478/Oxford-United-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/76ffc013/Sunderland-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/a757999c/Luton-Town-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/22df8478/Luton-Town-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/8ef52968/Burnley-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/bd8769d1/Millwall-vs-Hull-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/76ffc013/Middlesbrough-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/1df6b87e/1c781004/Sheffield-United-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/32a1480e/Queens-Park-Rangers-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/93493607/Coventry-City-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/75fae011/Swansea-City-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/5bfb9659/Sheffield-Wednesday-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/26ab47ee/Watford-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/604617a2/Blackburn-Rovers-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/17892952/West-Bromwich-Albion-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/75fae011/Millwall-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/1df6b87e/Swansea-City-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/e090f40b/Coventry-City-vs-Blackburn-Rovers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/604617a2/Luton-Town-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/26ab47ee/Sunderland-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/22df8478/Watford-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/a757999c/Hull-City-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/60c6b05f/Middlesbrough-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/93493607/Sheffield-Wednesday-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/17892952/Portsmouth-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/32a1480e/Burnley-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/2abfe087/Coventry-City-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/60c6b05f/Portsmouth-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/5bfb9659/Burnley-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/a757999c/Sheffield-Wednesday-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/26ab47ee/Cardiff-City-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/17892952/Oxford-United-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/1df6b87e/Hull-City-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/e297cd13/Millwall-vs-Luton-Town-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/93493607/Blackburn-Rovers-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/22df8478/Middlesbrough-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/1c781004/Swansea-City-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/32a1480e/Sunderland-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ced9ecd0/Sheffield-Wednesday-Leeds-United-August-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/499a9d69/Bristol-City-Coventry-City-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/56b95bb5/Queens-Park-Rangers-Plymouth-Argyle-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/958fdf9f/Hull-City-Millwall-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/008769e1/Norwich-City-Sheffield-United-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/202967ff/Middlesbrough-Portsmouth-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2375d0ce/Sunderland-Burnley-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4b94620e/Watford-Derby-County-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9aef1d9c/Preston-North-End-Luton-Town-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d548e35e/Blackburn-Rovers-Oxford-United-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/da9feef3/Stoke-City-West-Bromwich-Albion-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/112ed598/Swansea-City-Cardiff-City-August-25-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/5bfb9659/Cardiff-City-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/32a1480e/West-Bromwich-Albion-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/76ffc013/Burnley-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/7f59c601/Sunderland-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/bba7d733/Luton-Town-vs-Sheffield-Wednesday-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/1df6b87e/Derby-County-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/22df8478/Blackburn-Rovers-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/f7e3dfe9/Swansea-City-vs-Coventry-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/604617a2/Bristol-City-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/17892952/Hull-City-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/1c781004/Watford-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/a757999c/Millwall-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/1c781004/Derby-County-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/5bfb9659/Coventry-City-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/22df8478/Millwall-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/60c6b05f/Sheffield-Wednesday-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/32a1480e/Luton-Town-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/2abfe087/Sunderland-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/93493607/Swansea-City-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/75fae011/Hull-City-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/a757999c/Blackburn-Rovers-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/604617a2/Burnley-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/17892952/Middlesbrough-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/1df6b87e/Portsmouth-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/75fae011/Portsmouth-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/32a1480e/Millwall-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/2abfe087/Leeds-United-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/17892952/Bristol-City-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/22df8478/1c781004/Preston-North-End-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/bba7d733/Swansea-City-vs-Sheffield-Wednesday-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/a757999c/Coventry-City-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/26ab47ee/Oxford-United-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/1df6b87e/Middlesbrough-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/8ef52968/Luton-Town-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/943e8050/Hull-City-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/60c6b05f/Blackburn-Rovers-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/1c781004/Hull-City-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/60c6b05f/Millwall-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/26ab47ee/Queens-Park-Rangers-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/5bfb9659/Sunderland-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/22df8478/Burnley-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/bba7d733/Coventry-City-vs-Sheffield-Wednesday-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/32a1480e/Blackburn-Rovers-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/2abfe087/Middlesbrough-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/1df6b87e/Luton-Town-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/17892952/Swansea-City-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/75fae011/Bristol-City-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/604617a2/Portsmouth-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/7f59c601/Bristol-City-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/76ffc013/Queens-Park-Rangers-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/2abfe087/Luton-Town-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/22df8478/Coventry-City-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/e090f40b/Swansea-City-vs-Blackburn-Rovers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/8ef52968/Hull-City-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/26ab47ee/Millwall-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/32a1480e/Cardiff-City-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/943e8050/Sheffield-Wednesday-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/604617a2/West-Bromwich-Albion-vs-Oxford-United-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/1df6b87e/Leeds-United-vs-Sheffield-United-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/22df8478/Coventry-City-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/604617a2/West-Bromwich-Albion-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/2abfe087/Luton-Town-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/32a1480e/Cardiff-City-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/e090f40b/Swansea-City-vs-Blackburn-Rovers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/26ab47ee/Millwall-vs-Derby-County-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/1c781004/17892952/Norwich-City-vs-Stoke-City-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/943e8050/Sheffield-Wednesday-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/76ffc013/Queens-Park-Rangers-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/7f59c601/Bristol-City-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/8ef52968/Hull-City-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/2abfe087/Leeds-United-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/22df8478/1c781004/Preston-North-End-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/bba7d733/Swansea-City-vs-Sheffield-Wednesday-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/75fae011/Portsmouth-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/26ab47ee/Oxford-United-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/17892952/Bristol-City-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/a757999c/Coventry-City-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/32a1480e/Millwall-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/943e8050/Hull-City-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/8ef52968/Luton-Town-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/60c6b05f/Blackburn-Rovers-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/1df6b87e/Middlesbrough-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/76ffc013/Sheffield-Wednesday-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/5bfb9659/Bristol-City-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/e297cd13/Coventry-City-vs-Luton-Town-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/2abfe087/Blackburn-Rovers-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/60c6b05f/Cardiff-City-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/e3c537a1/Swansea-City-vs-Millwall-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/1df6b87e/17892952/Sheffield-United-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/943e8050/Queens-Park-Rangers-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/22df8478/Plymouth-Argyle-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/604617a2/Sunderland-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/26ab47ee/Hull-City-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/1c781004/Middlesbrough-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/60c6b05f/Luton-Town-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/604617a2/Swansea-City-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/17892952/Derby-County-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/1df6b87e/Blackburn-Rovers-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/1c781004/Cardiff-City-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/2abfe087/Sheffield-Wednesday-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/76ffc013/Hull-City-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/22df8478/Bristol-City-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/32a1480e/Leeds-United-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/7f59c601/Coventry-City-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/8ef52968/Queens-Park-Rangers-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/943e8050/Millwall-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/1c781004/Sheffield-Wednesday-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/1df6b87e/Bristol-City-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/604617a2/Hull-City-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/7f59c601/Queens-Park-Rangers-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/2abfe087/Swansea-City-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/32a1480e/Portsmouth-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/26ab47ee/Coventry-City-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/5bfb9659/Millwall-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/17892952/Blackburn-Rovers-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/75fae011/Luton-Town-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/22df8478/Sunderland-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/60c6b05f/Burnley-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/2abfe087/Oxford-United-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/75fae011/Blackburn-Rovers-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/17892952/Millwall-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/7f59c601/Luton-Town-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/22df8478/Portsmouth-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/5bfb9659/Queens-Park-Rangers-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/26ab47ee/Plymouth-Argyle-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/1c781004/Bristol-City-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/8ef52968/Coventry-City-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/1df6b87e/Sheffield-Wednesday-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/60c6b05f/Hull-City-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/943e8050/Swansea-City-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/2abfe087/Plymouth-Argyle-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/1df6b87e/Coventry-City-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/75fae011/Sheffield-Wednesday-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/93493607/Burnley-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/bd8769d1/Luton-Town-vs-Hull-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/76ffc013/Blackburn-Rovers-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/1c781004/West-Bromwich-Albion-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/8ef52968/Millwall-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/22df8478/Derby-County-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/604617a2/Middlesbrough-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/17892952/Queens-Park-Rangers-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/5bfb9659/Swansea-City-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/bba7d733/Hull-City-vs-Sheffield-Wednesday-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/1c781004/Plymouth-Argyle-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/2abfe087/Bristol-City-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/22df8478/17892952/Preston-North-End-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/1df6b87e/Oxford-United-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/943e8050/Coventry-City-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/60c6b05f/Sunderland-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/75fae011/Queens-Park-Rangers-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/5bfb9659/Luton-Town-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/76ffc013/Millwall-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/7f59c601/Blackburn-Rovers-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/26ab47ee/Swansea-City-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/1df6b87e/Sunderland-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/2abfe087/Queens-Park-Rangers-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/7f59c601/Hull-City-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/604617a2/Millwall-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/5bfb9659/Blackburn-Rovers-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/1c781004/Luton-Town-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/17892952/Burnley-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/75fae011/Coventry-City-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/32a1480e/Bristol-City-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/76ffc013/Swansea-City-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/22df8478/West-Bromwich-Albion-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/26ab47ee/Sheffield-Wednesday-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/7f59c601/Burnley-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/22df8478/Sheffield-Wednesday-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/17892952/Sunderland-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/26ab47ee/Leeds-United-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/e297cd13/Swansea-City-vs-Luton-Town-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/76ffc013/Bristol-City-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/32a1480e/Oxford-United-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/2abfe087/Cardiff-City-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/e3c537a1/Coventry-City-vs-Millwall-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/bd8769d1/Blackburn-Rovers-vs-Hull-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/1c781004/Queens-Park-Rangers-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/1df6b87e/West-Bromwich-Albion-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/e2a0f634/Coventry-City-Oxford-United-August-16-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/6cc636f7/West-Bromwich-Albion-Leeds-United-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/7b5e3cb2/Derby-County-Middlesbrough-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/cc91bd09/Portsmouth-Luton-Town-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/4d1d8962/Sheffield-United-Queens-Park-Rangers-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/6abd6f80/Norwich-City-Blackburn-Rovers-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/6e180658/Watford-Stoke-City-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/80b3e0c0/Plymouth-Argyle-Hull-City-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/b84fdcb5/Swansea-City-Preston-North-End-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/d7ca5cbb/Bristol-City-Millwall-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/f207fdeb/Burnley-Cardiff-City-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/ab1574d3/Sunderland-Sheffield-Wednesday-August-18-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/bba7d733/Blackburn-Rovers-vs-Sheffield-Wednesday-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/8ef52968/Bristol-City-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/26ab47ee/Burnley-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/17892952/Luton-Town-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/1c781004/Portsmouth-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/32a1480e/Swansea-City-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/5bfb9659/Middlesbrough-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/22df8478/Cardiff-City-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/1df6b87e/Millwall-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/604617a2/Queens-Park-Rangers-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/2abfe087/Hull-City-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/60c6b05f/Coventry-City-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/26ab47ee/Portsmouth-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/bd8769d1/Coventry-City-vs-Hull-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/22df8478/Leeds-United-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/93493607/Queens-Park-Rangers-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/1df6b87e/Plymouth-Argyle-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/e090f40b/Luton-Town-vs-Blackburn-Rovers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/8ef52968/Swansea-City-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/17892952/Cardiff-City-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/7f59c601/Millwall-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/604617a2/Sheffield-Wednesday-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/2abfe087/West-Bromwich-Albion-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/1c781004/Burnley-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/26ab47ee/Luton-Town-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/17892952/Sheffield-Wednesday-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/76ffc013/Coventry-City-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/bd8769d1/Swansea-City-vs-Hull-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/5bfb9659/Oxford-United-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/1df6b87e/Cardiff-City-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/32a1480e/Middlesbrough-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/1c781004/Sunderland-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/2abfe087/Burnley-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/e090f40b/Millwall-vs-Blackburn-Rovers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/22df8478/Queens-Park-Rangers-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/60c6b05f/Bristol-City-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/604617a2/Cardiff-City-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/2abfe087/Portsmouth-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/32a1480e/Coventry-City-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/93493607/Luton-Town-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/1df6b87e/Burnley-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/1c781004/Millwall-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/7f59c601/Sheffield-Wednesday-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/8ef52968/Blackburn-Rovers-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/22df8478/Hull-City-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/a757999c/Swansea-City-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/26ab47ee/West-Bromwich-Albion-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/17892952/Leeds-United-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/943e8050/Blackburn-Rovers-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/17892952/Plymouth-Argyle-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/60c6b05f/Swansea-City-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/5bfb9659/Hull-City-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/1df6b87e/Watford-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/bba7d733/Millwall-vs-Sheffield-Wednesday-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/1c781004/Coventry-City-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/75fae011/Middlesbrough-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/26ab47ee/Bristol-City-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/22df8478/Oxford-United-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/76ffc013/Sunderland-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/a757999c/Luton-Town-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/22df8478/Luton-Town-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/8ef52968/Burnley-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/bd8769d1/Millwall-vs-Hull-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/76ffc013/Middlesbrough-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/1df6b87e/1c781004/Sheffield-United-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/32a1480e/Queens-Park-Rangers-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/93493607/Coventry-City-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/75fae011/Swansea-City-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/5bfb9659/Sheffield-Wednesday-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/26ab47ee/Watford-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/604617a2/Blackburn-Rovers-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/17892952/West-Bromwich-Albion-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/75fae011/Millwall-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/1df6b87e/Swansea-City-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/e090f40b/Coventry-City-vs-Blackburn-Rovers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/604617a2/Luton-Town-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/26ab47ee/Sunderland-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/22df8478/Watford-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/a757999c/Hull-City-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/60c6b05f/Middlesbrough-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/93493607/Sheffield-Wednesday-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/17892952/Portsmouth-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/32a1480e/Burnley-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/2abfe087/Coventry-City-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/60c6b05f/Portsmouth-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/5bfb9659/Burnley-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/a757999c/Sheffield-Wednesday-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/26ab47ee/Cardiff-City-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/17892952/Oxford-United-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/1df6b87e/Hull-City-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/e297cd13/Millwall-vs-Luton-Town-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/93493607/Blackburn-Rovers-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/22df8478/Middlesbrough-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/1c781004/Swansea-City-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/32a1480e/Sunderland-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/ced9ecd0/Sheffield-Wednesday-Leeds-United-August-23-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/499a9d69/Bristol-City-Coventry-City-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/56b95bb5/Queens-Park-Rangers-Plymouth-Argyle-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/958fdf9f/Hull-City-Millwall-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/008769e1/Norwich-City-Sheffield-United-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/202967ff/Middlesbrough-Portsmouth-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/2375d0ce/Sunderland-Burnley-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/4b94620e/Watford-Derby-County-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/9aef1d9c/Preston-North-End-Luton-Town-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/d548e35e/Blackburn-Rovers-Oxford-United-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/da9feef3/Stoke-City-West-Bromwich-Albion-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/112ed598/Swansea-City-Cardiff-City-August-25-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/5bfb9659/Cardiff-City-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/32a1480e/West-Bromwich-Albion-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/76ffc013/Burnley-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/7f59c601/Sunderland-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/bba7d733/Luton-Town-vs-Sheffield-Wednesday-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/1df6b87e/Derby-County-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/22df8478/Blackburn-Rovers-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/f7e3dfe9/Swansea-City-vs-Coventry-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/604617a2/Bristol-City-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/17892952/Hull-City-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/1c781004/Watford-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/a757999c/Millwall-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/1c781004/Derby-County-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/5bfb9659/Coventry-City-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/22df8478/Millwall-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/60c6b05f/Sheffield-Wednesday-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/32a1480e/Luton-Town-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/2abfe087/Sunderland-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/93493607/Swansea-City-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/75fae011/Hull-City-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/a757999c/Blackburn-Rovers-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/604617a2/Burnley-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/17892952/Middlesbrough-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/1df6b87e/Portsmouth-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/1c781004/Hull-City-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/60c6b05f/Millwall-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/26ab47ee/Queens-Park-Rangers-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/5bfb9659/Sunderland-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/22df8478/Burnley-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/bba7d733/Coventry-City-vs-Sheffield-Wednesday-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/32a1480e/Blackburn-Rovers-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/2abfe087/Middlesbrough-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/1df6b87e/Luton-Town-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/17892952/Swansea-City-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/75fae011/Bristol-City-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/604617a2/Portsmouth-vs-Oxford-United-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/8ef52968/Sheffield-Wednesday-vs-Sunderland-History</t>
   </si>
   <si>
@@ -3138,6 +3234,42 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/81814d03/Bristol-City-Sheffield-Wednesday-October-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d893be3b/Sunderland-Leeds-United-October-4-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b25d1811/Burnley-Preston-North-End-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b3c3fb52/Portsmouth-Oxford-United-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cb90822e/Norwich-City-Hull-City-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/097ffcdc/Plymouth-Argyle-Blackburn-Rovers-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2ad57659/Sheffield-United-Luton-Town-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2b1d0c9c/Swansea-City-Stoke-City-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c3ecef59/West-Bromwich-Albion-Millwall-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cc42dab5/Coventry-City-Sheffield-Wednesday-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee17be41/Watford-Middlesbrough-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/efe76973/Derby-County-Queens-Park-Rangers-October-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c80518e2/Bristol-City-Cardiff-City-October-6-2024-Championship</t>
   </si>
 </sst>
 </file>
@@ -3317,7 +3449,7 @@
         <v>#N/A</v>
       </c>
       <c r="U2" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3">
@@ -3382,7 +3514,7 @@
         <v>#N/A</v>
       </c>
       <c r="U3" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4">
@@ -3447,7 +3579,7 @@
         <v>#N/A</v>
       </c>
       <c r="U4" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5">
@@ -3512,7 +3644,7 @@
         <v>#N/A</v>
       </c>
       <c r="U5" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6">
@@ -3577,7 +3709,7 @@
         <v>#N/A</v>
       </c>
       <c r="U6" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7">
@@ -3642,7 +3774,7 @@
         <v>#N/A</v>
       </c>
       <c r="U7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8">
@@ -3707,7 +3839,7 @@
         <v>#N/A</v>
       </c>
       <c r="U8" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9">
@@ -3772,7 +3904,7 @@
         <v>#N/A</v>
       </c>
       <c r="U9" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10">
@@ -3837,7 +3969,7 @@
         <v>#N/A</v>
       </c>
       <c r="U10" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11">
@@ -3902,7 +4034,7 @@
         <v>#N/A</v>
       </c>
       <c r="U11" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
     </row>
     <row r="12">
@@ -3967,7 +4099,7 @@
         <v>#N/A</v>
       </c>
       <c r="U12" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13">
@@ -4032,7 +4164,7 @@
         <v>#N/A</v>
       </c>
       <c r="U13" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14">
@@ -4069,35 +4201,35 @@
       <c r="K14" t="s">
         <v>601</v>
       </c>
-      <c r="L14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M14" t="e">
-        <v>#N/A</v>
+      <c r="L14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.2</v>
       </c>
       <c r="N14" t="s">
         <v>611</v>
       </c>
-      <c r="O14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q14" t="e">
-        <v>#N/A</v>
+      <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>36695.0</v>
       </c>
       <c r="R14" t="s">
         <v>625</v>
       </c>
       <c r="S14" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="T14" t="e">
         <v>#N/A</v>
       </c>
       <c r="U14" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15">
@@ -4134,35 +4266,35 @@
       <c r="K15" t="s">
         <v>594</v>
       </c>
-      <c r="L15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M15" t="e">
-        <v>#N/A</v>
+      <c r="L15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.0</v>
       </c>
       <c r="N15" t="s">
         <v>607</v>
       </c>
-      <c r="O15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q15" t="e">
-        <v>#N/A</v>
+      <c r="O15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>15907.0</v>
       </c>
       <c r="R15" t="s">
         <v>618</v>
       </c>
       <c r="S15" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="T15" t="e">
         <v>#N/A</v>
       </c>
       <c r="U15" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16">
@@ -4199,35 +4331,35 @@
       <c r="K16" t="s">
         <v>595</v>
       </c>
-      <c r="L16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M16" t="e">
-        <v>#N/A</v>
+      <c r="L16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.9</v>
       </c>
       <c r="N16" t="s">
         <v>609</v>
       </c>
-      <c r="O16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q16" t="e">
-        <v>#N/A</v>
+      <c r="O16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>11453.0</v>
       </c>
       <c r="R16" t="s">
         <v>619</v>
       </c>
       <c r="S16" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="T16" t="e">
         <v>#N/A</v>
       </c>
       <c r="U16" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17">
@@ -4264,35 +4396,35 @@
       <c r="K17" t="s">
         <v>604</v>
       </c>
-      <c r="L17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M17" t="e">
-        <v>#N/A</v>
+      <c r="L17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.3</v>
       </c>
       <c r="N17" t="s">
         <v>608</v>
       </c>
-      <c r="O17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q17" t="e">
-        <v>#N/A</v>
+      <c r="O17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>11758.0</v>
       </c>
       <c r="R17" t="s">
         <v>628</v>
       </c>
       <c r="S17" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="T17" t="e">
         <v>#N/A</v>
       </c>
       <c r="U17" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18">
@@ -4329,35 +4461,35 @@
       <c r="K18" t="s">
         <v>600</v>
       </c>
-      <c r="L18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M18" t="e">
-        <v>#N/A</v>
+      <c r="L18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.4</v>
       </c>
       <c r="N18" t="s">
         <v>613</v>
       </c>
-      <c r="O18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" t="e">
-        <v>#N/A</v>
+      <c r="O18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>20634.0</v>
       </c>
       <c r="R18" t="s">
         <v>624</v>
       </c>
       <c r="S18" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="T18" t="e">
         <v>#N/A</v>
       </c>
       <c r="U18" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19">
@@ -4394,35 +4526,35 @@
       <c r="K19" t="s">
         <v>593</v>
       </c>
-      <c r="L19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M19" t="e">
-        <v>#N/A</v>
+      <c r="L19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8</v>
       </c>
       <c r="N19" t="s">
         <v>610</v>
       </c>
-      <c r="O19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q19" t="e">
-        <v>#N/A</v>
+      <c r="O19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>13550.0</v>
       </c>
       <c r="R19" t="s">
         <v>617</v>
       </c>
       <c r="S19" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="T19" t="e">
         <v>#N/A</v>
       </c>
       <c r="U19" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
     </row>
     <row r="20">
@@ -4459,35 +4591,35 @@
       <c r="K20" t="s">
         <v>599</v>
       </c>
-      <c r="L20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M20" t="e">
-        <v>#N/A</v>
+      <c r="L20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.9</v>
       </c>
       <c r="N20" t="s">
         <v>615</v>
       </c>
-      <c r="O20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" t="e">
-        <v>#N/A</v>
+      <c r="O20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>17321.0</v>
       </c>
       <c r="R20" t="s">
         <v>623</v>
       </c>
       <c r="S20" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="T20" t="e">
         <v>#N/A</v>
       </c>
       <c r="U20" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21">
@@ -4524,35 +4656,35 @@
       <c r="K21" t="s">
         <v>598</v>
       </c>
-      <c r="L21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M21" t="e">
-        <v>#N/A</v>
+      <c r="L21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.0</v>
       </c>
       <c r="N21" t="s">
         <v>616</v>
       </c>
-      <c r="O21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q21" t="e">
-        <v>#N/A</v>
+      <c r="O21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>23002.0</v>
       </c>
       <c r="R21" t="s">
         <v>622</v>
       </c>
       <c r="S21" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="T21" t="e">
         <v>#N/A</v>
       </c>
       <c r="U21" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22">
@@ -4589,35 +4721,35 @@
       <c r="K22" t="s">
         <v>603</v>
       </c>
-      <c r="L22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M22" t="e">
-        <v>#N/A</v>
+      <c r="L22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.5</v>
       </c>
       <c r="N22" t="s">
         <v>612</v>
       </c>
-      <c r="O22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q22" t="e">
-        <v>#N/A</v>
+      <c r="O22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>28105.0</v>
       </c>
       <c r="R22" t="s">
         <v>627</v>
       </c>
       <c r="S22" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="T22" t="e">
         <v>#N/A</v>
       </c>
       <c r="U22" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23">
@@ -4654,35 +4786,35 @@
       <c r="K23" t="s">
         <v>602</v>
       </c>
-      <c r="L23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M23" t="e">
-        <v>#N/A</v>
+      <c r="L23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.0</v>
       </c>
       <c r="N23" t="s">
         <v>605</v>
       </c>
-      <c r="O23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q23" t="e">
-        <v>#N/A</v>
+      <c r="O23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>17438.0</v>
       </c>
       <c r="R23" t="s">
         <v>626</v>
       </c>
       <c r="S23" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="T23" t="e">
         <v>#N/A</v>
       </c>
       <c r="U23" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24">
@@ -4719,35 +4851,35 @@
       <c r="K24" t="s">
         <v>596</v>
       </c>
-      <c r="L24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M24" t="e">
-        <v>#N/A</v>
+      <c r="L24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.6</v>
       </c>
       <c r="N24" t="s">
         <v>606</v>
       </c>
-      <c r="O24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q24" t="e">
-        <v>#N/A</v>
+      <c r="O24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>24438.0</v>
       </c>
       <c r="R24" t="s">
         <v>620</v>
       </c>
       <c r="S24" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="T24" t="e">
         <v>#N/A</v>
       </c>
       <c r="U24" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25">
@@ -4784,35 +4916,35 @@
       <c r="K25" t="s">
         <v>597</v>
       </c>
-      <c r="L25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M25" t="e">
-        <v>#N/A</v>
+      <c r="L25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5</v>
       </c>
       <c r="N25" t="s">
         <v>614</v>
       </c>
-      <c r="O25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q25" t="e">
-        <v>#N/A</v>
+      <c r="O25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>23072.0</v>
       </c>
       <c r="R25" t="s">
         <v>621</v>
       </c>
       <c r="S25" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="T25" t="e">
         <v>#N/A</v>
       </c>
       <c r="U25" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
     </row>
     <row r="26">
@@ -4849,35 +4981,35 @@
       <c r="K26" t="s">
         <v>601</v>
       </c>
-      <c r="L26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M26" t="e">
-        <v>#N/A</v>
+      <c r="L26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.8</v>
       </c>
       <c r="N26" t="s">
         <v>608</v>
       </c>
-      <c r="O26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q26" t="e">
-        <v>#N/A</v>
+      <c r="O26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>34968.0</v>
       </c>
       <c r="R26" t="s">
         <v>625</v>
       </c>
       <c r="S26" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="T26" t="e">
         <v>#N/A</v>
       </c>
       <c r="U26" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27">
@@ -4914,35 +5046,35 @@
       <c r="K27" t="s">
         <v>594</v>
       </c>
-      <c r="L27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M27" t="e">
-        <v>#N/A</v>
+      <c r="L27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.6</v>
       </c>
       <c r="N27" t="s">
         <v>616</v>
       </c>
-      <c r="O27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q27" t="e">
-        <v>#N/A</v>
+      <c r="O27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>13677.0</v>
       </c>
       <c r="R27" t="s">
         <v>618</v>
       </c>
       <c r="S27" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="T27" t="e">
         <v>#N/A</v>
       </c>
       <c r="U27" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
     </row>
     <row r="28">
@@ -4979,35 +5111,35 @@
       <c r="K28" t="s">
         <v>603</v>
       </c>
-      <c r="L28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M28" t="e">
-        <v>#N/A</v>
+      <c r="L28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.6</v>
       </c>
       <c r="N28" t="s">
         <v>610</v>
       </c>
-      <c r="O28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q28" t="e">
-        <v>#N/A</v>
+      <c r="O28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>22452.0</v>
       </c>
       <c r="R28" t="s">
         <v>627</v>
       </c>
       <c r="S28" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="T28" t="e">
         <v>#N/A</v>
       </c>
       <c r="U28" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29">
@@ -5044,35 +5176,35 @@
       <c r="K29" t="s">
         <v>600</v>
       </c>
-      <c r="L29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M29" t="e">
-        <v>#N/A</v>
+      <c r="L29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.5</v>
       </c>
       <c r="N29" t="s">
         <v>605</v>
       </c>
-      <c r="O29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q29" t="e">
-        <v>#N/A</v>
+      <c r="O29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>18534.0</v>
       </c>
       <c r="R29" t="s">
         <v>624</v>
       </c>
       <c r="S29" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T29" t="e">
         <v>#N/A</v>
       </c>
       <c r="U29" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
     </row>
     <row r="30">
@@ -5109,35 +5241,35 @@
       <c r="K30" t="s">
         <v>595</v>
       </c>
-      <c r="L30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M30" t="e">
-        <v>#N/A</v>
+      <c r="L30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.4</v>
       </c>
       <c r="N30" t="s">
         <v>615</v>
       </c>
-      <c r="O30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q30" t="e">
-        <v>#N/A</v>
+      <c r="O30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>11423.0</v>
       </c>
       <c r="R30" t="s">
         <v>619</v>
       </c>
       <c r="S30" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="T30" t="e">
         <v>#N/A</v>
       </c>
       <c r="U30" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
     </row>
     <row r="31">
@@ -5174,35 +5306,35 @@
       <c r="K31" t="s">
         <v>598</v>
       </c>
-      <c r="L31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M31" t="e">
-        <v>#N/A</v>
+      <c r="L31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.9</v>
       </c>
       <c r="N31" t="s">
         <v>606</v>
       </c>
-      <c r="O31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q31" t="e">
-        <v>#N/A</v>
+      <c r="O31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>19679.0</v>
       </c>
       <c r="R31" t="s">
         <v>622</v>
       </c>
       <c r="S31" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="T31" t="e">
         <v>#N/A</v>
       </c>
       <c r="U31" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32">
@@ -5239,35 +5371,35 @@
       <c r="K32" t="s">
         <v>602</v>
       </c>
-      <c r="L32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M32" t="e">
-        <v>#N/A</v>
+      <c r="L32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.7</v>
       </c>
       <c r="N32" t="s">
         <v>607</v>
       </c>
-      <c r="O32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q32" t="e">
-        <v>#N/A</v>
+      <c r="O32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>14173.0</v>
       </c>
       <c r="R32" t="s">
         <v>626</v>
       </c>
       <c r="S32" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="T32" t="e">
         <v>#N/A</v>
       </c>
       <c r="U32" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33">
@@ -5304,35 +5436,35 @@
       <c r="K33" t="s">
         <v>599</v>
       </c>
-      <c r="L33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M33" t="e">
-        <v>#N/A</v>
+      <c r="L33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.2</v>
       </c>
       <c r="N33" t="s">
         <v>613</v>
       </c>
-      <c r="O33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q33" t="e">
-        <v>#N/A</v>
+      <c r="O33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>13954.0</v>
       </c>
       <c r="R33" t="s">
         <v>623</v>
       </c>
       <c r="S33" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="T33" t="e">
         <v>#N/A</v>
       </c>
       <c r="U33" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="34">
@@ -5369,35 +5501,35 @@
       <c r="K34" t="s">
         <v>597</v>
       </c>
-      <c r="L34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M34" t="e">
-        <v>#N/A</v>
+      <c r="L34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.9</v>
       </c>
       <c r="N34" t="s">
         <v>612</v>
       </c>
-      <c r="O34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q34" t="e">
-        <v>#N/A</v>
+      <c r="O34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>20168.0</v>
       </c>
       <c r="R34" t="s">
         <v>621</v>
       </c>
       <c r="S34" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="T34" t="e">
         <v>#N/A</v>
       </c>
       <c r="U34" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="35">
@@ -5434,35 +5566,35 @@
       <c r="K35" t="s">
         <v>604</v>
       </c>
-      <c r="L35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M35" t="e">
-        <v>#N/A</v>
+      <c r="L35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.7</v>
       </c>
       <c r="N35" t="s">
         <v>614</v>
       </c>
-      <c r="O35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q35" t="e">
-        <v>#N/A</v>
+      <c r="O35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>11332.0</v>
       </c>
       <c r="R35" t="s">
         <v>628</v>
       </c>
       <c r="S35" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="T35" t="e">
         <v>#N/A</v>
       </c>
       <c r="U35" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="36">
@@ -5499,35 +5631,35 @@
       <c r="K36" t="s">
         <v>593</v>
       </c>
-      <c r="L36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M36" t="e">
-        <v>#N/A</v>
+      <c r="L36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.9</v>
       </c>
       <c r="N36" t="s">
         <v>609</v>
       </c>
-      <c r="O36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q36" t="e">
-        <v>#N/A</v>
+      <c r="O36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>13647.0</v>
       </c>
       <c r="R36" t="s">
         <v>617</v>
       </c>
       <c r="S36" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="T36" t="e">
         <v>#N/A</v>
       </c>
       <c r="U36" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="37">
@@ -5564,35 +5696,35 @@
       <c r="K37" t="s">
         <v>596</v>
       </c>
-      <c r="L37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M37" t="e">
-        <v>#N/A</v>
+      <c r="L37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.4</v>
       </c>
       <c r="N37" t="s">
         <v>611</v>
       </c>
-      <c r="O37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q37" t="e">
-        <v>#N/A</v>
+      <c r="O37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>24303.0</v>
       </c>
       <c r="R37" t="s">
         <v>620</v>
       </c>
       <c r="S37" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="T37" t="e">
         <v>#N/A</v>
       </c>
       <c r="U37" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
     </row>
     <row r="38">
@@ -5657,7 +5789,7 @@
         <v>#N/A</v>
       </c>
       <c r="U38" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
     </row>
     <row r="39">
@@ -5722,7 +5854,7 @@
         <v>#N/A</v>
       </c>
       <c r="U39" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="40">
@@ -5787,7 +5919,7 @@
         <v>#N/A</v>
       </c>
       <c r="U40" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="41">
@@ -5852,7 +5984,7 @@
         <v>#N/A</v>
       </c>
       <c r="U41" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="42">
@@ -5917,7 +6049,7 @@
         <v>#N/A</v>
       </c>
       <c r="U42" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
     </row>
     <row r="43">
@@ -5982,7 +6114,7 @@
         <v>#N/A</v>
       </c>
       <c r="U43" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
     <row r="44">
@@ -6047,7 +6179,7 @@
         <v>#N/A</v>
       </c>
       <c r="U44" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
     </row>
     <row r="45">
@@ -6112,7 +6244,7 @@
         <v>#N/A</v>
       </c>
       <c r="U45" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="46">
@@ -6177,7 +6309,7 @@
         <v>#N/A</v>
       </c>
       <c r="U46" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="47">
@@ -6242,7 +6374,7 @@
         <v>#N/A</v>
       </c>
       <c r="U47" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="48">
@@ -6307,7 +6439,7 @@
         <v>#N/A</v>
       </c>
       <c r="U48" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="49">
@@ -6372,7 +6504,7 @@
         <v>#N/A</v>
       </c>
       <c r="U49" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
     </row>
     <row r="50">
@@ -6437,7 +6569,7 @@
         <v>#N/A</v>
       </c>
       <c r="U50" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="51">
@@ -6502,7 +6634,7 @@
         <v>#N/A</v>
       </c>
       <c r="U51" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
     </row>
     <row r="52">
@@ -6567,7 +6699,7 @@
         <v>#N/A</v>
       </c>
       <c r="U52" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="53">
@@ -6632,7 +6764,7 @@
         <v>#N/A</v>
       </c>
       <c r="U53" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="54">
@@ -6697,7 +6829,7 @@
         <v>#N/A</v>
       </c>
       <c r="U54" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
     </row>
     <row r="55">
@@ -6762,7 +6894,7 @@
         <v>#N/A</v>
       </c>
       <c r="U55" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="56">
@@ -6827,7 +6959,7 @@
         <v>#N/A</v>
       </c>
       <c r="U56" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="57">
@@ -6892,7 +7024,7 @@
         <v>#N/A</v>
       </c>
       <c r="U57" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="58">
@@ -6957,7 +7089,7 @@
         <v>#N/A</v>
       </c>
       <c r="U58" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="59">
@@ -7022,7 +7154,7 @@
         <v>#N/A</v>
       </c>
       <c r="U59" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="60">
@@ -7087,7 +7219,7 @@
         <v>#N/A</v>
       </c>
       <c r="U60" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
     </row>
     <row r="61">
@@ -7152,7 +7284,7 @@
         <v>#N/A</v>
       </c>
       <c r="U61" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="62">
@@ -7217,7 +7349,7 @@
         <v>#N/A</v>
       </c>
       <c r="U62" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
     </row>
     <row r="63">
@@ -7282,7 +7414,7 @@
         <v>#N/A</v>
       </c>
       <c r="U63" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="64">
@@ -7347,7 +7479,7 @@
         <v>#N/A</v>
       </c>
       <c r="U64" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="65">
@@ -7412,7 +7544,7 @@
         <v>#N/A</v>
       </c>
       <c r="U65" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
     </row>
     <row r="66">
@@ -7477,7 +7609,7 @@
         <v>#N/A</v>
       </c>
       <c r="U66" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
     </row>
     <row r="67">
@@ -7542,7 +7674,7 @@
         <v>#N/A</v>
       </c>
       <c r="U67" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
     </row>
     <row r="68">
@@ -7607,7 +7739,7 @@
         <v>#N/A</v>
       </c>
       <c r="U68" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="69">
@@ -7672,7 +7804,7 @@
         <v>#N/A</v>
       </c>
       <c r="U69" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="70">
@@ -7737,7 +7869,7 @@
         <v>#N/A</v>
       </c>
       <c r="U70" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
     </row>
     <row r="71">
@@ -7802,7 +7934,7 @@
         <v>#N/A</v>
       </c>
       <c r="U71" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="72">
@@ -7867,7 +7999,7 @@
         <v>#N/A</v>
       </c>
       <c r="U72" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="73">
@@ -7932,7 +8064,7 @@
         <v>#N/A</v>
       </c>
       <c r="U73" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="74">
@@ -7997,7 +8129,7 @@
         <v>#N/A</v>
       </c>
       <c r="U74" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="75">
@@ -8062,7 +8194,7 @@
         <v>#N/A</v>
       </c>
       <c r="U75" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="76">
@@ -8127,7 +8259,7 @@
         <v>#N/A</v>
       </c>
       <c r="U76" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="77">
@@ -8192,7 +8324,7 @@
         <v>#N/A</v>
       </c>
       <c r="U77" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="78">
@@ -8257,7 +8389,7 @@
         <v>#N/A</v>
       </c>
       <c r="U78" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
     </row>
     <row r="79">
@@ -8322,7 +8454,7 @@
         <v>#N/A</v>
       </c>
       <c r="U79" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="80">
@@ -8387,7 +8519,7 @@
         <v>#N/A</v>
       </c>
       <c r="U80" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="81">
@@ -8452,7 +8584,7 @@
         <v>#N/A</v>
       </c>
       <c r="U81" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="82">
@@ -8517,7 +8649,7 @@
         <v>#N/A</v>
       </c>
       <c r="U82" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="83">
@@ -8582,7 +8714,7 @@
         <v>#N/A</v>
       </c>
       <c r="U83" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
     </row>
     <row r="84">
@@ -8647,7 +8779,7 @@
         <v>#N/A</v>
       </c>
       <c r="U84" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
     </row>
     <row r="85">
@@ -8712,7 +8844,7 @@
         <v>#N/A</v>
       </c>
       <c r="U85" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
     </row>
     <row r="86">
@@ -8777,7 +8909,7 @@
         <v>#N/A</v>
       </c>
       <c r="U86" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
     <row r="87">
@@ -8842,7 +8974,7 @@
         <v>#N/A</v>
       </c>
       <c r="U87" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
     </row>
     <row r="88">
@@ -8907,7 +9039,7 @@
         <v>#N/A</v>
       </c>
       <c r="U88" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
     </row>
     <row r="89">
@@ -8972,7 +9104,7 @@
         <v>#N/A</v>
       </c>
       <c r="U89" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
     </row>
     <row r="90">
@@ -9037,7 +9169,7 @@
         <v>#N/A</v>
       </c>
       <c r="U90" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="91">
@@ -9102,7 +9234,7 @@
         <v>#N/A</v>
       </c>
       <c r="U91" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
     </row>
     <row r="92">
@@ -9167,7 +9299,7 @@
         <v>#N/A</v>
       </c>
       <c r="U92" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
     <row r="93">
@@ -9232,7 +9364,7 @@
         <v>#N/A</v>
       </c>
       <c r="U93" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
     </row>
     <row r="94">
@@ -9297,7 +9429,7 @@
         <v>#N/A</v>
       </c>
       <c r="U94" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="95">
@@ -9362,7 +9494,7 @@
         <v>#N/A</v>
       </c>
       <c r="U95" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
     </row>
     <row r="96">
@@ -9427,7 +9559,7 @@
         <v>#N/A</v>
       </c>
       <c r="U96" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
     </row>
     <row r="97">
@@ -9492,7 +9624,7 @@
         <v>#N/A</v>
       </c>
       <c r="U97" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
     </row>
     <row r="98">
@@ -9557,7 +9689,7 @@
         <v>#N/A</v>
       </c>
       <c r="U98" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
     </row>
     <row r="99">
@@ -9622,7 +9754,7 @@
         <v>#N/A</v>
       </c>
       <c r="U99" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
     </row>
     <row r="100">
@@ -9687,7 +9819,7 @@
         <v>#N/A</v>
       </c>
       <c r="U100" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
     </row>
     <row r="101">
@@ -9752,7 +9884,7 @@
         <v>#N/A</v>
       </c>
       <c r="U101" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
     </row>
     <row r="102">
@@ -9817,7 +9949,7 @@
         <v>#N/A</v>
       </c>
       <c r="U102" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="103">
@@ -9882,7 +10014,7 @@
         <v>#N/A</v>
       </c>
       <c r="U103" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
     </row>
     <row r="104">
@@ -9947,7 +10079,7 @@
         <v>#N/A</v>
       </c>
       <c r="U104" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
     </row>
     <row r="105">
@@ -10012,7 +10144,7 @@
         <v>#N/A</v>
       </c>
       <c r="U105" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
     </row>
     <row r="106">
@@ -10077,7 +10209,7 @@
         <v>#N/A</v>
       </c>
       <c r="U106" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
     </row>
     <row r="107">
@@ -10142,7 +10274,7 @@
         <v>#N/A</v>
       </c>
       <c r="U107" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="108">
@@ -10207,7 +10339,7 @@
         <v>#N/A</v>
       </c>
       <c r="U108" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
     </row>
     <row r="109">
@@ -10272,7 +10404,7 @@
         <v>#N/A</v>
       </c>
       <c r="U109" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
     </row>
     <row r="110">
@@ -10337,7 +10469,7 @@
         <v>#N/A</v>
       </c>
       <c r="U110" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
     </row>
     <row r="111">
@@ -10402,7 +10534,7 @@
         <v>#N/A</v>
       </c>
       <c r="U111" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="112">
@@ -10467,7 +10599,7 @@
         <v>#N/A</v>
       </c>
       <c r="U112" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="113">
@@ -10532,7 +10664,7 @@
         <v>#N/A</v>
       </c>
       <c r="U113" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
     </row>
     <row r="114">
@@ -10597,7 +10729,7 @@
         <v>#N/A</v>
       </c>
       <c r="U114" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
     </row>
     <row r="115">
@@ -10662,7 +10794,7 @@
         <v>#N/A</v>
       </c>
       <c r="U115" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="116">
@@ -10727,7 +10859,7 @@
         <v>#N/A</v>
       </c>
       <c r="U116" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="117">
@@ -10792,7 +10924,7 @@
         <v>#N/A</v>
       </c>
       <c r="U117" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="118">
@@ -10857,7 +10989,7 @@
         <v>#N/A</v>
       </c>
       <c r="U118" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="119">
@@ -10922,7 +11054,7 @@
         <v>#N/A</v>
       </c>
       <c r="U119" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
     </row>
     <row r="120">
@@ -10987,7 +11119,7 @@
         <v>#N/A</v>
       </c>
       <c r="U120" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="121">
@@ -11052,7 +11184,7 @@
         <v>#N/A</v>
       </c>
       <c r="U121" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
     </row>
     <row r="122">
@@ -11117,7 +11249,7 @@
         <v>#N/A</v>
       </c>
       <c r="U122" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="123">
@@ -11182,7 +11314,7 @@
         <v>#N/A</v>
       </c>
       <c r="U123" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="124">
@@ -11247,7 +11379,7 @@
         <v>#N/A</v>
       </c>
       <c r="U124" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
     </row>
     <row r="125">
@@ -11312,7 +11444,7 @@
         <v>#N/A</v>
       </c>
       <c r="U125" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="126">
@@ -11377,7 +11509,7 @@
         <v>#N/A</v>
       </c>
       <c r="U126" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
     </row>
     <row r="127">
@@ -11442,7 +11574,7 @@
         <v>#N/A</v>
       </c>
       <c r="U127" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
     </row>
     <row r="128">
@@ -11507,7 +11639,7 @@
         <v>#N/A</v>
       </c>
       <c r="U128" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="129">
@@ -11572,7 +11704,7 @@
         <v>#N/A</v>
       </c>
       <c r="U129" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
     </row>
     <row r="130">
@@ -11637,7 +11769,7 @@
         <v>#N/A</v>
       </c>
       <c r="U130" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
     </row>
     <row r="131">
@@ -11702,7 +11834,7 @@
         <v>#N/A</v>
       </c>
       <c r="U131" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
     </row>
     <row r="132">
@@ -11767,7 +11899,7 @@
         <v>#N/A</v>
       </c>
       <c r="U132" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="133">
@@ -11832,7 +11964,7 @@
         <v>#N/A</v>
       </c>
       <c r="U133" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
     <row r="134">
@@ -11891,13 +12023,13 @@
         <v>631</v>
       </c>
       <c r="S134" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="T134" t="e">
         <v>#N/A</v>
       </c>
       <c r="U134" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
     </row>
     <row r="135">
@@ -11956,13 +12088,13 @@
         <v>633</v>
       </c>
       <c r="S135" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="T135" t="e">
         <v>#N/A</v>
       </c>
       <c r="U135" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
     </row>
     <row r="136">
@@ -12021,13 +12153,13 @@
         <v>639</v>
       </c>
       <c r="S136" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="T136" t="e">
         <v>#N/A</v>
       </c>
       <c r="U136" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
     </row>
     <row r="137">
@@ -12086,13 +12218,13 @@
         <v>629</v>
       </c>
       <c r="S137" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="T137" t="e">
         <v>#N/A</v>
       </c>
       <c r="U137" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
     </row>
     <row r="138">
@@ -12151,13 +12283,13 @@
         <v>635</v>
       </c>
       <c r="S138" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="T138" t="e">
         <v>#N/A</v>
       </c>
       <c r="U138" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
     </row>
     <row r="139">
@@ -12216,13 +12348,13 @@
         <v>640</v>
       </c>
       <c r="S139" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="T139" t="e">
         <v>#N/A</v>
       </c>
       <c r="U139" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
     </row>
     <row r="140">
@@ -12281,13 +12413,13 @@
         <v>632</v>
       </c>
       <c r="S140" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="T140" t="e">
         <v>#N/A</v>
       </c>
       <c r="U140" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
     </row>
     <row r="141">
@@ -12346,13 +12478,13 @@
         <v>637</v>
       </c>
       <c r="S141" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="T141" t="e">
         <v>#N/A</v>
       </c>
       <c r="U141" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="142">
@@ -12411,13 +12543,13 @@
         <v>634</v>
       </c>
       <c r="S142" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="T142" t="e">
         <v>#N/A</v>
       </c>
       <c r="U142" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="143">
@@ -12476,13 +12608,13 @@
         <v>630</v>
       </c>
       <c r="S143" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="T143" t="e">
         <v>#N/A</v>
       </c>
       <c r="U143" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
     </row>
     <row r="144">
@@ -12541,13 +12673,13 @@
         <v>636</v>
       </c>
       <c r="S144" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="T144" t="e">
         <v>#N/A</v>
       </c>
       <c r="U144" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
     </row>
     <row r="145">
@@ -12606,13 +12738,13 @@
         <v>638</v>
       </c>
       <c r="S145" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="T145" t="e">
         <v>#N/A</v>
       </c>
       <c r="U145" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
     </row>
     <row r="146">
@@ -12677,7 +12809,7 @@
         <v>#N/A</v>
       </c>
       <c r="U146" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
     </row>
     <row r="147">
@@ -12742,7 +12874,7 @@
         <v>#N/A</v>
       </c>
       <c r="U147" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
     </row>
     <row r="148">
@@ -12807,7 +12939,7 @@
         <v>#N/A</v>
       </c>
       <c r="U148" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="149">
@@ -12872,7 +13004,7 @@
         <v>#N/A</v>
       </c>
       <c r="U149" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
     </row>
     <row r="150">
@@ -12937,7 +13069,7 @@
         <v>#N/A</v>
       </c>
       <c r="U150" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
     </row>
     <row r="151">
@@ -13002,7 +13134,7 @@
         <v>#N/A</v>
       </c>
       <c r="U151" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
     </row>
     <row r="152">
@@ -13067,7 +13199,7 @@
         <v>#N/A</v>
       </c>
       <c r="U152" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
     </row>
     <row r="153">
@@ -13132,7 +13264,7 @@
         <v>#N/A</v>
       </c>
       <c r="U153" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="154">
@@ -13197,7 +13329,7 @@
         <v>#N/A</v>
       </c>
       <c r="U154" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
     </row>
     <row r="155">
@@ -13262,7 +13394,7 @@
         <v>#N/A</v>
       </c>
       <c r="U155" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
     </row>
     <row r="156">
@@ -13327,7 +13459,7 @@
         <v>#N/A</v>
       </c>
       <c r="U156" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
     </row>
     <row r="157">
@@ -13392,7 +13524,7 @@
         <v>#N/A</v>
       </c>
       <c r="U157" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
     </row>
     <row r="158">
@@ -13457,7 +13589,7 @@
         <v>#N/A</v>
       </c>
       <c r="U158" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
     </row>
     <row r="159">
@@ -13522,7 +13654,7 @@
         <v>#N/A</v>
       </c>
       <c r="U159" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
     </row>
     <row r="160">
@@ -13587,7 +13719,7 @@
         <v>#N/A</v>
       </c>
       <c r="U160" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
     </row>
     <row r="161">
@@ -13652,7 +13784,7 @@
         <v>#N/A</v>
       </c>
       <c r="U161" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
     </row>
     <row r="162">
@@ -13717,7 +13849,7 @@
         <v>#N/A</v>
       </c>
       <c r="U162" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
     </row>
     <row r="163">
@@ -13782,7 +13914,7 @@
         <v>#N/A</v>
       </c>
       <c r="U163" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
     </row>
     <row r="164">
@@ -13847,7 +13979,7 @@
         <v>#N/A</v>
       </c>
       <c r="U164" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
     </row>
     <row r="165">
@@ -13912,7 +14044,7 @@
         <v>#N/A</v>
       </c>
       <c r="U165" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
     </row>
     <row r="166">
@@ -13977,7 +14109,7 @@
         <v>#N/A</v>
       </c>
       <c r="U166" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
     </row>
     <row r="167">
@@ -14042,7 +14174,7 @@
         <v>#N/A</v>
       </c>
       <c r="U167" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="168">
@@ -14107,7 +14239,7 @@
         <v>#N/A</v>
       </c>
       <c r="U168" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
     </row>
     <row r="169">
@@ -14172,7 +14304,7 @@
         <v>#N/A</v>
       </c>
       <c r="U169" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
     </row>
     <row r="170">
@@ -14237,7 +14369,7 @@
         <v>#N/A</v>
       </c>
       <c r="U170" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
     </row>
     <row r="171">
@@ -14302,7 +14434,7 @@
         <v>#N/A</v>
       </c>
       <c r="U171" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
     </row>
     <row r="172">
@@ -14367,7 +14499,7 @@
         <v>#N/A</v>
       </c>
       <c r="U172" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
     </row>
     <row r="173">
@@ -14432,7 +14564,7 @@
         <v>#N/A</v>
       </c>
       <c r="U173" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="174">
@@ -14497,7 +14629,7 @@
         <v>#N/A</v>
       </c>
       <c r="U174" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
     </row>
     <row r="175">
@@ -14562,7 +14694,7 @@
         <v>#N/A</v>
       </c>
       <c r="U175" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
     </row>
     <row r="176">
@@ -14627,7 +14759,7 @@
         <v>#N/A</v>
       </c>
       <c r="U176" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
     </row>
     <row r="177">
@@ -14692,7 +14824,7 @@
         <v>#N/A</v>
       </c>
       <c r="U177" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
     </row>
     <row r="178">
@@ -14757,7 +14889,7 @@
         <v>#N/A</v>
       </c>
       <c r="U178" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
     </row>
     <row r="179">
@@ -14822,7 +14954,7 @@
         <v>#N/A</v>
       </c>
       <c r="U179" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
     </row>
     <row r="180">
@@ -14887,7 +15019,7 @@
         <v>#N/A</v>
       </c>
       <c r="U180" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
     </row>
     <row r="181">
@@ -14952,7 +15084,7 @@
         <v>#N/A</v>
       </c>
       <c r="U181" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
     </row>
     <row r="182">
@@ -15017,7 +15149,7 @@
         <v>#N/A</v>
       </c>
       <c r="U182" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
     </row>
     <row r="183">
@@ -15082,7 +15214,7 @@
         <v>#N/A</v>
       </c>
       <c r="U183" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
     </row>
     <row r="184">
@@ -15147,7 +15279,7 @@
         <v>#N/A</v>
       </c>
       <c r="U184" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
     </row>
     <row r="185">
@@ -15212,7 +15344,7 @@
         <v>#N/A</v>
       </c>
       <c r="U185" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
     </row>
     <row r="186">
@@ -15277,7 +15409,7 @@
         <v>#N/A</v>
       </c>
       <c r="U186" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
     </row>
     <row r="187">
@@ -15342,7 +15474,7 @@
         <v>#N/A</v>
       </c>
       <c r="U187" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
     </row>
     <row r="188">
@@ -15407,7 +15539,7 @@
         <v>#N/A</v>
       </c>
       <c r="U188" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
     </row>
     <row r="189">
@@ -15472,7 +15604,7 @@
         <v>#N/A</v>
       </c>
       <c r="U189" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
     </row>
     <row r="190">
@@ -15537,7 +15669,7 @@
         <v>#N/A</v>
       </c>
       <c r="U190" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
     </row>
     <row r="191">
@@ -15602,7 +15734,7 @@
         <v>#N/A</v>
       </c>
       <c r="U191" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
     </row>
     <row r="192">
@@ -15667,7 +15799,7 @@
         <v>#N/A</v>
       </c>
       <c r="U192" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
     </row>
     <row r="193">
@@ -15732,7 +15864,7 @@
         <v>#N/A</v>
       </c>
       <c r="U193" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
     </row>
     <row r="194">
@@ -15797,7 +15929,7 @@
         <v>#N/A</v>
       </c>
       <c r="U194" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="195">
@@ -15862,7 +15994,7 @@
         <v>#N/A</v>
       </c>
       <c r="U195" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
     <row r="196">
@@ -15927,7 +16059,7 @@
         <v>#N/A</v>
       </c>
       <c r="U196" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="197">
@@ -15992,7 +16124,7 @@
         <v>#N/A</v>
       </c>
       <c r="U197" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
     </row>
     <row r="198">
@@ -16057,7 +16189,7 @@
         <v>#N/A</v>
       </c>
       <c r="U198" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
     </row>
     <row r="199">
@@ -16122,7 +16254,7 @@
         <v>#N/A</v>
       </c>
       <c r="U199" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
     </row>
     <row r="200">
@@ -16187,7 +16319,7 @@
         <v>#N/A</v>
       </c>
       <c r="U200" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="201">
@@ -16252,7 +16384,7 @@
         <v>#N/A</v>
       </c>
       <c r="U201" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
     </row>
     <row r="202">
@@ -16317,7 +16449,7 @@
         <v>#N/A</v>
       </c>
       <c r="U202" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
     </row>
     <row r="203">
@@ -16382,7 +16514,7 @@
         <v>#N/A</v>
       </c>
       <c r="U203" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
     </row>
     <row r="204">
@@ -16447,7 +16579,7 @@
         <v>#N/A</v>
       </c>
       <c r="U204" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="205">
@@ -16512,7 +16644,7 @@
         <v>#N/A</v>
       </c>
       <c r="U205" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="206">
@@ -16577,7 +16709,7 @@
         <v>#N/A</v>
       </c>
       <c r="U206" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="207">
@@ -16642,7 +16774,7 @@
         <v>#N/A</v>
       </c>
       <c r="U207" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="208">
@@ -16707,7 +16839,7 @@
         <v>#N/A</v>
       </c>
       <c r="U208" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
     </row>
     <row r="209">
@@ -16772,7 +16904,7 @@
         <v>#N/A</v>
       </c>
       <c r="U209" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="210">
@@ -16837,7 +16969,7 @@
         <v>#N/A</v>
       </c>
       <c r="U210" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
     </row>
     <row r="211">
@@ -16902,7 +17034,7 @@
         <v>#N/A</v>
       </c>
       <c r="U211" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
     </row>
     <row r="212">
@@ -16967,7 +17099,7 @@
         <v>#N/A</v>
       </c>
       <c r="U212" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="213">
@@ -17032,7 +17164,7 @@
         <v>#N/A</v>
       </c>
       <c r="U213" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="214">
@@ -17097,7 +17229,7 @@
         <v>#N/A</v>
       </c>
       <c r="U214" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="215">
@@ -17162,7 +17294,7 @@
         <v>#N/A</v>
       </c>
       <c r="U215" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
     </row>
     <row r="216">
@@ -17227,7 +17359,7 @@
         <v>#N/A</v>
       </c>
       <c r="U216" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="217">
@@ -17292,7 +17424,7 @@
         <v>#N/A</v>
       </c>
       <c r="U217" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
     </row>
     <row r="218">
@@ -17357,7 +17489,7 @@
         <v>#N/A</v>
       </c>
       <c r="U218" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
     </row>
     <row r="219">
@@ -17422,7 +17554,7 @@
         <v>#N/A</v>
       </c>
       <c r="U219" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
     </row>
     <row r="220">
@@ -17487,7 +17619,7 @@
         <v>#N/A</v>
       </c>
       <c r="U220" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
     </row>
     <row r="221">
@@ -17552,7 +17684,7 @@
         <v>#N/A</v>
       </c>
       <c r="U221" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
     </row>
     <row r="222">
@@ -17617,7 +17749,7 @@
         <v>#N/A</v>
       </c>
       <c r="U222" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
     </row>
     <row r="223">
@@ -17682,7 +17814,7 @@
         <v>#N/A</v>
       </c>
       <c r="U223" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
     </row>
     <row r="224">
@@ -17747,7 +17879,7 @@
         <v>#N/A</v>
       </c>
       <c r="U224" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="225">
@@ -17812,7 +17944,7 @@
         <v>#N/A</v>
       </c>
       <c r="U225" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="226">
@@ -17877,7 +18009,7 @@
         <v>#N/A</v>
       </c>
       <c r="U226" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="227">
@@ -17942,7 +18074,7 @@
         <v>#N/A</v>
       </c>
       <c r="U227" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
     </row>
     <row r="228">
@@ -18007,7 +18139,7 @@
         <v>#N/A</v>
       </c>
       <c r="U228" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="229">
@@ -18072,7 +18204,7 @@
         <v>#N/A</v>
       </c>
       <c r="U229" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="230">
@@ -18137,7 +18269,7 @@
         <v>#N/A</v>
       </c>
       <c r="U230" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
     </row>
     <row r="231">
@@ -18202,7 +18334,7 @@
         <v>#N/A</v>
       </c>
       <c r="U231" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
     </row>
     <row r="232">
@@ -18267,7 +18399,7 @@
         <v>#N/A</v>
       </c>
       <c r="U232" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
     </row>
     <row r="233">
@@ -18332,7 +18464,7 @@
         <v>#N/A</v>
       </c>
       <c r="U233" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
     </row>
     <row r="234">
@@ -18397,7 +18529,7 @@
         <v>#N/A</v>
       </c>
       <c r="U234" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
     </row>
     <row r="235">
@@ -18462,7 +18594,7 @@
         <v>#N/A</v>
       </c>
       <c r="U235" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
     </row>
     <row r="236">
@@ -18527,7 +18659,7 @@
         <v>#N/A</v>
       </c>
       <c r="U236" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
     </row>
     <row r="237">
@@ -18592,7 +18724,7 @@
         <v>#N/A</v>
       </c>
       <c r="U237" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
     </row>
     <row r="238">
@@ -18657,7 +18789,7 @@
         <v>#N/A</v>
       </c>
       <c r="U238" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
     </row>
     <row r="239">
@@ -18722,7 +18854,7 @@
         <v>#N/A</v>
       </c>
       <c r="U239" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
     </row>
     <row r="240">
@@ -18787,7 +18919,7 @@
         <v>#N/A</v>
       </c>
       <c r="U240" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
     </row>
     <row r="241">
@@ -18852,7 +18984,7 @@
         <v>#N/A</v>
       </c>
       <c r="U241" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
     </row>
     <row r="242">
@@ -18917,7 +19049,7 @@
         <v>#N/A</v>
       </c>
       <c r="U242" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
     </row>
     <row r="243">
@@ -18982,7 +19114,7 @@
         <v>#N/A</v>
       </c>
       <c r="U243" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
     </row>
     <row r="244">
@@ -19047,7 +19179,7 @@
         <v>#N/A</v>
       </c>
       <c r="U244" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
     </row>
     <row r="245">
@@ -19112,7 +19244,7 @@
         <v>#N/A</v>
       </c>
       <c r="U245" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
     </row>
     <row r="246">
@@ -19177,7 +19309,7 @@
         <v>#N/A</v>
       </c>
       <c r="U246" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
     </row>
     <row r="247">
@@ -19242,7 +19374,7 @@
         <v>#N/A</v>
       </c>
       <c r="U247" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
     </row>
     <row r="248">
@@ -19307,7 +19439,7 @@
         <v>#N/A</v>
       </c>
       <c r="U248" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
     </row>
     <row r="249">
@@ -19372,7 +19504,7 @@
         <v>#N/A</v>
       </c>
       <c r="U249" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
     </row>
     <row r="250">
@@ -19437,7 +19569,7 @@
         <v>#N/A</v>
       </c>
       <c r="U250" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
     </row>
     <row r="251">
@@ -19502,7 +19634,7 @@
         <v>#N/A</v>
       </c>
       <c r="U251" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
     </row>
     <row r="252">
@@ -19567,7 +19699,7 @@
         <v>#N/A</v>
       </c>
       <c r="U252" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
     </row>
     <row r="253">
@@ -19632,7 +19764,7 @@
         <v>#N/A</v>
       </c>
       <c r="U253" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
     </row>
     <row r="254">
@@ -19697,7 +19829,7 @@
         <v>#N/A</v>
       </c>
       <c r="U254" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
     </row>
     <row r="255">
@@ -19762,7 +19894,7 @@
         <v>#N/A</v>
       </c>
       <c r="U255" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
     </row>
     <row r="256">
@@ -19827,7 +19959,7 @@
         <v>#N/A</v>
       </c>
       <c r="U256" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
     </row>
     <row r="257">
@@ -19892,7 +20024,7 @@
         <v>#N/A</v>
       </c>
       <c r="U257" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
     </row>
     <row r="258">
@@ -19957,7 +20089,7 @@
         <v>#N/A</v>
       </c>
       <c r="U258" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
     </row>
     <row r="259">
@@ -20022,7 +20154,7 @@
         <v>#N/A</v>
       </c>
       <c r="U259" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
     </row>
     <row r="260">
@@ -20087,7 +20219,7 @@
         <v>#N/A</v>
       </c>
       <c r="U260" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
     </row>
     <row r="261">
@@ -20152,7 +20284,7 @@
         <v>#N/A</v>
       </c>
       <c r="U261" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
     </row>
     <row r="262">
@@ -20217,7 +20349,7 @@
         <v>#N/A</v>
       </c>
       <c r="U262" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
     </row>
     <row r="263">
@@ -20282,7 +20414,7 @@
         <v>#N/A</v>
       </c>
       <c r="U263" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
     </row>
     <row r="264">
@@ -20347,7 +20479,7 @@
         <v>#N/A</v>
       </c>
       <c r="U264" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
     </row>
     <row r="265">
@@ -20412,7 +20544,7 @@
         <v>#N/A</v>
       </c>
       <c r="U265" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
     </row>
     <row r="266">
@@ -20471,13 +20603,13 @@
         <v>627</v>
       </c>
       <c r="S266" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="T266" t="e">
         <v>#N/A</v>
       </c>
       <c r="U266" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
     </row>
     <row r="267">
@@ -20536,13 +20668,13 @@
         <v>630</v>
       </c>
       <c r="S267" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="T267" t="e">
         <v>#N/A</v>
       </c>
       <c r="U267" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
     </row>
     <row r="268">
@@ -20601,13 +20733,13 @@
         <v>626</v>
       </c>
       <c r="S268" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="T268" t="e">
         <v>#N/A</v>
       </c>
       <c r="U268" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
     </row>
     <row r="269">
@@ -20666,13 +20798,13 @@
         <v>621</v>
       </c>
       <c r="S269" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="T269" t="e">
         <v>#N/A</v>
       </c>
       <c r="U269" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
     </row>
     <row r="270">
@@ -20731,13 +20863,13 @@
         <v>640</v>
       </c>
       <c r="S270" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="T270" t="e">
         <v>#N/A</v>
       </c>
       <c r="U270" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
     </row>
     <row r="271">
@@ -20802,7 +20934,7 @@
         <v>#N/A</v>
       </c>
       <c r="U271" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
     </row>
     <row r="272">
@@ -20861,13 +20993,13 @@
         <v>638</v>
       </c>
       <c r="S272" t="s">
-        <v>641</v>
+        <v>666</v>
       </c>
       <c r="T272" t="e">
         <v>#N/A</v>
       </c>
       <c r="U272" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
     </row>
     <row r="273">
@@ -20919,20 +21051,20 @@
       <c r="P273" t="n">
         <v>0.7</v>
       </c>
-      <c r="Q273" t="e">
-        <v>#N/A</v>
+      <c r="Q273" t="n">
+        <v>18911.0</v>
       </c>
       <c r="R273" t="s">
         <v>632</v>
       </c>
       <c r="S273" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
       <c r="T273" t="e">
         <v>#N/A</v>
       </c>
       <c r="U273" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
     </row>
     <row r="274">
@@ -20991,13 +21123,13 @@
         <v>618</v>
       </c>
       <c r="S274" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="T274" t="e">
         <v>#N/A</v>
       </c>
       <c r="U274" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
     </row>
     <row r="275">
@@ -21056,13 +21188,13 @@
         <v>617</v>
       </c>
       <c r="S275" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="T275" t="e">
         <v>#N/A</v>
       </c>
       <c r="U275" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
     </row>
     <row r="276">
@@ -21121,13 +21253,13 @@
         <v>622</v>
       </c>
       <c r="S276" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="T276" t="e">
         <v>#N/A</v>
       </c>
       <c r="U276" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
     </row>
     <row r="277">
@@ -21186,13 +21318,13 @@
         <v>634</v>
       </c>
       <c r="S277" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T277" t="e">
         <v>#N/A</v>
       </c>
       <c r="U277" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
     </row>
     <row r="278">
@@ -21257,7 +21389,7 @@
         <v>#N/A</v>
       </c>
       <c r="U278" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
     </row>
     <row r="279">
@@ -21322,7 +21454,7 @@
         <v>#N/A</v>
       </c>
       <c r="U279" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
     </row>
     <row r="280">
@@ -21387,7 +21519,7 @@
         <v>#N/A</v>
       </c>
       <c r="U280" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
     </row>
     <row r="281">
@@ -21452,7 +21584,7 @@
         <v>#N/A</v>
       </c>
       <c r="U281" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
     </row>
     <row r="282">
@@ -21517,7 +21649,7 @@
         <v>#N/A</v>
       </c>
       <c r="U282" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
     </row>
     <row r="283">
@@ -21582,7 +21714,7 @@
         <v>#N/A</v>
       </c>
       <c r="U283" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
     </row>
     <row r="284">
@@ -21647,7 +21779,7 @@
         <v>#N/A</v>
       </c>
       <c r="U284" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
     </row>
     <row r="285">
@@ -21712,7 +21844,7 @@
         <v>#N/A</v>
       </c>
       <c r="U285" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
     </row>
     <row r="286">
@@ -21777,7 +21909,7 @@
         <v>#N/A</v>
       </c>
       <c r="U286" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
     </row>
     <row r="287">
@@ -21842,7 +21974,7 @@
         <v>#N/A</v>
       </c>
       <c r="U287" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
     </row>
     <row r="288">
@@ -21907,7 +22039,7 @@
         <v>#N/A</v>
       </c>
       <c r="U288" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
     </row>
     <row r="289">
@@ -21972,7 +22104,7 @@
         <v>#N/A</v>
       </c>
       <c r="U289" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
     </row>
     <row r="290">
@@ -22037,7 +22169,7 @@
         <v>#N/A</v>
       </c>
       <c r="U290" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
     </row>
     <row r="291">
@@ -22102,7 +22234,7 @@
         <v>#N/A</v>
       </c>
       <c r="U291" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
     </row>
     <row r="292">
@@ -22167,7 +22299,7 @@
         <v>#N/A</v>
       </c>
       <c r="U292" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
     </row>
     <row r="293">
@@ -22232,7 +22364,7 @@
         <v>#N/A</v>
       </c>
       <c r="U293" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
     </row>
     <row r="294">
@@ -22297,7 +22429,7 @@
         <v>#N/A</v>
       </c>
       <c r="U294" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
     </row>
     <row r="295">
@@ -22362,7 +22494,7 @@
         <v>#N/A</v>
       </c>
       <c r="U295" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
     </row>
     <row r="296">
@@ -22427,7 +22559,7 @@
         <v>#N/A</v>
       </c>
       <c r="U296" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
     </row>
     <row r="297">
@@ -22492,7 +22624,7 @@
         <v>#N/A</v>
       </c>
       <c r="U297" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
     </row>
     <row r="298">
@@ -22557,7 +22689,7 @@
         <v>#N/A</v>
       </c>
       <c r="U298" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
     </row>
     <row r="299">
@@ -22622,7 +22754,7 @@
         <v>#N/A</v>
       </c>
       <c r="U299" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
     </row>
     <row r="300">
@@ -22687,7 +22819,7 @@
         <v>#N/A</v>
       </c>
       <c r="U300" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="301">
@@ -22752,7 +22884,7 @@
         <v>#N/A</v>
       </c>
       <c r="U301" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
     </row>
     <row r="302">
@@ -22817,7 +22949,7 @@
         <v>#N/A</v>
       </c>
       <c r="U302" t="s">
-        <v>697</v>
+        <v>954</v>
       </c>
     </row>
     <row r="303">
@@ -22882,7 +23014,7 @@
         <v>#N/A</v>
       </c>
       <c r="U303" t="s">
-        <v>701</v>
+        <v>955</v>
       </c>
     </row>
     <row r="304">
@@ -22947,7 +23079,7 @@
         <v>#N/A</v>
       </c>
       <c r="U304" t="s">
-        <v>694</v>
+        <v>956</v>
       </c>
     </row>
     <row r="305">
@@ -23012,7 +23144,7 @@
         <v>#N/A</v>
       </c>
       <c r="U305" t="s">
-        <v>699</v>
+        <v>957</v>
       </c>
     </row>
     <row r="306">
@@ -23077,7 +23209,7 @@
         <v>#N/A</v>
       </c>
       <c r="U306" t="s">
-        <v>695</v>
+        <v>958</v>
       </c>
     </row>
     <row r="307">
@@ -23142,7 +23274,7 @@
         <v>#N/A</v>
       </c>
       <c r="U307" t="s">
-        <v>696</v>
+        <v>959</v>
       </c>
     </row>
     <row r="308">
@@ -23207,7 +23339,7 @@
         <v>#N/A</v>
       </c>
       <c r="U308" t="s">
-        <v>700</v>
+        <v>960</v>
       </c>
     </row>
     <row r="309">
@@ -23272,7 +23404,7 @@
         <v>#N/A</v>
       </c>
       <c r="U309" t="s">
-        <v>698</v>
+        <v>961</v>
       </c>
     </row>
     <row r="310">
@@ -23337,7 +23469,7 @@
         <v>#N/A</v>
       </c>
       <c r="U310" t="s">
-        <v>705</v>
+        <v>962</v>
       </c>
     </row>
     <row r="311">
@@ -23402,7 +23534,7 @@
         <v>#N/A</v>
       </c>
       <c r="U311" t="s">
-        <v>703</v>
+        <v>963</v>
       </c>
     </row>
     <row r="312">
@@ -23467,7 +23599,7 @@
         <v>#N/A</v>
       </c>
       <c r="U312" t="s">
-        <v>702</v>
+        <v>964</v>
       </c>
     </row>
     <row r="313">
@@ -23532,7 +23664,7 @@
         <v>#N/A</v>
       </c>
       <c r="U313" t="s">
-        <v>704</v>
+        <v>965</v>
       </c>
     </row>
     <row r="314">
@@ -23597,7 +23729,7 @@
         <v>#N/A</v>
       </c>
       <c r="U314" t="s">
-        <v>946</v>
+        <v>966</v>
       </c>
     </row>
     <row r="315">
@@ -23662,7 +23794,7 @@
         <v>#N/A</v>
       </c>
       <c r="U315" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
     </row>
     <row r="316">
@@ -23727,7 +23859,7 @@
         <v>#N/A</v>
       </c>
       <c r="U316" t="s">
-        <v>948</v>
+        <v>968</v>
       </c>
     </row>
     <row r="317">
@@ -23792,7 +23924,7 @@
         <v>#N/A</v>
       </c>
       <c r="U317" t="s">
-        <v>949</v>
+        <v>969</v>
       </c>
     </row>
     <row r="318">
@@ -23857,7 +23989,7 @@
         <v>#N/A</v>
       </c>
       <c r="U318" t="s">
-        <v>950</v>
+        <v>970</v>
       </c>
     </row>
     <row r="319">
@@ -23922,7 +24054,7 @@
         <v>#N/A</v>
       </c>
       <c r="U319" t="s">
-        <v>951</v>
+        <v>971</v>
       </c>
     </row>
     <row r="320">
@@ -23987,7 +24119,7 @@
         <v>#N/A</v>
       </c>
       <c r="U320" t="s">
-        <v>952</v>
+        <v>972</v>
       </c>
     </row>
     <row r="321">
@@ -24052,7 +24184,7 @@
         <v>#N/A</v>
       </c>
       <c r="U321" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
     </row>
     <row r="322">
@@ -24117,7 +24249,7 @@
         <v>#N/A</v>
       </c>
       <c r="U322" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
     </row>
     <row r="323">
@@ -24182,7 +24314,7 @@
         <v>#N/A</v>
       </c>
       <c r="U323" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
     </row>
     <row r="324">
@@ -24247,7 +24379,7 @@
         <v>#N/A</v>
       </c>
       <c r="U324" t="s">
-        <v>956</v>
+        <v>976</v>
       </c>
     </row>
     <row r="325">
@@ -24312,7 +24444,7 @@
         <v>#N/A</v>
       </c>
       <c r="U325" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
     </row>
     <row r="326">
@@ -24377,7 +24509,7 @@
         <v>#N/A</v>
       </c>
       <c r="U326" t="s">
-        <v>692</v>
+        <v>978</v>
       </c>
     </row>
     <row r="327">
@@ -24442,7 +24574,7 @@
         <v>#N/A</v>
       </c>
       <c r="U327" t="s">
-        <v>691</v>
+        <v>979</v>
       </c>
     </row>
     <row r="328">
@@ -24507,7 +24639,7 @@
         <v>#N/A</v>
       </c>
       <c r="U328" t="s">
-        <v>685</v>
+        <v>980</v>
       </c>
     </row>
     <row r="329">
@@ -24572,7 +24704,7 @@
         <v>#N/A</v>
       </c>
       <c r="U329" t="s">
-        <v>683</v>
+        <v>981</v>
       </c>
     </row>
     <row r="330">
@@ -24637,7 +24769,7 @@
         <v>#N/A</v>
       </c>
       <c r="U330" t="s">
-        <v>687</v>
+        <v>982</v>
       </c>
     </row>
     <row r="331">
@@ -24702,7 +24834,7 @@
         <v>#N/A</v>
       </c>
       <c r="U331" t="s">
-        <v>693</v>
+        <v>983</v>
       </c>
     </row>
     <row r="332">
@@ -24767,7 +24899,7 @@
         <v>#N/A</v>
       </c>
       <c r="U332" t="s">
-        <v>688</v>
+        <v>984</v>
       </c>
     </row>
     <row r="333">
@@ -24832,7 +24964,7 @@
         <v>#N/A</v>
       </c>
       <c r="U333" t="s">
-        <v>686</v>
+        <v>985</v>
       </c>
     </row>
     <row r="334">
@@ -24897,7 +25029,7 @@
         <v>#N/A</v>
       </c>
       <c r="U334" t="s">
-        <v>690</v>
+        <v>986</v>
       </c>
     </row>
     <row r="335">
@@ -24962,7 +25094,7 @@
         <v>#N/A</v>
       </c>
       <c r="U335" t="s">
-        <v>684</v>
+        <v>987</v>
       </c>
     </row>
     <row r="336">
@@ -25027,7 +25159,7 @@
         <v>#N/A</v>
       </c>
       <c r="U336" t="s">
-        <v>682</v>
+        <v>988</v>
       </c>
     </row>
     <row r="337">
@@ -25092,7 +25224,7 @@
         <v>#N/A</v>
       </c>
       <c r="U337" t="s">
-        <v>689</v>
+        <v>989</v>
       </c>
     </row>
     <row r="338">
@@ -25157,7 +25289,7 @@
         <v>#N/A</v>
       </c>
       <c r="U338" t="s">
-        <v>958</v>
+        <v>990</v>
       </c>
     </row>
     <row r="339">
@@ -25222,7 +25354,7 @@
         <v>#N/A</v>
       </c>
       <c r="U339" t="s">
-        <v>959</v>
+        <v>991</v>
       </c>
     </row>
     <row r="340">
@@ -25287,7 +25419,7 @@
         <v>#N/A</v>
       </c>
       <c r="U340" t="s">
-        <v>960</v>
+        <v>992</v>
       </c>
     </row>
     <row r="341">
@@ -25352,7 +25484,7 @@
         <v>#N/A</v>
       </c>
       <c r="U341" t="s">
-        <v>961</v>
+        <v>993</v>
       </c>
     </row>
     <row r="342">
@@ -25417,7 +25549,7 @@
         <v>#N/A</v>
       </c>
       <c r="U342" t="s">
-        <v>962</v>
+        <v>994</v>
       </c>
     </row>
     <row r="343">
@@ -25482,7 +25614,7 @@
         <v>#N/A</v>
       </c>
       <c r="U343" t="s">
-        <v>963</v>
+        <v>995</v>
       </c>
     </row>
     <row r="344">
@@ -25547,7 +25679,7 @@
         <v>#N/A</v>
       </c>
       <c r="U344" t="s">
-        <v>964</v>
+        <v>996</v>
       </c>
     </row>
     <row r="345">
@@ -25612,7 +25744,7 @@
         <v>#N/A</v>
       </c>
       <c r="U345" t="s">
-        <v>965</v>
+        <v>997</v>
       </c>
     </row>
     <row r="346">
@@ -25677,7 +25809,7 @@
         <v>#N/A</v>
       </c>
       <c r="U346" t="s">
-        <v>966</v>
+        <v>998</v>
       </c>
     </row>
     <row r="347">
@@ -25742,7 +25874,7 @@
         <v>#N/A</v>
       </c>
       <c r="U347" t="s">
-        <v>967</v>
+        <v>999</v>
       </c>
     </row>
     <row r="348">
@@ -25807,7 +25939,7 @@
         <v>#N/A</v>
       </c>
       <c r="U348" t="s">
-        <v>968</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="349">
@@ -25872,7 +26004,7 @@
         <v>#N/A</v>
       </c>
       <c r="U349" t="s">
-        <v>969</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="350">
@@ -25937,7 +26069,7 @@
         <v>#N/A</v>
       </c>
       <c r="U350" t="s">
-        <v>970</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="351">
@@ -26002,7 +26134,7 @@
         <v>#N/A</v>
       </c>
       <c r="U351" t="s">
-        <v>971</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="352">
@@ -26067,7 +26199,7 @@
         <v>#N/A</v>
       </c>
       <c r="U352" t="s">
-        <v>972</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="353">
@@ -26132,7 +26264,7 @@
         <v>#N/A</v>
       </c>
       <c r="U353" t="s">
-        <v>973</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="354">
@@ -26197,7 +26329,7 @@
         <v>#N/A</v>
       </c>
       <c r="U354" t="s">
-        <v>974</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="355">
@@ -26262,7 +26394,7 @@
         <v>#N/A</v>
       </c>
       <c r="U355" t="s">
-        <v>975</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="356">
@@ -26327,7 +26459,7 @@
         <v>#N/A</v>
       </c>
       <c r="U356" t="s">
-        <v>976</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="357">
@@ -26392,7 +26524,7 @@
         <v>#N/A</v>
       </c>
       <c r="U357" t="s">
-        <v>977</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="358">
@@ -26457,7 +26589,7 @@
         <v>#N/A</v>
       </c>
       <c r="U358" t="s">
-        <v>978</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="359">
@@ -26522,7 +26654,7 @@
         <v>#N/A</v>
       </c>
       <c r="U359" t="s">
-        <v>979</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="360">
@@ -26587,7 +26719,7 @@
         <v>#N/A</v>
       </c>
       <c r="U360" t="s">
-        <v>980</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="361">
@@ -26652,7 +26784,7 @@
         <v>#N/A</v>
       </c>
       <c r="U361" t="s">
-        <v>981</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="362">
@@ -26717,7 +26849,7 @@
         <v>#N/A</v>
       </c>
       <c r="U362" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
     </row>
     <row r="363">
@@ -26782,7 +26914,7 @@
         <v>#N/A</v>
       </c>
       <c r="U363" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
     </row>
     <row r="364">
@@ -26847,7 +26979,7 @@
         <v>#N/A</v>
       </c>
       <c r="U364" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
     </row>
     <row r="365">
@@ -26912,7 +27044,7 @@
         <v>#N/A</v>
       </c>
       <c r="U365" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="366">
@@ -26977,7 +27109,7 @@
         <v>#N/A</v>
       </c>
       <c r="U366" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="367">
@@ -27042,7 +27174,7 @@
         <v>#N/A</v>
       </c>
       <c r="U367" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
     </row>
     <row r="368">
@@ -27107,7 +27239,7 @@
         <v>#N/A</v>
       </c>
       <c r="U368" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
     </row>
     <row r="369">
@@ -27172,7 +27304,7 @@
         <v>#N/A</v>
       </c>
       <c r="U369" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
     </row>
     <row r="370">
@@ -27237,7 +27369,7 @@
         <v>#N/A</v>
       </c>
       <c r="U370" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
     </row>
     <row r="371">
@@ -27302,7 +27434,7 @@
         <v>#N/A</v>
       </c>
       <c r="U371" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="372">
@@ -27367,7 +27499,7 @@
         <v>#N/A</v>
       </c>
       <c r="U372" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="373">
@@ -27432,7 +27564,7 @@
         <v>#N/A</v>
       </c>
       <c r="U373" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="374">
@@ -27497,7 +27629,7 @@
         <v>#N/A</v>
       </c>
       <c r="U374" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
     </row>
     <row r="375">
@@ -27562,7 +27694,7 @@
         <v>#N/A</v>
       </c>
       <c r="U375" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="376">
@@ -27627,7 +27759,7 @@
         <v>#N/A</v>
       </c>
       <c r="U376" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="377">
@@ -27692,7 +27824,7 @@
         <v>#N/A</v>
       </c>
       <c r="U377" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
     </row>
     <row r="378">
@@ -27757,7 +27889,7 @@
         <v>#N/A</v>
       </c>
       <c r="U378" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="379">
@@ -27822,7 +27954,7 @@
         <v>#N/A</v>
       </c>
       <c r="U379" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
     </row>
     <row r="380">
@@ -27887,7 +28019,7 @@
         <v>#N/A</v>
       </c>
       <c r="U380" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
     </row>
     <row r="381">
@@ -27952,7 +28084,7 @@
         <v>#N/A</v>
       </c>
       <c r="U381" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="382">
@@ -28017,7 +28149,7 @@
         <v>#N/A</v>
       </c>
       <c r="U382" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
     </row>
     <row r="383">
@@ -28082,7 +28214,7 @@
         <v>#N/A</v>
       </c>
       <c r="U383" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
     </row>
     <row r="384">
@@ -28147,7 +28279,7 @@
         <v>#N/A</v>
       </c>
       <c r="U384" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="385">
@@ -28212,7 +28344,7 @@
         <v>#N/A</v>
       </c>
       <c r="U385" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
     </row>
     <row r="386">
@@ -28277,7 +28409,7 @@
         <v>#N/A</v>
       </c>
       <c r="U386" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
     </row>
     <row r="387">
@@ -28342,7 +28474,7 @@
         <v>#N/A</v>
       </c>
       <c r="U387" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
     </row>
     <row r="388">
@@ -28407,7 +28539,7 @@
         <v>#N/A</v>
       </c>
       <c r="U388" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
     </row>
     <row r="389">
@@ -28472,7 +28604,7 @@
         <v>#N/A</v>
       </c>
       <c r="U389" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
     </row>
     <row r="390">
@@ -28537,7 +28669,7 @@
         <v>#N/A</v>
       </c>
       <c r="U390" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
     </row>
     <row r="391">
@@ -28602,7 +28734,7 @@
         <v>#N/A</v>
       </c>
       <c r="U391" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
     </row>
     <row r="392">
@@ -28667,7 +28799,7 @@
         <v>#N/A</v>
       </c>
       <c r="U392" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
     </row>
     <row r="393">
@@ -28732,7 +28864,7 @@
         <v>#N/A</v>
       </c>
       <c r="U393" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
     </row>
     <row r="394">
@@ -28797,7 +28929,7 @@
         <v>#N/A</v>
       </c>
       <c r="U394" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
     <row r="395">
@@ -28862,7 +28994,7 @@
         <v>#N/A</v>
       </c>
       <c r="U395" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
     </row>
     <row r="396">
@@ -28927,7 +29059,7 @@
         <v>#N/A</v>
       </c>
       <c r="U396" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
     </row>
     <row r="397">
@@ -28992,7 +29124,7 @@
         <v>#N/A</v>
       </c>
       <c r="U397" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="398">
@@ -29051,13 +29183,13 @@
         <v>628</v>
       </c>
       <c r="S398" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="T398" t="e">
         <v>#N/A</v>
       </c>
       <c r="U398" t="s">
-        <v>982</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="399">
@@ -29116,13 +29248,13 @@
         <v>624</v>
       </c>
       <c r="S399" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="T399" t="e">
         <v>#N/A</v>
       </c>
       <c r="U399" t="s">
-        <v>983</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="400">
@@ -29181,13 +29313,13 @@
         <v>636</v>
       </c>
       <c r="S400" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
       <c r="T400" t="e">
         <v>#N/A</v>
       </c>
       <c r="U400" t="s">
-        <v>984</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="401">
@@ -29246,13 +29378,13 @@
         <v>631</v>
       </c>
       <c r="S401" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="T401" t="e">
         <v>#N/A</v>
       </c>
       <c r="U401" t="s">
-        <v>985</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="402">
@@ -29311,13 +29443,13 @@
         <v>619</v>
       </c>
       <c r="S402" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="T402" t="e">
         <v>#N/A</v>
       </c>
       <c r="U402" t="s">
-        <v>986</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="403">
@@ -29376,13 +29508,13 @@
         <v>629</v>
       </c>
       <c r="S403" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="T403" t="e">
         <v>#N/A</v>
       </c>
       <c r="U403" t="s">
-        <v>987</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="404">
@@ -29447,7 +29579,7 @@
         <v>#N/A</v>
       </c>
       <c r="U404" t="s">
-        <v>988</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="405">
@@ -29506,13 +29638,13 @@
         <v>625</v>
       </c>
       <c r="S405" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="T405" t="e">
         <v>#N/A</v>
       </c>
       <c r="U405" t="s">
-        <v>989</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="406">
@@ -29577,7 +29709,7 @@
         <v>#N/A</v>
       </c>
       <c r="U406" t="s">
-        <v>990</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="407">
@@ -29636,13 +29768,13 @@
         <v>623</v>
       </c>
       <c r="S407" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="T407" t="e">
         <v>#N/A</v>
       </c>
       <c r="U407" t="s">
-        <v>991</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="408">
@@ -29701,13 +29833,13 @@
         <v>639</v>
       </c>
       <c r="S408" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="T408" t="e">
         <v>#N/A</v>
       </c>
       <c r="U408" t="s">
-        <v>992</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="409">
@@ -29766,13 +29898,13 @@
         <v>635</v>
       </c>
       <c r="S409" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="T409" t="e">
         <v>#N/A</v>
       </c>
       <c r="U409" t="s">
-        <v>993</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="410">
@@ -29837,7 +29969,7 @@
         <v>#N/A</v>
       </c>
       <c r="U410" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
     </row>
     <row r="411">
@@ -29902,7 +30034,7 @@
         <v>#N/A</v>
       </c>
       <c r="U411" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
     </row>
     <row r="412">
@@ -29967,7 +30099,7 @@
         <v>#N/A</v>
       </c>
       <c r="U412" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
     </row>
     <row r="413">
@@ -30032,7 +30164,7 @@
         <v>#N/A</v>
       </c>
       <c r="U413" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="414">
@@ -30097,7 +30229,7 @@
         <v>#N/A</v>
       </c>
       <c r="U414" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
     </row>
     <row r="415">
@@ -30162,7 +30294,7 @@
         <v>#N/A</v>
       </c>
       <c r="U415" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
     </row>
     <row r="416">
@@ -30227,7 +30359,7 @@
         <v>#N/A</v>
       </c>
       <c r="U416" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
     </row>
     <row r="417">
@@ -30292,7 +30424,7 @@
         <v>#N/A</v>
       </c>
       <c r="U417" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
     </row>
     <row r="418">
@@ -30357,7 +30489,7 @@
         <v>#N/A</v>
       </c>
       <c r="U418" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
     </row>
     <row r="419">
@@ -30422,7 +30554,7 @@
         <v>#N/A</v>
       </c>
       <c r="U419" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
     </row>
     <row r="420">
@@ -30487,7 +30619,7 @@
         <v>#N/A</v>
       </c>
       <c r="U420" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
     </row>
     <row r="421">
@@ -30552,7 +30684,7 @@
         <v>#N/A</v>
       </c>
       <c r="U421" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
     </row>
     <row r="422">
@@ -30617,7 +30749,7 @@
         <v>#N/A</v>
       </c>
       <c r="U422" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
     </row>
     <row r="423">
@@ -30682,7 +30814,7 @@
         <v>#N/A</v>
       </c>
       <c r="U423" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="424">
@@ -30747,7 +30879,7 @@
         <v>#N/A</v>
       </c>
       <c r="U424" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
     </row>
     <row r="425">
@@ -30812,7 +30944,7 @@
         <v>#N/A</v>
       </c>
       <c r="U425" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
     </row>
     <row r="426">
@@ -30877,7 +31009,7 @@
         <v>#N/A</v>
       </c>
       <c r="U426" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
     </row>
     <row r="427">
@@ -30942,7 +31074,7 @@
         <v>#N/A</v>
       </c>
       <c r="U427" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
     </row>
     <row r="428">
@@ -31007,7 +31139,7 @@
         <v>#N/A</v>
       </c>
       <c r="U428" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
     </row>
     <row r="429">
@@ -31072,7 +31204,7 @@
         <v>#N/A</v>
       </c>
       <c r="U429" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
     </row>
     <row r="430">
@@ -31137,7 +31269,7 @@
         <v>#N/A</v>
       </c>
       <c r="U430" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
     </row>
     <row r="431">
@@ -31202,7 +31334,7 @@
         <v>#N/A</v>
       </c>
       <c r="U431" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
     </row>
     <row r="432">
@@ -31267,7 +31399,7 @@
         <v>#N/A</v>
       </c>
       <c r="U432" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="433">
@@ -31332,7 +31464,7 @@
         <v>#N/A</v>
       </c>
       <c r="U433" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
     </row>
     <row r="434">
@@ -31397,7 +31529,7 @@
         <v>#N/A</v>
       </c>
       <c r="U434" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
     </row>
     <row r="435">
@@ -31462,7 +31594,7 @@
         <v>#N/A</v>
       </c>
       <c r="U435" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
     </row>
     <row r="436">
@@ -31527,7 +31659,7 @@
         <v>#N/A</v>
       </c>
       <c r="U436" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
     </row>
     <row r="437">
@@ -31592,7 +31724,7 @@
         <v>#N/A</v>
       </c>
       <c r="U437" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
     </row>
     <row r="438">
@@ -31657,7 +31789,7 @@
         <v>#N/A</v>
       </c>
       <c r="U438" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
     </row>
     <row r="439">
@@ -31722,7 +31854,7 @@
         <v>#N/A</v>
       </c>
       <c r="U439" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="440">
@@ -31787,7 +31919,7 @@
         <v>#N/A</v>
       </c>
       <c r="U440" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
     </row>
     <row r="441">
@@ -31852,7 +31984,7 @@
         <v>#N/A</v>
       </c>
       <c r="U441" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
     </row>
     <row r="442">
@@ -31917,7 +32049,7 @@
         <v>#N/A</v>
       </c>
       <c r="U442" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
     </row>
     <row r="443">
@@ -31982,7 +32114,7 @@
         <v>#N/A</v>
       </c>
       <c r="U443" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
     </row>
     <row r="444">
@@ -32047,7 +32179,7 @@
         <v>#N/A</v>
       </c>
       <c r="U444" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
     </row>
     <row r="445">
@@ -32112,7 +32244,7 @@
         <v>#N/A</v>
       </c>
       <c r="U445" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
     </row>
     <row r="446">
@@ -32177,7 +32309,7 @@
         <v>#N/A</v>
       </c>
       <c r="U446" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
     </row>
     <row r="447">
@@ -32242,7 +32374,7 @@
         <v>#N/A</v>
       </c>
       <c r="U447" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
     </row>
     <row r="448">
@@ -32307,7 +32439,7 @@
         <v>#N/A</v>
       </c>
       <c r="U448" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
     </row>
     <row r="449">
@@ -32372,7 +32504,7 @@
         <v>#N/A</v>
       </c>
       <c r="U449" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
     </row>
     <row r="450">
@@ -32437,7 +32569,7 @@
         <v>#N/A</v>
       </c>
       <c r="U450" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
     </row>
     <row r="451">
@@ -32502,7 +32634,7 @@
         <v>#N/A</v>
       </c>
       <c r="U451" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
     </row>
     <row r="452">
@@ -32567,7 +32699,7 @@
         <v>#N/A</v>
       </c>
       <c r="U452" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
     </row>
     <row r="453">
@@ -32632,7 +32764,7 @@
         <v>#N/A</v>
       </c>
       <c r="U453" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
     </row>
     <row r="454">
@@ -32697,7 +32829,7 @@
         <v>#N/A</v>
       </c>
       <c r="U454" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
     </row>
     <row r="455">
@@ -32762,7 +32894,7 @@
         <v>#N/A</v>
       </c>
       <c r="U455" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
     </row>
     <row r="456">
@@ -32827,7 +32959,7 @@
         <v>#N/A</v>
       </c>
       <c r="U456" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
     </row>
     <row r="457">
@@ -32892,7 +33024,7 @@
         <v>#N/A</v>
       </c>
       <c r="U457" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="458">
@@ -32957,7 +33089,7 @@
         <v>#N/A</v>
       </c>
       <c r="U458" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
     </row>
     <row r="459">
@@ -33022,7 +33154,7 @@
         <v>#N/A</v>
       </c>
       <c r="U459" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
     </row>
     <row r="460">
@@ -33087,7 +33219,7 @@
         <v>#N/A</v>
       </c>
       <c r="U460" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
     </row>
     <row r="461">
@@ -33152,7 +33284,7 @@
         <v>#N/A</v>
       </c>
       <c r="U461" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
     </row>
     <row r="462">
@@ -33217,7 +33349,7 @@
         <v>#N/A</v>
       </c>
       <c r="U462" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
     </row>
     <row r="463">
@@ -33282,7 +33414,7 @@
         <v>#N/A</v>
       </c>
       <c r="U463" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
     </row>
     <row r="464">
@@ -33347,7 +33479,7 @@
         <v>#N/A</v>
       </c>
       <c r="U464" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
     </row>
     <row r="465">
@@ -33412,7 +33544,7 @@
         <v>#N/A</v>
       </c>
       <c r="U465" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
     </row>
     <row r="466">
@@ -33477,7 +33609,7 @@
         <v>#N/A</v>
       </c>
       <c r="U466" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
     </row>
     <row r="467">
@@ -33542,7 +33674,7 @@
         <v>#N/A</v>
       </c>
       <c r="U467" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
     </row>
     <row r="468">
@@ -33607,7 +33739,7 @@
         <v>#N/A</v>
       </c>
       <c r="U468" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
     </row>
     <row r="469">
@@ -33672,7 +33804,7 @@
         <v>#N/A</v>
       </c>
       <c r="U469" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
     </row>
     <row r="470">
@@ -33737,7 +33869,7 @@
         <v>#N/A</v>
       </c>
       <c r="U470" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
     </row>
     <row r="471">
@@ -33802,7 +33934,7 @@
         <v>#N/A</v>
       </c>
       <c r="U471" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="472">
@@ -33867,7 +33999,7 @@
         <v>#N/A</v>
       </c>
       <c r="U472" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="473">
@@ -33932,7 +34064,7 @@
         <v>#N/A</v>
       </c>
       <c r="U473" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="474">
@@ -33997,7 +34129,7 @@
         <v>#N/A</v>
       </c>
       <c r="U474" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="475">
@@ -34062,7 +34194,7 @@
         <v>#N/A</v>
       </c>
       <c r="U475" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="476">
@@ -34127,7 +34259,7 @@
         <v>#N/A</v>
       </c>
       <c r="U476" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
     </row>
     <row r="477">
@@ -34192,7 +34324,7 @@
         <v>#N/A</v>
       </c>
       <c r="U477" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="478">
@@ -34257,7 +34389,7 @@
         <v>#N/A</v>
       </c>
       <c r="U478" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
     </row>
     <row r="479">
@@ -34322,7 +34454,7 @@
         <v>#N/A</v>
       </c>
       <c r="U479" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
     </row>
     <row r="480">
@@ -34387,7 +34519,7 @@
         <v>#N/A</v>
       </c>
       <c r="U480" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="481">
@@ -34452,7 +34584,7 @@
         <v>#N/A</v>
       </c>
       <c r="U481" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
     <row r="482">
@@ -34517,7 +34649,7 @@
         <v>#N/A</v>
       </c>
       <c r="U482" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="483">
@@ -34582,7 +34714,7 @@
         <v>#N/A</v>
       </c>
       <c r="U483" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="484">
@@ -34647,7 +34779,7 @@
         <v>#N/A</v>
       </c>
       <c r="U484" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
     </row>
     <row r="485">
@@ -34712,7 +34844,7 @@
         <v>#N/A</v>
       </c>
       <c r="U485" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="486">
@@ -34777,7 +34909,7 @@
         <v>#N/A</v>
       </c>
       <c r="U486" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="487">
@@ -34842,7 +34974,7 @@
         <v>#N/A</v>
       </c>
       <c r="U487" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
     </row>
     <row r="488">
@@ -34907,7 +35039,7 @@
         <v>#N/A</v>
       </c>
       <c r="U488" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="489">
@@ -34972,7 +35104,7 @@
         <v>#N/A</v>
       </c>
       <c r="U489" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="490">
@@ -35037,7 +35169,7 @@
         <v>#N/A</v>
       </c>
       <c r="U490" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
     </row>
     <row r="491">
@@ -35102,7 +35234,7 @@
         <v>#N/A</v>
       </c>
       <c r="U491" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
     </row>
     <row r="492">
@@ -35167,7 +35299,7 @@
         <v>#N/A</v>
       </c>
       <c r="U492" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="493">
@@ -35232,7 +35364,7 @@
         <v>#N/A</v>
       </c>
       <c r="U493" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="494">
@@ -35291,13 +35423,13 @@
         <v>621</v>
       </c>
       <c r="S494" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="T494" t="e">
         <v>#N/A</v>
       </c>
       <c r="U494" t="s">
-        <v>994</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="495">
@@ -35349,20 +35481,20 @@
       <c r="P495" t="n">
         <v>0.6</v>
       </c>
-      <c r="Q495" t="e">
-        <v>#N/A</v>
+      <c r="Q495" t="n">
+        <v>36405.0</v>
       </c>
       <c r="R495" t="s">
         <v>625</v>
       </c>
       <c r="S495" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T495" t="e">
         <v>#N/A</v>
       </c>
       <c r="U495" t="s">
-        <v>995</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="496">
@@ -35421,13 +35553,13 @@
         <v>623</v>
       </c>
       <c r="S496" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="T496" t="e">
         <v>#N/A</v>
       </c>
       <c r="U496" t="s">
-        <v>996</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="497">
@@ -35492,7 +35624,7 @@
         <v>#N/A</v>
       </c>
       <c r="U497" t="s">
-        <v>997</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="498">
@@ -35551,13 +35683,13 @@
         <v>634</v>
       </c>
       <c r="S498" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="T498" t="e">
         <v>#N/A</v>
       </c>
       <c r="U498" t="s">
-        <v>998</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="499">
@@ -35622,7 +35754,7 @@
         <v>#N/A</v>
       </c>
       <c r="U499" t="s">
-        <v>999</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="500">
@@ -35687,7 +35819,7 @@
         <v>#N/A</v>
       </c>
       <c r="U500" t="s">
-        <v>1000</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="501">
@@ -35746,13 +35878,13 @@
         <v>632</v>
       </c>
       <c r="S501" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="T501" t="e">
         <v>#N/A</v>
       </c>
       <c r="U501" t="s">
-        <v>1001</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="502">
@@ -35804,20 +35936,20 @@
       <c r="P502" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q502" t="e">
-        <v>#N/A</v>
+      <c r="Q502" t="n">
+        <v>16967.0</v>
       </c>
       <c r="R502" t="s">
         <v>637</v>
       </c>
       <c r="S502" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="T502" t="e">
         <v>#N/A</v>
       </c>
       <c r="U502" t="s">
-        <v>1002</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="503">
@@ -35869,20 +36001,20 @@
       <c r="P503" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q503" t="e">
-        <v>#N/A</v>
+      <c r="Q503" t="n">
+        <v>25116.0</v>
       </c>
       <c r="R503" t="s">
         <v>620</v>
       </c>
       <c r="S503" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="T503" t="e">
         <v>#N/A</v>
       </c>
       <c r="U503" t="s">
-        <v>1003</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="504">
@@ -35941,13 +36073,13 @@
         <v>617</v>
       </c>
       <c r="S504" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="T504" t="e">
         <v>#N/A</v>
       </c>
       <c r="U504" t="s">
-        <v>1004</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="505">
@@ -36006,13 +36138,13 @@
         <v>629</v>
       </c>
       <c r="S505" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="T505" t="e">
         <v>#N/A</v>
       </c>
       <c r="U505" t="s">
-        <v>1005</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="506">
@@ -36062,7 +36194,7 @@
         <v>3.0</v>
       </c>
       <c r="P506" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Q506" t="n">
         <v>23366.0</v>
@@ -36071,13 +36203,13 @@
         <v>622</v>
       </c>
       <c r="S506" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="T506" t="e">
         <v>#N/A</v>
       </c>
       <c r="U506" t="s">
-        <v>1006</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="507">
@@ -36129,20 +36261,20 @@
       <c r="P507" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q507" t="e">
-        <v>#N/A</v>
+      <c r="Q507" t="n">
+        <v>42781.0</v>
       </c>
       <c r="R507" t="s">
         <v>638</v>
       </c>
       <c r="S507" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="T507" t="e">
         <v>#N/A</v>
       </c>
       <c r="U507" t="s">
-        <v>1007</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="508">
@@ -36207,7 +36339,7 @@
         <v>#N/A</v>
       </c>
       <c r="U508" t="s">
-        <v>1008</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="509">
@@ -36266,13 +36398,13 @@
         <v>626</v>
       </c>
       <c r="S509" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="T509" t="e">
         <v>#N/A</v>
       </c>
       <c r="U509" t="s">
-        <v>1009</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="510">
@@ -36331,13 +36463,13 @@
         <v>630</v>
       </c>
       <c r="S510" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="T510" t="e">
         <v>#N/A</v>
       </c>
       <c r="U510" t="s">
-        <v>1010</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="511">
@@ -36396,13 +36528,13 @@
         <v>628</v>
       </c>
       <c r="S511" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="T511" t="e">
         <v>#N/A</v>
       </c>
       <c r="U511" t="s">
-        <v>1011</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="512">
@@ -36461,13 +36593,13 @@
         <v>624</v>
       </c>
       <c r="S512" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="T512" t="e">
         <v>#N/A</v>
       </c>
       <c r="U512" t="s">
-        <v>1012</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="513">
@@ -36526,13 +36658,13 @@
         <v>635</v>
       </c>
       <c r="S513" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="T513" t="e">
         <v>#N/A</v>
       </c>
       <c r="U513" t="s">
-        <v>1013</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="514">
@@ -36591,13 +36723,13 @@
         <v>631</v>
       </c>
       <c r="S514" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="T514" t="e">
         <v>#N/A</v>
       </c>
       <c r="U514" t="s">
-        <v>1014</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="515">
@@ -36656,13 +36788,13 @@
         <v>636</v>
       </c>
       <c r="S515" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="T515" t="e">
         <v>#N/A</v>
       </c>
       <c r="U515" t="s">
-        <v>1015</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="516">
@@ -36714,20 +36846,20 @@
       <c r="P516" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q516" t="e">
-        <v>#N/A</v>
+      <c r="Q516" t="n">
+        <v>25754.0</v>
       </c>
       <c r="R516" t="s">
         <v>633</v>
       </c>
       <c r="S516" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="T516" t="e">
         <v>#N/A</v>
       </c>
       <c r="U516" t="s">
-        <v>1016</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="517">
@@ -36792,7 +36924,7 @@
         <v>#N/A</v>
       </c>
       <c r="U517" t="s">
-        <v>1017</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="518">
@@ -36851,13 +36983,13 @@
         <v>637</v>
       </c>
       <c r="S518" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="T518" t="e">
         <v>#N/A</v>
       </c>
       <c r="U518" t="s">
-        <v>1018</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="519">
@@ -36922,7 +37054,7 @@
         <v>#N/A</v>
       </c>
       <c r="U519" t="s">
-        <v>1019</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="520">
@@ -36981,13 +37113,13 @@
         <v>617</v>
       </c>
       <c r="S520" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="T520" t="e">
         <v>#N/A</v>
       </c>
       <c r="U520" t="s">
-        <v>1020</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="521">
@@ -37046,13 +37178,13 @@
         <v>627</v>
       </c>
       <c r="S521" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="T521" t="e">
         <v>#N/A</v>
       </c>
       <c r="U521" t="s">
-        <v>1021</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="522">
@@ -37111,13 +37243,13 @@
         <v>620</v>
       </c>
       <c r="S522" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="T522" t="e">
         <v>#N/A</v>
       </c>
       <c r="U522" t="s">
-        <v>1022</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="523">
@@ -37176,13 +37308,13 @@
         <v>632</v>
       </c>
       <c r="S523" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="T523" t="e">
         <v>#N/A</v>
       </c>
       <c r="U523" t="s">
-        <v>1023</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="524">
@@ -37241,13 +37373,13 @@
         <v>625</v>
       </c>
       <c r="S524" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="T524" t="e">
         <v>#N/A</v>
       </c>
       <c r="U524" t="s">
-        <v>1024</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="525">
@@ -37306,13 +37438,13 @@
         <v>623</v>
       </c>
       <c r="S525" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="T525" t="e">
         <v>#N/A</v>
       </c>
       <c r="U525" t="s">
-        <v>1025</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="526">
@@ -37371,13 +37503,13 @@
         <v>621</v>
       </c>
       <c r="S526" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="T526" t="e">
         <v>#N/A</v>
       </c>
       <c r="U526" t="s">
-        <v>1026</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="527">
@@ -37436,13 +37568,13 @@
         <v>619</v>
       </c>
       <c r="S527" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="T527" t="e">
         <v>#N/A</v>
       </c>
       <c r="U527" t="s">
-        <v>1027</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="528">
@@ -37507,7 +37639,7 @@
         <v>#N/A</v>
       </c>
       <c r="U528" t="s">
-        <v>1028</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="529">
@@ -37566,13 +37698,13 @@
         <v>634</v>
       </c>
       <c r="S529" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="T529" t="e">
         <v>#N/A</v>
       </c>
       <c r="U529" t="s">
-        <v>1029</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="530">
@@ -37631,13 +37763,13 @@
         <v>631</v>
       </c>
       <c r="S530" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="T530" t="e">
         <v>#N/A</v>
       </c>
       <c r="U530" t="s">
-        <v>1030</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="531">
@@ -37696,13 +37828,13 @@
         <v>636</v>
       </c>
       <c r="S531" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="T531" t="e">
         <v>#N/A</v>
       </c>
       <c r="U531" t="s">
-        <v>1031</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="532">
@@ -37767,7 +37899,7 @@
         <v>#N/A</v>
       </c>
       <c r="U532" t="s">
-        <v>1032</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="533">
@@ -37826,13 +37958,13 @@
         <v>626</v>
       </c>
       <c r="S533" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="T533" t="e">
         <v>#N/A</v>
       </c>
       <c r="U533" t="s">
-        <v>1033</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="534">
@@ -37891,13 +38023,13 @@
         <v>640</v>
       </c>
       <c r="S534" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="T534" t="e">
         <v>#N/A</v>
       </c>
       <c r="U534" t="s">
-        <v>1034</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="535">
@@ -37956,13 +38088,13 @@
         <v>624</v>
       </c>
       <c r="S535" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="T535" t="e">
         <v>#N/A</v>
       </c>
       <c r="U535" t="s">
-        <v>1035</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="536">
@@ -38021,13 +38153,13 @@
         <v>628</v>
       </c>
       <c r="S536" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T536" t="e">
         <v>#N/A</v>
       </c>
       <c r="U536" t="s">
-        <v>1036</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="537">
@@ -38086,13 +38218,13 @@
         <v>633</v>
       </c>
       <c r="S537" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="T537" t="e">
         <v>#N/A</v>
       </c>
       <c r="U537" t="s">
-        <v>1037</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="538">
@@ -38151,13 +38283,13 @@
         <v>622</v>
       </c>
       <c r="S538" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="T538" t="e">
         <v>#N/A</v>
       </c>
       <c r="U538" t="s">
-        <v>1038</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="539">
@@ -38216,13 +38348,13 @@
         <v>618</v>
       </c>
       <c r="S539" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="T539" t="e">
         <v>#N/A</v>
       </c>
       <c r="U539" t="s">
-        <v>1039</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="540">
@@ -38281,13 +38413,13 @@
         <v>635</v>
       </c>
       <c r="S540" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="T540" t="e">
         <v>#N/A</v>
       </c>
       <c r="U540" t="s">
-        <v>1040</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="541">
@@ -38352,7 +38484,7 @@
         <v>#N/A</v>
       </c>
       <c r="U541" t="s">
-        <v>1041</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="542">
@@ -38389,35 +38521,35 @@
       <c r="K542" t="s">
         <v>614</v>
       </c>
-      <c r="L542" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M542" t="e">
-        <v>#N/A</v>
+      <c r="L542" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M542" t="n">
+        <v>1.6</v>
       </c>
       <c r="N542" t="s">
         <v>601</v>
       </c>
-      <c r="O542" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P542" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q542" t="e">
-        <v>#N/A</v>
+      <c r="O542" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P542" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q542" t="n">
+        <v>41769.0</v>
       </c>
       <c r="R542" t="s">
         <v>638</v>
       </c>
       <c r="S542" t="s">
-        <v>641</v>
+        <v>677</v>
       </c>
       <c r="T542" t="e">
         <v>#N/A</v>
       </c>
       <c r="U542" t="s">
-        <v>949</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="543">
@@ -38454,35 +38586,35 @@
       <c r="K543" t="s">
         <v>612</v>
       </c>
-      <c r="L543" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M543" t="e">
-        <v>#N/A</v>
+      <c r="L543" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M543" t="n">
+        <v>0.5</v>
       </c>
       <c r="N543" t="s">
         <v>594</v>
       </c>
-      <c r="O543" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P543" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q543" t="e">
-        <v>#N/A</v>
+      <c r="O543" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P543" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>20816.0</v>
       </c>
       <c r="R543" t="s">
         <v>636</v>
       </c>
       <c r="S543" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="T543" t="e">
         <v>#N/A</v>
       </c>
       <c r="U543" t="s">
-        <v>950</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="544">
@@ -38519,35 +38651,35 @@
       <c r="K544" t="s">
         <v>605</v>
       </c>
-      <c r="L544" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M544" t="e">
-        <v>#N/A</v>
+      <c r="L544" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M544" t="n">
+        <v>1.7</v>
       </c>
       <c r="N544" t="s">
         <v>595</v>
       </c>
-      <c r="O544" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P544" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q544" t="e">
-        <v>#N/A</v>
+      <c r="O544" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P544" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>20125.0</v>
       </c>
       <c r="R544" t="s">
         <v>629</v>
       </c>
       <c r="S544" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="T544" t="e">
         <v>#N/A</v>
       </c>
       <c r="U544" t="s">
-        <v>957</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="545">
@@ -38584,35 +38716,35 @@
       <c r="K545" t="s">
         <v>616</v>
       </c>
-      <c r="L545" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M545" t="e">
-        <v>#N/A</v>
+      <c r="L545" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M545" t="n">
+        <v>3.8</v>
       </c>
       <c r="N545" t="s">
         <v>597</v>
       </c>
-      <c r="O545" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P545" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q545" t="e">
-        <v>#N/A</v>
+      <c r="O545" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P545" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>26326.0</v>
       </c>
       <c r="R545" t="s">
         <v>640</v>
       </c>
       <c r="S545" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="T545" t="e">
         <v>#N/A</v>
       </c>
       <c r="U545" t="s">
-        <v>946</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="546">
@@ -38649,35 +38781,35 @@
       <c r="K546" t="s">
         <v>613</v>
       </c>
-      <c r="L546" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M546" t="e">
-        <v>#N/A</v>
+      <c r="L546" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M546" t="n">
+        <v>1.5</v>
       </c>
       <c r="N546" t="s">
         <v>593</v>
       </c>
-      <c r="O546" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P546" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q546" t="e">
-        <v>#N/A</v>
+      <c r="O546" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P546" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>16635.0</v>
       </c>
       <c r="R546" t="s">
         <v>637</v>
       </c>
       <c r="S546" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="T546" t="e">
         <v>#N/A</v>
       </c>
       <c r="U546" t="s">
-        <v>952</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="547">
@@ -38714,35 +38846,35 @@
       <c r="K547" t="s">
         <v>611</v>
       </c>
-      <c r="L547" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M547" t="e">
-        <v>#N/A</v>
+      <c r="L547" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M547" t="n">
+        <v>1.4</v>
       </c>
       <c r="N547" t="s">
         <v>604</v>
       </c>
-      <c r="O547" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P547" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q547" t="e">
-        <v>#N/A</v>
+      <c r="O547" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P547" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>27925.0</v>
       </c>
       <c r="R547" t="s">
         <v>635</v>
       </c>
       <c r="S547" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
       <c r="T547" t="e">
         <v>#N/A</v>
       </c>
       <c r="U547" t="s">
-        <v>954</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="548">
@@ -38779,35 +38911,35 @@
       <c r="K548" t="s">
         <v>610</v>
       </c>
-      <c r="L548" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M548" t="e">
-        <v>#N/A</v>
+      <c r="L548" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M548" t="n">
+        <v>2.0</v>
       </c>
       <c r="N548" t="s">
         <v>598</v>
       </c>
-      <c r="O548" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P548" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q548" t="e">
-        <v>#N/A</v>
+      <c r="O548" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P548" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>14546.0</v>
       </c>
       <c r="R548" t="s">
         <v>634</v>
       </c>
       <c r="S548" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="T548" t="e">
         <v>#N/A</v>
       </c>
       <c r="U548" t="s">
-        <v>955</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="549">
@@ -38844,35 +38976,35 @@
       <c r="K549" t="s">
         <v>609</v>
       </c>
-      <c r="L549" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M549" t="e">
-        <v>#N/A</v>
+      <c r="L549" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M549" t="n">
+        <v>0.7</v>
       </c>
       <c r="N549" t="s">
         <v>599</v>
       </c>
-      <c r="O549" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P549" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q549" t="e">
-        <v>#N/A</v>
+      <c r="O549" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P549" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q549" t="n">
+        <v>24158.0</v>
       </c>
       <c r="R549" t="s">
         <v>633</v>
       </c>
       <c r="S549" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="T549" t="e">
         <v>#N/A</v>
       </c>
       <c r="U549" t="s">
-        <v>947</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="550">
@@ -38909,35 +39041,35 @@
       <c r="K550" t="s">
         <v>607</v>
       </c>
-      <c r="L550" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M550" t="e">
-        <v>#N/A</v>
+      <c r="L550" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M550" t="n">
+        <v>0.8</v>
       </c>
       <c r="N550" t="s">
         <v>603</v>
       </c>
-      <c r="O550" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P550" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q550" t="e">
-        <v>#N/A</v>
+      <c r="O550" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P550" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q550" t="n">
+        <v>28671.0</v>
       </c>
       <c r="R550" t="s">
         <v>631</v>
       </c>
       <c r="S550" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="T550" t="e">
         <v>#N/A</v>
       </c>
       <c r="U550" t="s">
-        <v>951</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="551">
@@ -38974,35 +39106,35 @@
       <c r="K551" t="s">
         <v>608</v>
       </c>
-      <c r="L551" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M551" t="e">
-        <v>#N/A</v>
+      <c r="L551" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M551" t="n">
+        <v>1.1</v>
       </c>
       <c r="N551" t="s">
         <v>596</v>
       </c>
-      <c r="O551" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P551" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q551" t="e">
-        <v>#N/A</v>
+      <c r="O551" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P551" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q551" t="n">
+        <v>20002.0</v>
       </c>
       <c r="R551" t="s">
         <v>632</v>
       </c>
       <c r="S551" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="T551" t="e">
         <v>#N/A</v>
       </c>
       <c r="U551" t="s">
-        <v>953</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="552">
@@ -39039,35 +39171,35 @@
       <c r="K552" t="s">
         <v>615</v>
       </c>
-      <c r="L552" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M552" t="e">
-        <v>#N/A</v>
+      <c r="L552" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M552" t="n">
+        <v>1.0</v>
       </c>
       <c r="N552" t="s">
         <v>602</v>
       </c>
-      <c r="O552" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P552" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q552" t="e">
-        <v>#N/A</v>
+      <c r="O552" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P552" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q552" t="n">
+        <v>29305.0</v>
       </c>
       <c r="R552" t="s">
         <v>639</v>
       </c>
       <c r="S552" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="T552" t="e">
         <v>#N/A</v>
       </c>
       <c r="U552" t="s">
-        <v>948</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="553">
@@ -39104,35 +39236,35 @@
       <c r="K553" t="s">
         <v>606</v>
       </c>
-      <c r="L553" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M553" t="e">
-        <v>#N/A</v>
+      <c r="L553" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M553" t="n">
+        <v>1.0</v>
       </c>
       <c r="N553" t="s">
         <v>600</v>
       </c>
-      <c r="O553" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P553" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q553" t="e">
-        <v>#N/A</v>
+      <c r="O553" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P553" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q553" t="n">
+        <v>22664.0</v>
       </c>
       <c r="R553" t="s">
         <v>630</v>
       </c>
       <c r="S553" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="T553" t="e">
         <v>#N/A</v>
       </c>
       <c r="U553" t="s">
-        <v>956</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>

--- a/e1_match_results.xlsx
+++ b/e1_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="1125">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -2003,6 +2003,18 @@
     <t>Andrew Davies</t>
   </si>
   <si>
+    <t>Tim Robinson</t>
+  </si>
+  <si>
+    <t>Darren England</t>
+  </si>
+  <si>
+    <t>Ben Toner</t>
+  </si>
+  <si>
+    <t>Thomas Bramall</t>
+  </si>
+  <si>
     <t>David Coote</t>
   </si>
   <si>
@@ -2030,9 +2042,6 @@
     <t>John Brooks</t>
   </si>
   <si>
-    <t>Ben Toner</t>
-  </si>
-  <si>
     <t>Andy Madley</t>
   </si>
   <si>
@@ -2045,9 +2054,6 @@
     <t>Thomas Kirk</t>
   </si>
   <si>
-    <t>Tim Robinson</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/matches/1ae41d3c/Blackburn-Rovers-Derby-County-August-9-2024-Championship</t>
   </si>
   <si>
@@ -2156,940 +2162,1051 @@
     <t>https://fbref.com/en/matches/8cef1a6f/Middlesbrough-Sheffield-United-October-23-2024-Championship</t>
   </si>
   <si>
+    <t>https://fbref.com/en/matches/ec79c9ed/Portsmouth-Sheffield-Wednesday-October-25-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/29734951/Bristol-City-Leeds-United-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2d3fb4b3/Coventry-City-Luton-Town-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cc9c1708/Watford-Blackburn-Rovers-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7ca6685d/West-Bromwich-Albion-Cardiff-City-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b2383efd/Swansea-City-Millwall-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b521d7f8/Sheffield-United-Stoke-City-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c59beda8/Burnley-Queens-Park-Rangers-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ce15e1fd/Plymouth-Argyle-Preston-North-End-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/da73045d/Sunderland-Oxford-United-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fdf11982/Derby-County-Hull-City-October-26-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b8078d8b/Norwich-City-Middlesbrough-October-27-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d6f7615c/Luton-Town-West-Bromwich-Albion-November-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/15e1a067/Oxford-United-Swansea-City-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6512ad6f/Stoke-City-Derby-County-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9ae712b2/Blackburn-Rovers-Sheffield-United-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/331e188b/Cardiff-City-Norwich-City-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5724c63e/Sheffield-Wednesday-Watford-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a50bc6db/Hull-City-Portsmouth-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a92a4e36/Preston-North-End-Bristol-City-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c46862e8/Leeds-United-Plymouth-Argyle-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d65f705a/Middlesbrough-Coventry-City-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed5ce326/Queens-Park-Rangers-Sunderland-November-2-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d3ddeada/Millwall-Burnley-November-3-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/29df15a5/Sheffield-Wednesday-Norwich-City-November-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a07d7a8e/Bristol-City-Sheffield-United-November-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eaf5cd97/Oxford-United-Hull-City-November-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fe832864/Queens-Park-Rangers-Middlesbrough-November-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/22eb30ed/Swansea-City-Watford-November-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/953c4971/Plymouth-Argyle-Portsmouth-November-5-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7d54dd3e/Coventry-City-Derby-County-November-6-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8b9a8fba/Millwall-Leeds-United-November-6-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/df8b3ccd/Blackburn-Rovers-Stoke-City-November-6-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/49939421/Luton-Town-Cardiff-City-November-6-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d71db0bd/Preston-North-End-Sunderland-November-6-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ad67dd64/West-Bromwich-Albion-Burnley-November-7-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/92f63f8c/Watford-Oxford-United-November-8-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/75fae011/Blackburn-Rovers-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/17892952/Millwall-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/7f59c601/Luton-Town-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/22df8478/Portsmouth-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/5bfb9659/Queens-Park-Rangers-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/26ab47ee/Plymouth-Argyle-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/1c781004/Bristol-City-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/8ef52968/Coventry-City-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/1df6b87e/Sheffield-Wednesday-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/60c6b05f/Hull-City-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/943e8050/Swansea-City-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/2abfe087/Plymouth-Argyle-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/1df6b87e/Coventry-City-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/75fae011/Sheffield-Wednesday-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/93493607/Burnley-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/bd8769d1/Luton-Town-vs-Hull-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/76ffc013/Blackburn-Rovers-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/1c781004/West-Bromwich-Albion-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/8ef52968/Millwall-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/22df8478/Derby-County-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/604617a2/Middlesbrough-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/17892952/Queens-Park-Rangers-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/5bfb9659/Swansea-City-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/bba7d733/Hull-City-vs-Sheffield-Wednesday-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/1c781004/Plymouth-Argyle-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/2abfe087/Bristol-City-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/22df8478/17892952/Preston-North-End-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/1df6b87e/Oxford-United-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/943e8050/Coventry-City-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/60c6b05f/Sunderland-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/75fae011/Queens-Park-Rangers-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/5bfb9659/Luton-Town-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/76ffc013/Millwall-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/7f59c601/Blackburn-Rovers-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/26ab47ee/Swansea-City-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/1df6b87e/Sunderland-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/2abfe087/Queens-Park-Rangers-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/7f59c601/Hull-City-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/604617a2/Millwall-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/5bfb9659/Blackburn-Rovers-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/1c781004/Luton-Town-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/17892952/Burnley-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/75fae011/Coventry-City-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/32a1480e/Bristol-City-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/76ffc013/Swansea-City-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/22df8478/West-Bromwich-Albion-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/26ab47ee/Sheffield-Wednesday-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/7f59c601/Burnley-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/22df8478/Sheffield-Wednesday-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/17892952/Sunderland-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/26ab47ee/Leeds-United-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/e297cd13/Swansea-City-vs-Luton-Town-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/76ffc013/Bristol-City-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/32a1480e/Oxford-United-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/2abfe087/Cardiff-City-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/e3c537a1/Coventry-City-vs-Millwall-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/bd8769d1/Blackburn-Rovers-vs-Hull-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/1c781004/Queens-Park-Rangers-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/1df6b87e/West-Bromwich-Albion-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e2a0f634/Coventry-City-Oxford-United-August-16-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6cc636f7/West-Bromwich-Albion-Leeds-United-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7b5e3cb2/Derby-County-Middlesbrough-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cc91bd09/Portsmouth-Luton-Town-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4d1d8962/Sheffield-United-Queens-Park-Rangers-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6abd6f80/Norwich-City-Blackburn-Rovers-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6e180658/Watford-Stoke-City-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/80b3e0c0/Plymouth-Argyle-Hull-City-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b84fdcb5/Swansea-City-Preston-North-End-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d7ca5cbb/Bristol-City-Millwall-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f207fdeb/Burnley-Cardiff-City-August-17-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ab1574d3/Sunderland-Sheffield-Wednesday-August-18-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/bba7d733/Blackburn-Rovers-vs-Sheffield-Wednesday-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/8ef52968/Bristol-City-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/26ab47ee/Burnley-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/17892952/Luton-Town-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/1c781004/Portsmouth-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/32a1480e/Swansea-City-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/5bfb9659/Middlesbrough-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/22df8478/Cardiff-City-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/1df6b87e/Millwall-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/604617a2/Queens-Park-Rangers-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/2abfe087/Hull-City-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/60c6b05f/Coventry-City-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/26ab47ee/Portsmouth-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/bd8769d1/Coventry-City-vs-Hull-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/22df8478/Leeds-United-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/93493607/Queens-Park-Rangers-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/1df6b87e/Plymouth-Argyle-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/e090f40b/Luton-Town-vs-Blackburn-Rovers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/8ef52968/Swansea-City-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/17892952/Cardiff-City-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/7f59c601/Millwall-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/604617a2/Sheffield-Wednesday-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/2abfe087/West-Bromwich-Albion-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/1c781004/Burnley-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/26ab47ee/Luton-Town-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/17892952/Sheffield-Wednesday-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/76ffc013/Coventry-City-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/bd8769d1/Swansea-City-vs-Hull-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/5bfb9659/Oxford-United-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/1df6b87e/Cardiff-City-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/32a1480e/Middlesbrough-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/1c781004/Sunderland-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/2abfe087/Burnley-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/e090f40b/Millwall-vs-Blackburn-Rovers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/22df8478/Queens-Park-Rangers-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/60c6b05f/Bristol-City-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/604617a2/Cardiff-City-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/2abfe087/Portsmouth-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/32a1480e/Coventry-City-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/93493607/Luton-Town-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/1df6b87e/Burnley-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/1c781004/Millwall-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/7f59c601/Sheffield-Wednesday-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/8ef52968/Blackburn-Rovers-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/22df8478/Hull-City-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/a757999c/Swansea-City-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/26ab47ee/West-Bromwich-Albion-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/17892952/Leeds-United-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/943e8050/Blackburn-Rovers-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/17892952/Plymouth-Argyle-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/60c6b05f/Swansea-City-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/5bfb9659/Hull-City-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/1df6b87e/Watford-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/bba7d733/Millwall-vs-Sheffield-Wednesday-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/1c781004/Coventry-City-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/75fae011/Middlesbrough-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/26ab47ee/Bristol-City-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/22df8478/Oxford-United-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/76ffc013/Sunderland-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/a757999c/Luton-Town-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/22df8478/Luton-Town-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/8ef52968/Burnley-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/bd8769d1/Millwall-vs-Hull-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/76ffc013/Middlesbrough-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/1df6b87e/1c781004/Sheffield-United-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/32a1480e/Queens-Park-Rangers-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/93493607/Coventry-City-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/75fae011/Swansea-City-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/5bfb9659/Sheffield-Wednesday-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/26ab47ee/Watford-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/604617a2/Blackburn-Rovers-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/17892952/West-Bromwich-Albion-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/75fae011/Millwall-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/1df6b87e/Swansea-City-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/e090f40b/Coventry-City-vs-Blackburn-Rovers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/604617a2/Luton-Town-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/26ab47ee/Sunderland-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/22df8478/Watford-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/a757999c/Hull-City-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/60c6b05f/Middlesbrough-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/93493607/Sheffield-Wednesday-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/17892952/Portsmouth-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/32a1480e/Burnley-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/2abfe087/Coventry-City-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/60c6b05f/Portsmouth-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/5bfb9659/Burnley-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/a757999c/Sheffield-Wednesday-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/26ab47ee/Cardiff-City-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/17892952/Oxford-United-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/1df6b87e/Hull-City-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/e297cd13/Millwall-vs-Luton-Town-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/93493607/Blackburn-Rovers-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/22df8478/Middlesbrough-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/1c781004/Swansea-City-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/32a1480e/Sunderland-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ced9ecd0/Sheffield-Wednesday-Leeds-United-August-23-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/499a9d69/Bristol-City-Coventry-City-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/56b95bb5/Queens-Park-Rangers-Plymouth-Argyle-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/958fdf9f/Hull-City-Millwall-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/008769e1/Norwich-City-Sheffield-United-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/202967ff/Middlesbrough-Portsmouth-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2375d0ce/Sunderland-Burnley-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4b94620e/Watford-Derby-County-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9aef1d9c/Preston-North-End-Luton-Town-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d548e35e/Blackburn-Rovers-Oxford-United-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/da9feef3/Stoke-City-West-Bromwich-Albion-August-24-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/112ed598/Swansea-City-Cardiff-City-August-25-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/5bfb9659/Cardiff-City-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/32a1480e/West-Bromwich-Albion-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/76ffc013/Burnley-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/7f59c601/Sunderland-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/bba7d733/Luton-Town-vs-Sheffield-Wednesday-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/1df6b87e/Derby-County-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/22df8478/Blackburn-Rovers-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/f7e3dfe9/Swansea-City-vs-Coventry-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/604617a2/Bristol-City-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/17892952/Hull-City-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/1c781004/Watford-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/a757999c/Millwall-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/1c781004/Derby-County-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/5bfb9659/Coventry-City-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/22df8478/Millwall-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/60c6b05f/Sheffield-Wednesday-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/32a1480e/Luton-Town-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/2abfe087/Sunderland-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/93493607/Swansea-City-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/75fae011/Hull-City-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/a757999c/Blackburn-Rovers-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/604617a2/Burnley-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/17892952/Middlesbrough-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/1df6b87e/Portsmouth-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/75fae011/Portsmouth-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/32a1480e/Millwall-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/2abfe087/Leeds-United-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/17892952/Bristol-City-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/22df8478/1c781004/Preston-North-End-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/bba7d733/Swansea-City-vs-Sheffield-Wednesday-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/a757999c/Coventry-City-vs-Queens-Park-Rangers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/26ab47ee/Oxford-United-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/1df6b87e/Middlesbrough-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/8ef52968/Luton-Town-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/943e8050/Hull-City-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/60c6b05f/Blackburn-Rovers-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/1c781004/Hull-City-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/60c6b05f/Millwall-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/26ab47ee/Queens-Park-Rangers-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/5bfb9659/Sunderland-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/22df8478/Burnley-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/bba7d733/Coventry-City-vs-Sheffield-Wednesday-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/32a1480e/Blackburn-Rovers-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/2abfe087/Middlesbrough-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/1df6b87e/Luton-Town-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/17892952/Swansea-City-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/75fae011/Bristol-City-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/604617a2/Portsmouth-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/7f59c601/Bristol-City-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/76ffc013/Queens-Park-Rangers-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/2abfe087/Luton-Town-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/22df8478/Coventry-City-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/e090f40b/Swansea-City-vs-Blackburn-Rovers-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/8ef52968/Hull-City-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/26ab47ee/Millwall-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/32a1480e/Cardiff-City-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/943e8050/Sheffield-Wednesday-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/604617a2/West-Bromwich-Albion-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/1df6b87e/Leeds-United-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/1c781004/17892952/Norwich-City-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/8ef52968/Sheffield-Wednesday-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/17892952/Watford-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/76ffc013/Luton-Town-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/26ab47ee/Middlesbrough-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/1c781004/Blackburn-Rovers-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/93493607/Millwall-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/5bfb9659/West-Bromwich-Albion-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/604617a2/Coventry-City-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/1df6b87e/Queens-Park-Rangers-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/22df8478/Swansea-City-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/32a1480e/Hull-City-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/75fae011/Burnley-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/2abfe087/Millwall-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/60c6b05f/Queens-Park-Rangers-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/93493607/Hull-City-vs-Bristol-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/943e8050/Luton-Town-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/5bfb9659/Portsmouth-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/7f59c601/Swansea-City-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/75fae011/Sunderland-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/17892952/Coventry-City-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/22df8478/1df6b87e/Preston-North-End-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/26ab47ee/Blackburn-Rovers-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/32a1480e/Sheffield-Wednesday-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/1c781004/Oxford-United-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/60c6b05f/Burnley-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/17892952/Blackburn-Rovers-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/32a1480e/Portsmouth-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/75fae011/Luton-Town-vs-Cardiff-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/26ab47ee/Coventry-City-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/7f59c601/Queens-Park-Rangers-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/22df8478/Sunderland-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/2abfe087/Swansea-City-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/1c781004/Sheffield-Wednesday-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/1df6b87e/Bristol-City-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/604617a2/Hull-City-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/5bfb9659/Millwall-vs-Leeds-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/2abfe087/Oxford-United-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e4ba4d60/Luton-Town-Queens-Park-Rangers-August-30-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0c8b1dab/Cardiff-City-Middlesbrough-August-31-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/257e736a/Burnley-Blackburn-Rovers-August-31-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a2eaf014/Coventry-City-Norwich-City-August-31-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/10cf5da6/Oxford-United-Preston-North-End-August-31-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/26ebbffe/Portsmouth-Sunderland-August-31-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3d1defc6/West-Bromwich-Albion-Swansea-City-August-31-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/507f8537/Leeds-United-Hull-City-August-31-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9be32a93/Plymouth-Argyle-Stoke-City-August-31-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f7aeb7f3/Millwall-Sheffield-Wednesday-August-31-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fbaa8c37/Derby-County-Bristol-City-August-31-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/080b0dd7/Sheffield-United-Watford-September-1-2024-Championship</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/1df6b87e/17892952/Sheffield-United-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/26ab47ee/Hull-City-vs-Derby-County-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/943e8050/Queens-Park-Rangers-vs-Burnley-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/604617a2/Sunderland-vs-Oxford-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/2abfe087/Blackburn-Rovers-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/22df8478/Plymouth-Argyle-vs-Preston-North-End-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/76ffc013/Sheffield-Wednesday-vs-Portsmouth-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/93493607/5bfb9659/Bristol-City-vs-Leeds-United-History</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/1c781004/Middlesbrough-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/60c6b05f/Cardiff-City-vs-West-Bromwich-Albion-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/e297cd13/Coventry-City-vs-Luton-Town-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/2abfe087/Blackburn-Rovers-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/60c6b05f/Cardiff-City-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/e3c537a1/Swansea-City-vs-Millwall-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/1df6b87e/17892952/Sheffield-United-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/943e8050/Queens-Park-Rangers-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/22df8478/Plymouth-Argyle-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/604617a2/Sunderland-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/26ab47ee/Hull-City-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/1c781004/Middlesbrough-vs-Norwich-City-History</t>
+    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/76ffc013/Hull-City-vs-Portsmouth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/2abfe087/Sheffield-Wednesday-vs-Watford-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/8ef52968/Queens-Park-Rangers-vs-Sunderland-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/32a1480e/Leeds-United-vs-Plymouth-Argyle-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/1df6b87e/Blackburn-Rovers-vs-Sheffield-United-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/17892952/Derby-County-vs-Stoke-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/93493607/22df8478/Bristol-City-vs-Preston-North-End-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/7f59c601/Coventry-City-vs-Middlesbrough-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/1c781004/Cardiff-City-vs-Norwich-City-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/604617a2/Swansea-City-vs-Oxford-United-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/60c6b05f/Luton-Town-vs-West-Bromwich-Albion-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/604617a2/Swansea-City-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/17892952/Derby-County-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/1df6b87e/Blackburn-Rovers-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/1c781004/Cardiff-City-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/2abfe087/Sheffield-Wednesday-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/76ffc013/Hull-City-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/22df8478/Bristol-City-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/32a1480e/Leeds-United-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/7f59c601/Coventry-City-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/8ef52968/Queens-Park-Rangers-vs-Sunderland-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/943e8050/Millwall-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/1c781004/Sheffield-Wednesday-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/1df6b87e/Bristol-City-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/604617a2/Hull-City-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/7f59c601/Queens-Park-Rangers-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/2abfe087/Swansea-City-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/32a1480e/Portsmouth-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/26ab47ee/Coventry-City-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/5bfb9659/Millwall-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/17892952/Blackburn-Rovers-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/75fae011/Luton-Town-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/22df8478/Sunderland-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/60c6b05f/Burnley-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/2abfe087/Oxford-United-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/75fae011/Blackburn-Rovers-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/17892952/Millwall-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/7f59c601/Luton-Town-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/22df8478/Portsmouth-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/5bfb9659/Queens-Park-Rangers-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/26ab47ee/Plymouth-Argyle-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/1c781004/Bristol-City-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/8ef52968/Coventry-City-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/1df6b87e/Sheffield-Wednesday-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/60c6b05f/Hull-City-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/943e8050/Swansea-City-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/2abfe087/Plymouth-Argyle-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/1df6b87e/Coventry-City-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/75fae011/Sheffield-Wednesday-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/93493607/Burnley-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/bd8769d1/Luton-Town-vs-Hull-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/76ffc013/Blackburn-Rovers-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/1c781004/West-Bromwich-Albion-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/8ef52968/Millwall-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/22df8478/Derby-County-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/604617a2/Middlesbrough-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/17892952/Queens-Park-Rangers-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/5bfb9659/Swansea-City-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/bba7d733/Hull-City-vs-Sheffield-Wednesday-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/1c781004/Plymouth-Argyle-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/2abfe087/Bristol-City-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/22df8478/17892952/Preston-North-End-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/1df6b87e/Oxford-United-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/943e8050/Coventry-City-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/60c6b05f/Sunderland-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/75fae011/Queens-Park-Rangers-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/5bfb9659/Luton-Town-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/76ffc013/Millwall-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/7f59c601/Blackburn-Rovers-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/26ab47ee/Swansea-City-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/1df6b87e/Sunderland-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/2abfe087/Queens-Park-Rangers-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/7f59c601/Hull-City-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/604617a2/Millwall-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/5bfb9659/Blackburn-Rovers-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/1c781004/Luton-Town-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/17892952/Burnley-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/75fae011/Coventry-City-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/32a1480e/Bristol-City-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/76ffc013/Swansea-City-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/22df8478/West-Bromwich-Albion-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/26ab47ee/Sheffield-Wednesday-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/7f59c601/Burnley-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/22df8478/Sheffield-Wednesday-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/17892952/Sunderland-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/26ab47ee/Leeds-United-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/e297cd13/Swansea-City-vs-Luton-Town-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/76ffc013/Bristol-City-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/32a1480e/Oxford-United-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/2abfe087/Cardiff-City-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/e3c537a1/Coventry-City-vs-Millwall-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/bd8769d1/Blackburn-Rovers-vs-Hull-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/1c781004/Queens-Park-Rangers-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/1df6b87e/West-Bromwich-Albion-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/e2a0f634/Coventry-City-Oxford-United-August-16-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/6cc636f7/West-Bromwich-Albion-Leeds-United-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/7b5e3cb2/Derby-County-Middlesbrough-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/cc91bd09/Portsmouth-Luton-Town-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/4d1d8962/Sheffield-United-Queens-Park-Rangers-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/6abd6f80/Norwich-City-Blackburn-Rovers-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/6e180658/Watford-Stoke-City-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/80b3e0c0/Plymouth-Argyle-Hull-City-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/b84fdcb5/Swansea-City-Preston-North-End-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/d7ca5cbb/Bristol-City-Millwall-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/f207fdeb/Burnley-Cardiff-City-August-17-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/ab1574d3/Sunderland-Sheffield-Wednesday-August-18-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/bba7d733/Blackburn-Rovers-vs-Sheffield-Wednesday-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/8ef52968/Bristol-City-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/26ab47ee/Burnley-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/17892952/Luton-Town-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/1c781004/Portsmouth-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/32a1480e/Swansea-City-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/5bfb9659/Middlesbrough-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/22df8478/Cardiff-City-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/1df6b87e/Millwall-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/604617a2/Queens-Park-Rangers-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/2abfe087/Hull-City-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/60c6b05f/Coventry-City-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/26ab47ee/Portsmouth-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/bd8769d1/Coventry-City-vs-Hull-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/22df8478/Leeds-United-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/93493607/Queens-Park-Rangers-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/1df6b87e/Plymouth-Argyle-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/e090f40b/Luton-Town-vs-Blackburn-Rovers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/8ef52968/Swansea-City-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/17892952/Cardiff-City-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/7f59c601/Millwall-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/604617a2/Sheffield-Wednesday-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/2abfe087/West-Bromwich-Albion-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/1c781004/Burnley-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/26ab47ee/Luton-Town-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/17892952/Sheffield-Wednesday-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/76ffc013/Coventry-City-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/bd8769d1/Swansea-City-vs-Hull-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/5bfb9659/Oxford-United-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/1df6b87e/Cardiff-City-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/32a1480e/Middlesbrough-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/1c781004/Sunderland-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/2abfe087/Burnley-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/e090f40b/Millwall-vs-Blackburn-Rovers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/22df8478/Queens-Park-Rangers-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/60c6b05f/Bristol-City-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/604617a2/Cardiff-City-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/2abfe087/Portsmouth-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/32a1480e/Coventry-City-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/93493607/Luton-Town-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/1df6b87e/Burnley-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/1c781004/Millwall-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/7f59c601/Sheffield-Wednesday-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/8ef52968/Blackburn-Rovers-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/22df8478/Hull-City-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/a757999c/Swansea-City-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/26ab47ee/West-Bromwich-Albion-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/17892952/Leeds-United-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/943e8050/Blackburn-Rovers-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/32a1480e/17892952/Plymouth-Argyle-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/60c6b05f/Swansea-City-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/5bfb9659/Hull-City-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/1df6b87e/Watford-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/bba7d733/Millwall-vs-Sheffield-Wednesday-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/1c781004/Coventry-City-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/75fae011/Middlesbrough-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/26ab47ee/Bristol-City-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/22df8478/Oxford-United-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/76ffc013/Sunderland-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/a757999c/Luton-Town-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/22df8478/Luton-Town-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/8ef52968/Burnley-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/bd8769d1/Millwall-vs-Hull-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/76ffc013/Middlesbrough-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/1df6b87e/1c781004/Sheffield-United-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/32a1480e/Queens-Park-Rangers-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/93493607/Coventry-City-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/75fae011/Swansea-City-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/5bfb9659/Sheffield-Wednesday-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/26ab47ee/Watford-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/604617a2/Blackburn-Rovers-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/17892952/West-Bromwich-Albion-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/75fae011/Millwall-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/1df6b87e/Swansea-City-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/e090f40b/Coventry-City-vs-Blackburn-Rovers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/604617a2/Luton-Town-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/26ab47ee/Sunderland-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/22df8478/Watford-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/a757999c/Hull-City-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/60c6b05f/Middlesbrough-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/93493607/Sheffield-Wednesday-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/17892952/Portsmouth-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/1c781004/Leeds-United-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/32a1480e/Burnley-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/2abfe087/Coventry-City-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/60c6b05f/Portsmouth-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/5bfb9659/Burnley-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/a757999c/Sheffield-Wednesday-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/26ab47ee/Cardiff-City-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/17892952/Oxford-United-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/1df6b87e/Hull-City-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/e297cd13/Millwall-vs-Luton-Town-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/93493607/Blackburn-Rovers-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/22df8478/Middlesbrough-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/1c781004/Swansea-City-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/32a1480e/Sunderland-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/ced9ecd0/Sheffield-Wednesday-Leeds-United-August-23-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/499a9d69/Bristol-City-Coventry-City-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/56b95bb5/Queens-Park-Rangers-Plymouth-Argyle-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/958fdf9f/Hull-City-Millwall-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/008769e1/Norwich-City-Sheffield-United-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/202967ff/Middlesbrough-Portsmouth-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/2375d0ce/Sunderland-Burnley-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/4b94620e/Watford-Derby-County-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/9aef1d9c/Preston-North-End-Luton-Town-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/d548e35e/Blackburn-Rovers-Oxford-United-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/da9feef3/Stoke-City-West-Bromwich-Albion-August-24-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/112ed598/Swansea-City-Cardiff-City-August-25-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/5bfb9659/Cardiff-City-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/32a1480e/West-Bromwich-Albion-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/76ffc013/Burnley-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/7f59c601/Sunderland-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/bba7d733/Luton-Town-vs-Sheffield-Wednesday-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/1df6b87e/Derby-County-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/22df8478/Blackburn-Rovers-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/f7e3dfe9/Swansea-City-vs-Coventry-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/604617a2/Bristol-City-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/17892952/Hull-City-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/1c781004/Watford-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/a757999c/Millwall-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/26ab47ee/1c781004/Derby-County-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/5bfb9659/Coventry-City-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/22df8478/Millwall-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/60c6b05f/Sheffield-Wednesday-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/32a1480e/Luton-Town-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/2abfe087/Sunderland-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/93493607/Swansea-City-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/75fae011/Hull-City-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/a757999c/Blackburn-Rovers-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/604617a2/Burnley-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/17892952/Middlesbrough-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/1df6b87e/Portsmouth-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/75fae011/Portsmouth-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/32a1480e/Millwall-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/2abfe087/Leeds-United-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/17892952/Bristol-City-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/22df8478/1c781004/Preston-North-End-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/bba7d733/Swansea-City-vs-Sheffield-Wednesday-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/a757999c/Coventry-City-vs-Queens-Park-Rangers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/26ab47ee/Oxford-United-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/1df6b87e/Middlesbrough-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/8ef52968/Luton-Town-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/943e8050/Hull-City-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/60c6b05f/Blackburn-Rovers-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/1c781004/Hull-City-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/60c6b05f/Millwall-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/26ab47ee/Queens-Park-Rangers-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/5bfb9659/Sunderland-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/22df8478/Burnley-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/bba7d733/Coventry-City-vs-Sheffield-Wednesday-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/32a1480e/Blackburn-Rovers-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/2abfe087/Middlesbrough-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/1df6b87e/Luton-Town-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/17892952/Swansea-City-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/75fae011/Bristol-City-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/604617a2/Portsmouth-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/93493607/7f59c601/Bristol-City-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/76ffc013/Queens-Park-Rangers-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/2abfe087/Luton-Town-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/22df8478/Coventry-City-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/e090f40b/Swansea-City-vs-Blackburn-Rovers-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/8ef52968/Hull-City-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/26ab47ee/Millwall-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/75fae011/32a1480e/Cardiff-City-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/943e8050/Sheffield-Wednesday-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/604617a2/West-Bromwich-Albion-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5bfb9659/1df6b87e/Leeds-United-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/1c781004/17892952/Norwich-City-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/8ef52968/Sheffield-Wednesday-vs-Sunderland-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/2abfe087/17892952/Watford-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/76ffc013/Luton-Town-vs-Portsmouth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/7f59c601/26ab47ee/Middlesbrough-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/1c781004/Blackburn-Rovers-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/93493607/Millwall-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60c6b05f/5bfb9659/West-Bromwich-Albion-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/604617a2/Coventry-City-vs-Oxford-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/1df6b87e/Queens-Park-Rangers-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/22df8478/Swansea-City-vs-Preston-North-End-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/32a1480e/Hull-City-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/943e8050/75fae011/Burnley-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e3c537a1/2abfe087/Millwall-vs-Watford-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/a757999c/60c6b05f/Queens-Park-Rangers-vs-West-Bromwich-Albion-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bd8769d1/93493607/Hull-City-vs-Bristol-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e297cd13/943e8050/Luton-Town-vs-Burnley-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/76ffc013/5bfb9659/Portsmouth-vs-Leeds-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fb10988f/7f59c601/Swansea-City-vs-Middlesbrough-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8ef52968/75fae011/Sunderland-vs-Cardiff-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/f7e3dfe9/17892952/Coventry-City-vs-Stoke-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/22df8478/1df6b87e/Preston-North-End-vs-Sheffield-United-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e090f40b/26ab47ee/Blackburn-Rovers-vs-Derby-County-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bba7d733/32a1480e/Sheffield-Wednesday-vs-Plymouth-Argyle-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/604617a2/1c781004/Oxford-United-vs-Norwich-City-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/e4ba4d60/Luton-Town-Queens-Park-Rangers-August-30-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/0c8b1dab/Cardiff-City-Middlesbrough-August-31-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/257e736a/Burnley-Blackburn-Rovers-August-31-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/a2eaf014/Coventry-City-Norwich-City-August-31-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/10cf5da6/Oxford-United-Preston-North-End-August-31-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/26ebbffe/Portsmouth-Sunderland-August-31-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/3d1defc6/West-Bromwich-Albion-Swansea-City-August-31-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/507f8537/Leeds-United-Hull-City-August-31-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/9be32a93/Plymouth-Argyle-Stoke-City-August-31-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/f7aeb7f3/Millwall-Sheffield-Wednesday-August-31-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/fbaa8c37/Derby-County-Bristol-City-August-31-2024-Championship</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/080b0dd7/Sheffield-United-Watford-September-1-2024-Championship</t>
   </si>
   <si>
     <t>https://fbref.com/en/matches/6cfbf05a/Hull-City-Sheffield-United-September-13-2024-Championship</t>
@@ -3449,7 +3566,7 @@
         <v>#N/A</v>
       </c>
       <c r="U2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3">
@@ -3514,7 +3631,7 @@
         <v>#N/A</v>
       </c>
       <c r="U3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4">
@@ -3579,7 +3696,7 @@
         <v>#N/A</v>
       </c>
       <c r="U4" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5">
@@ -3644,7 +3761,7 @@
         <v>#N/A</v>
       </c>
       <c r="U5" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6">
@@ -3709,7 +3826,7 @@
         <v>#N/A</v>
       </c>
       <c r="U6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7">
@@ -3774,7 +3891,7 @@
         <v>#N/A</v>
       </c>
       <c r="U7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8">
@@ -3839,7 +3956,7 @@
         <v>#N/A</v>
       </c>
       <c r="U8" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9">
@@ -3904,7 +4021,7 @@
         <v>#N/A</v>
       </c>
       <c r="U9" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10">
@@ -3969,7 +4086,7 @@
         <v>#N/A</v>
       </c>
       <c r="U10" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11">
@@ -4034,7 +4151,7 @@
         <v>#N/A</v>
       </c>
       <c r="U11" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12">
@@ -4099,7 +4216,7 @@
         <v>#N/A</v>
       </c>
       <c r="U12" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13">
@@ -4164,7 +4281,7 @@
         <v>#N/A</v>
       </c>
       <c r="U13" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14">
@@ -4229,7 +4346,7 @@
         <v>#N/A</v>
       </c>
       <c r="U14" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15">
@@ -4294,7 +4411,7 @@
         <v>#N/A</v>
       </c>
       <c r="U15" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16">
@@ -4359,7 +4476,7 @@
         <v>#N/A</v>
       </c>
       <c r="U16" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17">
@@ -4424,7 +4541,7 @@
         <v>#N/A</v>
       </c>
       <c r="U17" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18">
@@ -4489,7 +4606,7 @@
         <v>#N/A</v>
       </c>
       <c r="U18" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19">
@@ -4554,7 +4671,7 @@
         <v>#N/A</v>
       </c>
       <c r="U19" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20">
@@ -4619,7 +4736,7 @@
         <v>#N/A</v>
       </c>
       <c r="U20" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21">
@@ -4684,7 +4801,7 @@
         <v>#N/A</v>
       </c>
       <c r="U21" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="22">
@@ -4749,7 +4866,7 @@
         <v>#N/A</v>
       </c>
       <c r="U22" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23">
@@ -4814,7 +4931,7 @@
         <v>#N/A</v>
       </c>
       <c r="U23" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="24">
@@ -4879,7 +4996,7 @@
         <v>#N/A</v>
       </c>
       <c r="U24" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25">
@@ -4944,7 +5061,7 @@
         <v>#N/A</v>
       </c>
       <c r="U25" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26">
@@ -5009,7 +5126,7 @@
         <v>#N/A</v>
       </c>
       <c r="U26" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27">
@@ -5074,7 +5191,7 @@
         <v>#N/A</v>
       </c>
       <c r="U27" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="28">
@@ -5139,7 +5256,7 @@
         <v>#N/A</v>
       </c>
       <c r="U28" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29">
@@ -5204,7 +5321,7 @@
         <v>#N/A</v>
       </c>
       <c r="U29" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="30">
@@ -5269,7 +5386,7 @@
         <v>#N/A</v>
       </c>
       <c r="U30" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="31">
@@ -5334,7 +5451,7 @@
         <v>#N/A</v>
       </c>
       <c r="U31" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="32">
@@ -5399,7 +5516,7 @@
         <v>#N/A</v>
       </c>
       <c r="U32" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="33">
@@ -5464,7 +5581,7 @@
         <v>#N/A</v>
       </c>
       <c r="U33" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34">
@@ -5529,7 +5646,7 @@
         <v>#N/A</v>
       </c>
       <c r="U34" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35">
@@ -5594,7 +5711,7 @@
         <v>#N/A</v>
       </c>
       <c r="U35" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="36">
@@ -5659,7 +5776,7 @@
         <v>#N/A</v>
       </c>
       <c r="U36" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37">
@@ -5724,7 +5841,7 @@
         <v>#N/A</v>
       </c>
       <c r="U37" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="38">
@@ -5761,35 +5878,35 @@
       <c r="K38" t="s">
         <v>605</v>
       </c>
-      <c r="L38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M38" t="e">
-        <v>#N/A</v>
+      <c r="L38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7</v>
       </c>
       <c r="N38" t="s">
         <v>603</v>
       </c>
-      <c r="O38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q38" t="e">
-        <v>#N/A</v>
+      <c r="O38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>20262.0</v>
       </c>
       <c r="R38" t="s">
         <v>629</v>
       </c>
       <c r="S38" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="T38" t="e">
         <v>#N/A</v>
       </c>
       <c r="U38" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="39">
@@ -5826,35 +5943,35 @@
       <c r="K39" t="s">
         <v>606</v>
       </c>
-      <c r="L39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M39" t="e">
-        <v>#N/A</v>
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.1</v>
       </c>
       <c r="N39" t="s">
         <v>601</v>
       </c>
-      <c r="O39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q39" t="e">
-        <v>#N/A</v>
+      <c r="O39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>25283.0</v>
       </c>
       <c r="R39" t="s">
         <v>630</v>
       </c>
       <c r="S39" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="T39" t="e">
         <v>#N/A</v>
       </c>
       <c r="U39" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="40">
@@ -5891,35 +6008,35 @@
       <c r="K40" t="s">
         <v>607</v>
       </c>
-      <c r="L40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M40" t="e">
-        <v>#N/A</v>
+      <c r="L40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.2</v>
       </c>
       <c r="N40" t="s">
         <v>604</v>
       </c>
-      <c r="O40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q40" t="e">
-        <v>#N/A</v>
+      <c r="O40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>26409.0</v>
       </c>
       <c r="R40" t="s">
         <v>631</v>
       </c>
       <c r="S40" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="T40" t="e">
         <v>#N/A</v>
       </c>
       <c r="U40" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="41">
@@ -5956,35 +6073,35 @@
       <c r="K41" t="s">
         <v>608</v>
       </c>
-      <c r="L41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M41" t="e">
-        <v>#N/A</v>
+      <c r="L41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.1</v>
       </c>
       <c r="N41" t="s">
         <v>593</v>
       </c>
-      <c r="O41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q41" t="e">
-        <v>#N/A</v>
+      <c r="O41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>18880.0</v>
       </c>
       <c r="R41" t="s">
         <v>632</v>
       </c>
       <c r="S41" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="T41" t="e">
         <v>#N/A</v>
       </c>
       <c r="U41" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="42">
@@ -6021,35 +6138,35 @@
       <c r="K42" t="s">
         <v>609</v>
       </c>
-      <c r="L42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M42" t="e">
-        <v>#N/A</v>
+      <c r="L42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.6</v>
       </c>
       <c r="N42" t="s">
         <v>600</v>
       </c>
-      <c r="O42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q42" t="e">
-        <v>#N/A</v>
+      <c r="O42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>25312.0</v>
       </c>
       <c r="R42" t="s">
         <v>633</v>
       </c>
       <c r="S42" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="T42" t="e">
         <v>#N/A</v>
       </c>
       <c r="U42" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="43">
@@ -6086,35 +6203,35 @@
       <c r="K43" t="s">
         <v>610</v>
       </c>
-      <c r="L43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M43" t="e">
-        <v>#N/A</v>
+      <c r="L43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.9</v>
       </c>
       <c r="N43" t="s">
         <v>599</v>
       </c>
-      <c r="O43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q43" t="e">
-        <v>#N/A</v>
+      <c r="O43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>15119.0</v>
       </c>
       <c r="R43" t="s">
         <v>634</v>
       </c>
       <c r="S43" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="T43" t="e">
         <v>#N/A</v>
       </c>
       <c r="U43" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="44">
@@ -6151,35 +6268,35 @@
       <c r="K44" t="s">
         <v>611</v>
       </c>
-      <c r="L44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M44" t="e">
-        <v>#N/A</v>
+      <c r="L44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.3</v>
       </c>
       <c r="N44" t="s">
         <v>598</v>
       </c>
-      <c r="O44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q44" t="e">
-        <v>#N/A</v>
+      <c r="O44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>28575.0</v>
       </c>
       <c r="R44" t="s">
         <v>635</v>
       </c>
       <c r="S44" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="T44" t="e">
         <v>#N/A</v>
       </c>
       <c r="U44" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45">
@@ -6216,35 +6333,35 @@
       <c r="K45" t="s">
         <v>612</v>
       </c>
-      <c r="L45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M45" t="e">
-        <v>#N/A</v>
+      <c r="L45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.2</v>
       </c>
       <c r="N45" t="s">
         <v>602</v>
       </c>
-      <c r="O45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q45" t="e">
-        <v>#N/A</v>
+      <c r="O45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>19187.0</v>
       </c>
       <c r="R45" t="s">
         <v>636</v>
       </c>
       <c r="S45" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="T45" t="e">
         <v>#N/A</v>
       </c>
       <c r="U45" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="46">
@@ -6281,35 +6398,35 @@
       <c r="K46" t="s">
         <v>613</v>
       </c>
-      <c r="L46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M46" t="e">
-        <v>#N/A</v>
+      <c r="L46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.1</v>
       </c>
       <c r="N46" t="s">
         <v>594</v>
       </c>
-      <c r="O46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q46" t="e">
-        <v>#N/A</v>
+      <c r="O46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>16443.0</v>
       </c>
       <c r="R46" t="s">
         <v>637</v>
       </c>
       <c r="S46" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="T46" t="e">
         <v>#N/A</v>
       </c>
       <c r="U46" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="47">
@@ -6346,35 +6463,35 @@
       <c r="K47" t="s">
         <v>614</v>
       </c>
-      <c r="L47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M47" t="e">
-        <v>#N/A</v>
+      <c r="L47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.2</v>
       </c>
       <c r="N47" t="s">
         <v>595</v>
       </c>
-      <c r="O47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q47" t="e">
-        <v>#N/A</v>
+      <c r="O47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>40654.0</v>
       </c>
       <c r="R47" t="s">
         <v>638</v>
       </c>
       <c r="S47" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T47" t="e">
         <v>#N/A</v>
       </c>
       <c r="U47" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="48">
@@ -6411,35 +6528,35 @@
       <c r="K48" t="s">
         <v>615</v>
       </c>
-      <c r="L48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M48" t="e">
-        <v>#N/A</v>
+      <c r="L48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.6</v>
       </c>
       <c r="N48" t="s">
         <v>597</v>
       </c>
-      <c r="O48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q48" t="e">
-        <v>#N/A</v>
+      <c r="O48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>29877.0</v>
       </c>
       <c r="R48" t="s">
         <v>639</v>
       </c>
       <c r="S48" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="T48" t="e">
         <v>#N/A</v>
       </c>
       <c r="U48" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="49">
@@ -6476,35 +6593,35 @@
       <c r="K49" t="s">
         <v>616</v>
       </c>
-      <c r="L49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M49" t="e">
-        <v>#N/A</v>
+      <c r="L49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.1</v>
       </c>
       <c r="N49" t="s">
         <v>596</v>
       </c>
-      <c r="O49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q49" t="e">
-        <v>#N/A</v>
+      <c r="O49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>26487.0</v>
       </c>
       <c r="R49" t="s">
         <v>640</v>
       </c>
       <c r="S49" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="T49" t="e">
         <v>#N/A</v>
       </c>
       <c r="U49" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="50">
@@ -6541,35 +6658,35 @@
       <c r="K50" t="s">
         <v>604</v>
       </c>
-      <c r="L50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M50" t="e">
-        <v>#N/A</v>
+      <c r="L50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.9</v>
       </c>
       <c r="N50" t="s">
         <v>609</v>
       </c>
-      <c r="O50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q50" t="e">
-        <v>#N/A</v>
+      <c r="O50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>11665.0</v>
       </c>
       <c r="R50" t="s">
         <v>628</v>
       </c>
       <c r="S50" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="T50" t="e">
         <v>#N/A</v>
       </c>
       <c r="U50" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="51">
@@ -6606,35 +6723,35 @@
       <c r="K51" t="s">
         <v>595</v>
       </c>
-      <c r="L51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M51" t="e">
-        <v>#N/A</v>
+      <c r="L51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.5</v>
       </c>
       <c r="N51" t="s">
         <v>610</v>
       </c>
-      <c r="O51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q51" t="e">
-        <v>#N/A</v>
+      <c r="O51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>11454.0</v>
       </c>
       <c r="R51" t="s">
         <v>619</v>
       </c>
       <c r="S51" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="T51" t="e">
         <v>#N/A</v>
       </c>
       <c r="U51" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="52">
@@ -6671,35 +6788,35 @@
       <c r="K52" t="s">
         <v>598</v>
       </c>
-      <c r="L52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M52" t="e">
-        <v>#N/A</v>
+      <c r="L52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2.2</v>
       </c>
       <c r="N52" t="s">
         <v>615</v>
       </c>
-      <c r="O52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q52" t="e">
-        <v>#N/A</v>
+      <c r="O52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>24511.0</v>
       </c>
       <c r="R52" t="s">
         <v>622</v>
       </c>
       <c r="S52" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="T52" t="e">
         <v>#N/A</v>
       </c>
       <c r="U52" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="53">
@@ -6736,35 +6853,35 @@
       <c r="K53" t="s">
         <v>593</v>
       </c>
-      <c r="L53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M53" t="e">
-        <v>#N/A</v>
+      <c r="L53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.6</v>
       </c>
       <c r="N53" t="s">
         <v>611</v>
       </c>
-      <c r="O53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q53" t="e">
-        <v>#N/A</v>
+      <c r="O53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>16810.0</v>
       </c>
       <c r="R53" t="s">
         <v>617</v>
       </c>
       <c r="S53" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T53" t="e">
         <v>#N/A</v>
       </c>
       <c r="U53" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="54">
@@ -6801,35 +6918,35 @@
       <c r="K54" t="s">
         <v>600</v>
       </c>
-      <c r="L54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M54" t="e">
-        <v>#N/A</v>
+      <c r="L54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.6</v>
       </c>
       <c r="N54" t="s">
         <v>616</v>
       </c>
-      <c r="O54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q54" t="e">
-        <v>#N/A</v>
+      <c r="O54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>19032.0</v>
       </c>
       <c r="R54" t="s">
         <v>624</v>
       </c>
       <c r="S54" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="T54" t="e">
         <v>#N/A</v>
       </c>
       <c r="U54" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="55">
@@ -6866,35 +6983,35 @@
       <c r="K55" t="s">
         <v>603</v>
       </c>
-      <c r="L55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M55" t="e">
-        <v>#N/A</v>
+      <c r="L55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.5</v>
       </c>
       <c r="N55" t="s">
         <v>608</v>
       </c>
-      <c r="O55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q55" t="e">
-        <v>#N/A</v>
+      <c r="O55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>25693.0</v>
       </c>
       <c r="R55" t="s">
         <v>627</v>
       </c>
       <c r="S55" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="T55" t="e">
         <v>#N/A</v>
       </c>
       <c r="U55" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="56">
@@ -6931,35 +7048,35 @@
       <c r="K56" t="s">
         <v>597</v>
       </c>
-      <c r="L56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M56" t="e">
-        <v>#N/A</v>
+      <c r="L56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.4</v>
       </c>
       <c r="N56" t="s">
         <v>605</v>
       </c>
-      <c r="O56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q56" t="e">
-        <v>#N/A</v>
+      <c r="O56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>21904.0</v>
       </c>
       <c r="R56" t="s">
         <v>621</v>
       </c>
       <c r="S56" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="T56" t="e">
         <v>#N/A</v>
       </c>
       <c r="U56" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="57">
@@ -6996,35 +7113,35 @@
       <c r="K57" t="s">
         <v>594</v>
       </c>
-      <c r="L57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M57" t="e">
-        <v>#N/A</v>
+      <c r="L57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6</v>
       </c>
       <c r="N57" t="s">
         <v>606</v>
       </c>
-      <c r="O57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q57" t="e">
-        <v>#N/A</v>
+      <c r="O57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>14261.0</v>
       </c>
       <c r="R57" t="s">
         <v>618</v>
       </c>
       <c r="S57" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="T57" t="e">
         <v>#N/A</v>
       </c>
       <c r="U57" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="58">
@@ -7061,35 +7178,35 @@
       <c r="K58" t="s">
         <v>601</v>
       </c>
-      <c r="L58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M58" t="e">
-        <v>#N/A</v>
+      <c r="L58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.8</v>
       </c>
       <c r="N58" t="s">
         <v>613</v>
       </c>
-      <c r="O58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q58" t="e">
-        <v>#N/A</v>
+      <c r="O58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>36066.0</v>
       </c>
       <c r="R58" t="s">
         <v>625</v>
       </c>
       <c r="S58" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="T58" t="e">
         <v>#N/A</v>
       </c>
       <c r="U58" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="59">
@@ -7126,35 +7243,35 @@
       <c r="K59" t="s">
         <v>596</v>
       </c>
-      <c r="L59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M59" t="e">
-        <v>#N/A</v>
+      <c r="L59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.9</v>
       </c>
       <c r="N59" t="s">
         <v>607</v>
       </c>
-      <c r="O59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q59" t="e">
-        <v>#N/A</v>
+      <c r="O59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>24921.0</v>
       </c>
       <c r="R59" t="s">
         <v>620</v>
       </c>
       <c r="S59" t="s">
-        <v>641</v>
+        <v>666</v>
       </c>
       <c r="T59" t="e">
         <v>#N/A</v>
       </c>
       <c r="U59" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="60">
@@ -7191,35 +7308,35 @@
       <c r="K60" t="s">
         <v>602</v>
       </c>
-      <c r="L60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M60" t="e">
-        <v>#N/A</v>
+      <c r="L60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.4</v>
       </c>
       <c r="N60" t="s">
         <v>614</v>
       </c>
-      <c r="O60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q60" t="e">
-        <v>#N/A</v>
+      <c r="O60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>16754.0</v>
       </c>
       <c r="R60" t="s">
         <v>626</v>
       </c>
       <c r="S60" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="T60" t="e">
         <v>#N/A</v>
       </c>
       <c r="U60" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="61">
@@ -7256,35 +7373,35 @@
       <c r="K61" t="s">
         <v>599</v>
       </c>
-      <c r="L61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M61" t="e">
-        <v>#N/A</v>
+      <c r="L61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.0</v>
       </c>
       <c r="N61" t="s">
         <v>612</v>
       </c>
-      <c r="O61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q61" t="e">
-        <v>#N/A</v>
+      <c r="O61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>14245.0</v>
       </c>
       <c r="R61" t="s">
         <v>623</v>
       </c>
       <c r="S61" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="T61" t="e">
         <v>#N/A</v>
       </c>
       <c r="U61" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="62">
@@ -7321,35 +7438,35 @@
       <c r="K62" t="s">
         <v>603</v>
       </c>
-      <c r="L62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M62" t="e">
-        <v>#N/A</v>
+      <c r="L62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2.0</v>
       </c>
       <c r="N62" t="s">
         <v>616</v>
       </c>
-      <c r="O62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q62" t="e">
-        <v>#N/A</v>
+      <c r="O62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>22731.0</v>
       </c>
       <c r="R62" t="s">
         <v>627</v>
       </c>
       <c r="S62" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="T62" t="e">
         <v>#N/A</v>
       </c>
       <c r="U62" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="63">
@@ -7386,35 +7503,35 @@
       <c r="K63" t="s">
         <v>606</v>
       </c>
-      <c r="L63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M63" t="e">
-        <v>#N/A</v>
+      <c r="L63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.5</v>
       </c>
       <c r="N63" t="s">
         <v>611</v>
       </c>
-      <c r="O63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q63" t="e">
-        <v>#N/A</v>
+      <c r="O63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>18736.0</v>
       </c>
       <c r="R63" t="s">
         <v>630</v>
       </c>
       <c r="S63" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="T63" t="e">
         <v>#N/A</v>
       </c>
       <c r="U63" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="64">
@@ -7451,35 +7568,35 @@
       <c r="K64" t="s">
         <v>595</v>
       </c>
-      <c r="L64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M64" t="e">
-        <v>#N/A</v>
+      <c r="L64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.6</v>
       </c>
       <c r="N64" t="s">
         <v>597</v>
       </c>
-      <c r="O64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q64" t="e">
-        <v>#N/A</v>
+      <c r="O64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>10213.0</v>
       </c>
       <c r="R64" t="s">
         <v>619</v>
       </c>
       <c r="S64" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="T64" t="e">
         <v>#N/A</v>
       </c>
       <c r="U64" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="65">
@@ -7516,35 +7633,35 @@
       <c r="K65" t="s">
         <v>602</v>
       </c>
-      <c r="L65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M65" t="e">
-        <v>#N/A</v>
+      <c r="L65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6</v>
       </c>
       <c r="N65" t="s">
         <v>596</v>
       </c>
-      <c r="O65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q65" t="e">
-        <v>#N/A</v>
+      <c r="O65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>14054.0</v>
       </c>
       <c r="R65" t="s">
         <v>626</v>
       </c>
       <c r="S65" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T65" t="e">
         <v>#N/A</v>
       </c>
       <c r="U65" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="66">
@@ -7581,35 +7698,35 @@
       <c r="K66" t="s">
         <v>610</v>
       </c>
-      <c r="L66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M66" t="e">
-        <v>#N/A</v>
+      <c r="L66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2.0</v>
       </c>
       <c r="N66" t="s">
         <v>608</v>
       </c>
-      <c r="O66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q66" t="e">
-        <v>#N/A</v>
+      <c r="O66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>12869.0</v>
       </c>
       <c r="R66" t="s">
         <v>634</v>
       </c>
       <c r="S66" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="T66" t="e">
         <v>#N/A</v>
       </c>
       <c r="U66" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="67">
@@ -7646,35 +7763,35 @@
       <c r="K67" t="s">
         <v>613</v>
       </c>
-      <c r="L67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M67" t="e">
-        <v>#N/A</v>
+      <c r="L67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.9</v>
       </c>
       <c r="N67" t="s">
         <v>605</v>
       </c>
-      <c r="O67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q67" t="e">
-        <v>#N/A</v>
+      <c r="O67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>16647.0</v>
       </c>
       <c r="R67" t="s">
         <v>637</v>
       </c>
       <c r="S67" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="T67" t="e">
         <v>#N/A</v>
       </c>
       <c r="U67" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68">
@@ -7711,35 +7828,35 @@
       <c r="K68" t="s">
         <v>607</v>
       </c>
-      <c r="L68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M68" t="e">
-        <v>#N/A</v>
+      <c r="L68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.2</v>
       </c>
       <c r="N68" t="s">
         <v>615</v>
       </c>
-      <c r="O68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q68" t="e">
-        <v>#N/A</v>
+      <c r="O68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>27243.0</v>
       </c>
       <c r="R68" t="s">
         <v>631</v>
       </c>
       <c r="S68" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="T68" t="e">
         <v>#N/A</v>
       </c>
       <c r="U68" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="69">
@@ -7776,35 +7893,35 @@
       <c r="K69" t="s">
         <v>599</v>
       </c>
-      <c r="L69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M69" t="e">
-        <v>#N/A</v>
+      <c r="L69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.2</v>
       </c>
       <c r="N69" t="s">
         <v>601</v>
       </c>
-      <c r="O69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q69" t="e">
-        <v>#N/A</v>
+      <c r="O69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>16693.0</v>
       </c>
       <c r="R69" t="s">
         <v>623</v>
       </c>
       <c r="S69" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="T69" t="e">
         <v>#N/A</v>
       </c>
       <c r="U69" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="70">
@@ -7841,35 +7958,35 @@
       <c r="K70" t="s">
         <v>593</v>
       </c>
-      <c r="L70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M70" t="e">
-        <v>#N/A</v>
+      <c r="L70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2.8</v>
       </c>
       <c r="N70" t="s">
         <v>598</v>
       </c>
-      <c r="O70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q70" t="e">
-        <v>#N/A</v>
+      <c r="O70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>13144.0</v>
       </c>
       <c r="R70" t="s">
         <v>617</v>
       </c>
       <c r="S70" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="T70" t="e">
         <v>#N/A</v>
       </c>
       <c r="U70" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="71">
@@ -7906,35 +8023,35 @@
       <c r="K71" t="s">
         <v>604</v>
       </c>
-      <c r="L71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M71" t="e">
-        <v>#N/A</v>
+      <c r="L71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.0</v>
       </c>
       <c r="N71" t="s">
         <v>600</v>
       </c>
-      <c r="O71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q71" t="e">
-        <v>#N/A</v>
+      <c r="O71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>10656.0</v>
       </c>
       <c r="R71" t="s">
         <v>628</v>
       </c>
       <c r="S71" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="T71" t="e">
         <v>#N/A</v>
       </c>
       <c r="U71" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="72">
@@ -7971,35 +8088,35 @@
       <c r="K72" t="s">
         <v>594</v>
       </c>
-      <c r="L72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M72" t="e">
-        <v>#N/A</v>
+      <c r="L72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.5</v>
       </c>
       <c r="N72" t="s">
         <v>614</v>
       </c>
-      <c r="O72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q72" t="e">
-        <v>#N/A</v>
+      <c r="O72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>18064.0</v>
       </c>
       <c r="R72" t="s">
         <v>618</v>
       </c>
       <c r="S72" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="T72" t="e">
         <v>#N/A</v>
       </c>
       <c r="U72" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="73">
@@ -8036,35 +8153,35 @@
       <c r="K73" t="s">
         <v>609</v>
       </c>
-      <c r="L73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M73" t="e">
-        <v>#N/A</v>
+      <c r="L73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8</v>
       </c>
       <c r="N73" t="s">
         <v>612</v>
       </c>
-      <c r="O73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q73" t="e">
-        <v>#N/A</v>
+      <c r="O73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>23443.0</v>
       </c>
       <c r="R73" t="s">
         <v>633</v>
       </c>
       <c r="S73" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="T73" t="e">
         <v>#N/A</v>
       </c>
       <c r="U73" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="74">
@@ -8101,35 +8218,35 @@
       <c r="K74" t="s">
         <v>608</v>
       </c>
-      <c r="L74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M74" t="e">
-        <v>#N/A</v>
+      <c r="L74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.8</v>
       </c>
       <c r="N74" t="s">
         <v>595</v>
       </c>
-      <c r="O74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q74" t="e">
-        <v>#N/A</v>
+      <c r="O74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>20268.0</v>
       </c>
       <c r="R74" t="s">
         <v>632</v>
       </c>
       <c r="S74" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="T74" t="e">
         <v>#N/A</v>
       </c>
       <c r="U74" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="75">
@@ -8194,7 +8311,7 @@
         <v>#N/A</v>
       </c>
       <c r="U75" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="76">
@@ -8259,7 +8376,7 @@
         <v>#N/A</v>
       </c>
       <c r="U76" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="77">
@@ -8324,7 +8441,7 @@
         <v>#N/A</v>
       </c>
       <c r="U77" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="78">
@@ -8389,7 +8506,7 @@
         <v>#N/A</v>
       </c>
       <c r="U78" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="79">
@@ -8454,7 +8571,7 @@
         <v>#N/A</v>
       </c>
       <c r="U79" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="80">
@@ -8519,7 +8636,7 @@
         <v>#N/A</v>
       </c>
       <c r="U80" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="81">
@@ -8584,7 +8701,7 @@
         <v>#N/A</v>
       </c>
       <c r="U81" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="82">
@@ -8649,7 +8766,7 @@
         <v>#N/A</v>
       </c>
       <c r="U82" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="83">
@@ -8714,7 +8831,7 @@
         <v>#N/A</v>
       </c>
       <c r="U83" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="84">
@@ -8779,7 +8896,7 @@
         <v>#N/A</v>
       </c>
       <c r="U84" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="85">
@@ -8844,7 +8961,7 @@
         <v>#N/A</v>
       </c>
       <c r="U85" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="86">
@@ -8909,7 +9026,7 @@
         <v>#N/A</v>
       </c>
       <c r="U86" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="87">
@@ -8974,7 +9091,7 @@
         <v>#N/A</v>
       </c>
       <c r="U87" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="88">
@@ -9039,7 +9156,7 @@
         <v>#N/A</v>
       </c>
       <c r="U88" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="89">
@@ -9104,7 +9221,7 @@
         <v>#N/A</v>
       </c>
       <c r="U89" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="90">
@@ -9169,7 +9286,7 @@
         <v>#N/A</v>
       </c>
       <c r="U90" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="91">
@@ -9234,7 +9351,7 @@
         <v>#N/A</v>
       </c>
       <c r="U91" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="92">
@@ -9299,7 +9416,7 @@
         <v>#N/A</v>
       </c>
       <c r="U92" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="93">
@@ -9364,7 +9481,7 @@
         <v>#N/A</v>
       </c>
       <c r="U93" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="94">
@@ -9429,7 +9546,7 @@
         <v>#N/A</v>
       </c>
       <c r="U94" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="95">
@@ -9494,7 +9611,7 @@
         <v>#N/A</v>
       </c>
       <c r="U95" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="96">
@@ -9559,7 +9676,7 @@
         <v>#N/A</v>
       </c>
       <c r="U96" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="97">
@@ -9624,7 +9741,7 @@
         <v>#N/A</v>
       </c>
       <c r="U97" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="98">
@@ -9689,7 +9806,7 @@
         <v>#N/A</v>
       </c>
       <c r="U98" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="99">
@@ -9754,7 +9871,7 @@
         <v>#N/A</v>
       </c>
       <c r="U99" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="100">
@@ -9819,7 +9936,7 @@
         <v>#N/A</v>
       </c>
       <c r="U100" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="101">
@@ -9884,7 +10001,7 @@
         <v>#N/A</v>
       </c>
       <c r="U101" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="102">
@@ -9949,7 +10066,7 @@
         <v>#N/A</v>
       </c>
       <c r="U102" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="103">
@@ -10014,7 +10131,7 @@
         <v>#N/A</v>
       </c>
       <c r="U103" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="104">
@@ -10079,7 +10196,7 @@
         <v>#N/A</v>
       </c>
       <c r="U104" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="105">
@@ -10144,7 +10261,7 @@
         <v>#N/A</v>
       </c>
       <c r="U105" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="106">
@@ -10209,7 +10326,7 @@
         <v>#N/A</v>
       </c>
       <c r="U106" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="107">
@@ -10274,7 +10391,7 @@
         <v>#N/A</v>
       </c>
       <c r="U107" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="108">
@@ -10339,7 +10456,7 @@
         <v>#N/A</v>
       </c>
       <c r="U108" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="109">
@@ -10404,7 +10521,7 @@
         <v>#N/A</v>
       </c>
       <c r="U109" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="110">
@@ -10469,7 +10586,7 @@
         <v>#N/A</v>
       </c>
       <c r="U110" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="111">
@@ -10534,7 +10651,7 @@
         <v>#N/A</v>
       </c>
       <c r="U111" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="112">
@@ -10599,7 +10716,7 @@
         <v>#N/A</v>
       </c>
       <c r="U112" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="113">
@@ -10664,7 +10781,7 @@
         <v>#N/A</v>
       </c>
       <c r="U113" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="114">
@@ -10729,7 +10846,7 @@
         <v>#N/A</v>
       </c>
       <c r="U114" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="115">
@@ -10794,7 +10911,7 @@
         <v>#N/A</v>
       </c>
       <c r="U115" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="116">
@@ -10859,7 +10976,7 @@
         <v>#N/A</v>
       </c>
       <c r="U116" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="117">
@@ -10924,7 +11041,7 @@
         <v>#N/A</v>
       </c>
       <c r="U117" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="118">
@@ -10989,7 +11106,7 @@
         <v>#N/A</v>
       </c>
       <c r="U118" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="119">
@@ -11054,7 +11171,7 @@
         <v>#N/A</v>
       </c>
       <c r="U119" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="120">
@@ -11119,7 +11236,7 @@
         <v>#N/A</v>
       </c>
       <c r="U120" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="121">
@@ -11184,7 +11301,7 @@
         <v>#N/A</v>
       </c>
       <c r="U121" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="122">
@@ -11249,7 +11366,7 @@
         <v>#N/A</v>
       </c>
       <c r="U122" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="123">
@@ -11314,7 +11431,7 @@
         <v>#N/A</v>
       </c>
       <c r="U123" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="124">
@@ -11379,7 +11496,7 @@
         <v>#N/A</v>
       </c>
       <c r="U124" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="125">
@@ -11444,7 +11561,7 @@
         <v>#N/A</v>
       </c>
       <c r="U125" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="126">
@@ -11509,7 +11626,7 @@
         <v>#N/A</v>
       </c>
       <c r="U126" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="127">
@@ -11574,7 +11691,7 @@
         <v>#N/A</v>
       </c>
       <c r="U127" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="128">
@@ -11639,7 +11756,7 @@
         <v>#N/A</v>
       </c>
       <c r="U128" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="129">
@@ -11704,7 +11821,7 @@
         <v>#N/A</v>
       </c>
       <c r="U129" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="130">
@@ -11769,7 +11886,7 @@
         <v>#N/A</v>
       </c>
       <c r="U130" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="131">
@@ -11834,7 +11951,7 @@
         <v>#N/A</v>
       </c>
       <c r="U131" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="132">
@@ -11899,7 +12016,7 @@
         <v>#N/A</v>
       </c>
       <c r="U132" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="133">
@@ -11964,7 +12081,7 @@
         <v>#N/A</v>
       </c>
       <c r="U133" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="134">
@@ -12023,13 +12140,13 @@
         <v>631</v>
       </c>
       <c r="S134" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="T134" t="e">
         <v>#N/A</v>
       </c>
       <c r="U134" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="135">
@@ -12094,7 +12211,7 @@
         <v>#N/A</v>
       </c>
       <c r="U135" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="136">
@@ -12159,7 +12276,7 @@
         <v>#N/A</v>
       </c>
       <c r="U136" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="137">
@@ -12224,7 +12341,7 @@
         <v>#N/A</v>
       </c>
       <c r="U137" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="138">
@@ -12289,7 +12406,7 @@
         <v>#N/A</v>
       </c>
       <c r="U138" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="139">
@@ -12354,7 +12471,7 @@
         <v>#N/A</v>
       </c>
       <c r="U139" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="140">
@@ -12419,7 +12536,7 @@
         <v>#N/A</v>
       </c>
       <c r="U140" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="141">
@@ -12484,7 +12601,7 @@
         <v>#N/A</v>
       </c>
       <c r="U141" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="142">
@@ -12549,7 +12666,7 @@
         <v>#N/A</v>
       </c>
       <c r="U142" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="143">
@@ -12608,13 +12725,13 @@
         <v>630</v>
       </c>
       <c r="S143" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="T143" t="e">
         <v>#N/A</v>
       </c>
       <c r="U143" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="144">
@@ -12679,7 +12796,7 @@
         <v>#N/A</v>
       </c>
       <c r="U144" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="145">
@@ -12744,7 +12861,7 @@
         <v>#N/A</v>
       </c>
       <c r="U145" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="146">
@@ -12809,7 +12926,7 @@
         <v>#N/A</v>
       </c>
       <c r="U146" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="147">
@@ -12874,7 +12991,7 @@
         <v>#N/A</v>
       </c>
       <c r="U147" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="148">
@@ -12939,7 +13056,7 @@
         <v>#N/A</v>
       </c>
       <c r="U148" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="149">
@@ -13004,7 +13121,7 @@
         <v>#N/A</v>
       </c>
       <c r="U149" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="150">
@@ -13069,7 +13186,7 @@
         <v>#N/A</v>
       </c>
       <c r="U150" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="151">
@@ -13134,7 +13251,7 @@
         <v>#N/A</v>
       </c>
       <c r="U151" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="152">
@@ -13199,7 +13316,7 @@
         <v>#N/A</v>
       </c>
       <c r="U152" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="153">
@@ -13264,7 +13381,7 @@
         <v>#N/A</v>
       </c>
       <c r="U153" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="154">
@@ -13329,7 +13446,7 @@
         <v>#N/A</v>
       </c>
       <c r="U154" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="155">
@@ -13394,7 +13511,7 @@
         <v>#N/A</v>
       </c>
       <c r="U155" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="156">
@@ -13459,7 +13576,7 @@
         <v>#N/A</v>
       </c>
       <c r="U156" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="157">
@@ -13524,7 +13641,7 @@
         <v>#N/A</v>
       </c>
       <c r="U157" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="158">
@@ -13589,7 +13706,7 @@
         <v>#N/A</v>
       </c>
       <c r="U158" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="159">
@@ -13654,7 +13771,7 @@
         <v>#N/A</v>
       </c>
       <c r="U159" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="160">
@@ -13719,7 +13836,7 @@
         <v>#N/A</v>
       </c>
       <c r="U160" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="161">
@@ -13784,7 +13901,7 @@
         <v>#N/A</v>
       </c>
       <c r="U161" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="162">
@@ -13849,7 +13966,7 @@
         <v>#N/A</v>
       </c>
       <c r="U162" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="163">
@@ -13914,7 +14031,7 @@
         <v>#N/A</v>
       </c>
       <c r="U163" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="164">
@@ -13979,7 +14096,7 @@
         <v>#N/A</v>
       </c>
       <c r="U164" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="165">
@@ -14044,7 +14161,7 @@
         <v>#N/A</v>
       </c>
       <c r="U165" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="166">
@@ -14109,7 +14226,7 @@
         <v>#N/A</v>
       </c>
       <c r="U166" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="167">
@@ -14174,7 +14291,7 @@
         <v>#N/A</v>
       </c>
       <c r="U167" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="168">
@@ -14239,7 +14356,7 @@
         <v>#N/A</v>
       </c>
       <c r="U168" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="169">
@@ -14304,7 +14421,7 @@
         <v>#N/A</v>
       </c>
       <c r="U169" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="170">
@@ -14369,7 +14486,7 @@
         <v>#N/A</v>
       </c>
       <c r="U170" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="171">
@@ -14434,7 +14551,7 @@
         <v>#N/A</v>
       </c>
       <c r="U171" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="172">
@@ -14499,7 +14616,7 @@
         <v>#N/A</v>
       </c>
       <c r="U172" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="173">
@@ -14564,7 +14681,7 @@
         <v>#N/A</v>
       </c>
       <c r="U173" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="174">
@@ -14629,7 +14746,7 @@
         <v>#N/A</v>
       </c>
       <c r="U174" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="175">
@@ -14694,7 +14811,7 @@
         <v>#N/A</v>
       </c>
       <c r="U175" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="176">
@@ -14759,7 +14876,7 @@
         <v>#N/A</v>
       </c>
       <c r="U176" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="177">
@@ -14824,7 +14941,7 @@
         <v>#N/A</v>
       </c>
       <c r="U177" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="178">
@@ -14889,7 +15006,7 @@
         <v>#N/A</v>
       </c>
       <c r="U178" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="179">
@@ -14954,7 +15071,7 @@
         <v>#N/A</v>
       </c>
       <c r="U179" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="180">
@@ -15019,7 +15136,7 @@
         <v>#N/A</v>
       </c>
       <c r="U180" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="181">
@@ -15084,7 +15201,7 @@
         <v>#N/A</v>
       </c>
       <c r="U181" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="182">
@@ -15149,7 +15266,7 @@
         <v>#N/A</v>
       </c>
       <c r="U182" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="183">
@@ -15214,7 +15331,7 @@
         <v>#N/A</v>
       </c>
       <c r="U183" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="184">
@@ -15279,7 +15396,7 @@
         <v>#N/A</v>
       </c>
       <c r="U184" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="185">
@@ -15344,7 +15461,7 @@
         <v>#N/A</v>
       </c>
       <c r="U185" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="186">
@@ -15409,7 +15526,7 @@
         <v>#N/A</v>
       </c>
       <c r="U186" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="187">
@@ -15474,7 +15591,7 @@
         <v>#N/A</v>
       </c>
       <c r="U187" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="188">
@@ -15539,7 +15656,7 @@
         <v>#N/A</v>
       </c>
       <c r="U188" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="189">
@@ -15604,7 +15721,7 @@
         <v>#N/A</v>
       </c>
       <c r="U189" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="190">
@@ -15669,7 +15786,7 @@
         <v>#N/A</v>
       </c>
       <c r="U190" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="191">
@@ -15734,7 +15851,7 @@
         <v>#N/A</v>
       </c>
       <c r="U191" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="192">
@@ -15799,7 +15916,7 @@
         <v>#N/A</v>
       </c>
       <c r="U192" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="193">
@@ -15864,7 +15981,7 @@
         <v>#N/A</v>
       </c>
       <c r="U193" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="194">
@@ -15929,7 +16046,7 @@
         <v>#N/A</v>
       </c>
       <c r="U194" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="195">
@@ -15994,7 +16111,7 @@
         <v>#N/A</v>
       </c>
       <c r="U195" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="196">
@@ -16059,7 +16176,7 @@
         <v>#N/A</v>
       </c>
       <c r="U196" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="197">
@@ -16124,7 +16241,7 @@
         <v>#N/A</v>
       </c>
       <c r="U197" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="198">
@@ -16189,7 +16306,7 @@
         <v>#N/A</v>
       </c>
       <c r="U198" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="199">
@@ -16254,7 +16371,7 @@
         <v>#N/A</v>
       </c>
       <c r="U199" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="200">
@@ -16319,7 +16436,7 @@
         <v>#N/A</v>
       </c>
       <c r="U200" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="201">
@@ -16384,7 +16501,7 @@
         <v>#N/A</v>
       </c>
       <c r="U201" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="202">
@@ -16449,7 +16566,7 @@
         <v>#N/A</v>
       </c>
       <c r="U202" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="203">
@@ -16514,7 +16631,7 @@
         <v>#N/A</v>
       </c>
       <c r="U203" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="204">
@@ -16579,7 +16696,7 @@
         <v>#N/A</v>
       </c>
       <c r="U204" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="205">
@@ -16644,7 +16761,7 @@
         <v>#N/A</v>
       </c>
       <c r="U205" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="206">
@@ -16709,7 +16826,7 @@
         <v>#N/A</v>
       </c>
       <c r="U206" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="207">
@@ -16774,7 +16891,7 @@
         <v>#N/A</v>
       </c>
       <c r="U207" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="208">
@@ -16839,7 +16956,7 @@
         <v>#N/A</v>
       </c>
       <c r="U208" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="209">
@@ -16904,7 +17021,7 @@
         <v>#N/A</v>
       </c>
       <c r="U209" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="210">
@@ -16969,7 +17086,7 @@
         <v>#N/A</v>
       </c>
       <c r="U210" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="211">
@@ -17034,7 +17151,7 @@
         <v>#N/A</v>
       </c>
       <c r="U211" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="212">
@@ -17099,7 +17216,7 @@
         <v>#N/A</v>
       </c>
       <c r="U212" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="213">
@@ -17164,7 +17281,7 @@
         <v>#N/A</v>
       </c>
       <c r="U213" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="214">
@@ -17229,7 +17346,7 @@
         <v>#N/A</v>
       </c>
       <c r="U214" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="215">
@@ -17294,7 +17411,7 @@
         <v>#N/A</v>
       </c>
       <c r="U215" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="216">
@@ -17359,7 +17476,7 @@
         <v>#N/A</v>
       </c>
       <c r="U216" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="217">
@@ -17424,7 +17541,7 @@
         <v>#N/A</v>
       </c>
       <c r="U217" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="218">
@@ -17489,7 +17606,7 @@
         <v>#N/A</v>
       </c>
       <c r="U218" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="219">
@@ -17554,7 +17671,7 @@
         <v>#N/A</v>
       </c>
       <c r="U219" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="220">
@@ -17619,7 +17736,7 @@
         <v>#N/A</v>
       </c>
       <c r="U220" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="221">
@@ -17684,7 +17801,7 @@
         <v>#N/A</v>
       </c>
       <c r="U221" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="222">
@@ -17749,7 +17866,7 @@
         <v>#N/A</v>
       </c>
       <c r="U222" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="223">
@@ -17814,7 +17931,7 @@
         <v>#N/A</v>
       </c>
       <c r="U223" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="224">
@@ -17879,7 +17996,7 @@
         <v>#N/A</v>
       </c>
       <c r="U224" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="225">
@@ -17944,7 +18061,7 @@
         <v>#N/A</v>
       </c>
       <c r="U225" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="226">
@@ -18009,7 +18126,7 @@
         <v>#N/A</v>
       </c>
       <c r="U226" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="227">
@@ -18074,7 +18191,7 @@
         <v>#N/A</v>
       </c>
       <c r="U227" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="228">
@@ -18139,7 +18256,7 @@
         <v>#N/A</v>
       </c>
       <c r="U228" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="229">
@@ -18204,7 +18321,7 @@
         <v>#N/A</v>
       </c>
       <c r="U229" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="230">
@@ -18269,7 +18386,7 @@
         <v>#N/A</v>
       </c>
       <c r="U230" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="231">
@@ -18334,7 +18451,7 @@
         <v>#N/A</v>
       </c>
       <c r="U231" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="232">
@@ -18399,7 +18516,7 @@
         <v>#N/A</v>
       </c>
       <c r="U232" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="233">
@@ -18464,7 +18581,7 @@
         <v>#N/A</v>
       </c>
       <c r="U233" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
     </row>
     <row r="234">
@@ -18529,7 +18646,7 @@
         <v>#N/A</v>
       </c>
       <c r="U234" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="235">
@@ -18594,7 +18711,7 @@
         <v>#N/A</v>
       </c>
       <c r="U235" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="236">
@@ -18659,7 +18776,7 @@
         <v>#N/A</v>
       </c>
       <c r="U236" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="237">
@@ -18724,7 +18841,7 @@
         <v>#N/A</v>
       </c>
       <c r="U237" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="238">
@@ -18789,7 +18906,7 @@
         <v>#N/A</v>
       </c>
       <c r="U238" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="239">
@@ -18854,7 +18971,7 @@
         <v>#N/A</v>
       </c>
       <c r="U239" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="240">
@@ -18919,7 +19036,7 @@
         <v>#N/A</v>
       </c>
       <c r="U240" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="241">
@@ -18984,7 +19101,7 @@
         <v>#N/A</v>
       </c>
       <c r="U241" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="242">
@@ -19049,7 +19166,7 @@
         <v>#N/A</v>
       </c>
       <c r="U242" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="243">
@@ -19114,7 +19231,7 @@
         <v>#N/A</v>
       </c>
       <c r="U243" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="244">
@@ -19179,7 +19296,7 @@
         <v>#N/A</v>
       </c>
       <c r="U244" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="245">
@@ -19244,7 +19361,7 @@
         <v>#N/A</v>
       </c>
       <c r="U245" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="246">
@@ -19309,7 +19426,7 @@
         <v>#N/A</v>
       </c>
       <c r="U246" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="247">
@@ -19374,7 +19491,7 @@
         <v>#N/A</v>
       </c>
       <c r="U247" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="248">
@@ -19439,7 +19556,7 @@
         <v>#N/A</v>
       </c>
       <c r="U248" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="249">
@@ -19504,7 +19621,7 @@
         <v>#N/A</v>
       </c>
       <c r="U249" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="250">
@@ -19569,7 +19686,7 @@
         <v>#N/A</v>
       </c>
       <c r="U250" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="251">
@@ -19634,7 +19751,7 @@
         <v>#N/A</v>
       </c>
       <c r="U251" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="252">
@@ -19699,7 +19816,7 @@
         <v>#N/A</v>
       </c>
       <c r="U252" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="253">
@@ -19764,7 +19881,7 @@
         <v>#N/A</v>
       </c>
       <c r="U253" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="254">
@@ -19829,7 +19946,7 @@
         <v>#N/A</v>
       </c>
       <c r="U254" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="255">
@@ -19894,7 +20011,7 @@
         <v>#N/A</v>
       </c>
       <c r="U255" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="256">
@@ -19959,7 +20076,7 @@
         <v>#N/A</v>
       </c>
       <c r="U256" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="257">
@@ -20024,7 +20141,7 @@
         <v>#N/A</v>
       </c>
       <c r="U257" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="258">
@@ -20089,7 +20206,7 @@
         <v>#N/A</v>
       </c>
       <c r="U258" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="259">
@@ -20154,7 +20271,7 @@
         <v>#N/A</v>
       </c>
       <c r="U259" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="260">
@@ -20219,7 +20336,7 @@
         <v>#N/A</v>
       </c>
       <c r="U260" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="261">
@@ -20284,7 +20401,7 @@
         <v>#N/A</v>
       </c>
       <c r="U261" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="262">
@@ -20349,7 +20466,7 @@
         <v>#N/A</v>
       </c>
       <c r="U262" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="263">
@@ -20414,7 +20531,7 @@
         <v>#N/A</v>
       </c>
       <c r="U263" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="264">
@@ -20479,7 +20596,7 @@
         <v>#N/A</v>
       </c>
       <c r="U264" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="265">
@@ -20544,7 +20661,7 @@
         <v>#N/A</v>
       </c>
       <c r="U265" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="266">
@@ -20603,13 +20720,13 @@
         <v>627</v>
       </c>
       <c r="S266" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="T266" t="e">
         <v>#N/A</v>
       </c>
       <c r="U266" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="267">
@@ -20674,7 +20791,7 @@
         <v>#N/A</v>
       </c>
       <c r="U267" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="268">
@@ -20739,7 +20856,7 @@
         <v>#N/A</v>
       </c>
       <c r="U268" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="269">
@@ -20804,7 +20921,7 @@
         <v>#N/A</v>
       </c>
       <c r="U269" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="270">
@@ -20869,7 +20986,7 @@
         <v>#N/A</v>
       </c>
       <c r="U270" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="271">
@@ -20934,7 +21051,7 @@
         <v>#N/A</v>
       </c>
       <c r="U271" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="272">
@@ -20993,13 +21110,13 @@
         <v>638</v>
       </c>
       <c r="S272" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="T272" t="e">
         <v>#N/A</v>
       </c>
       <c r="U272" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="273">
@@ -21058,13 +21175,13 @@
         <v>632</v>
       </c>
       <c r="S273" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="T273" t="e">
         <v>#N/A</v>
       </c>
       <c r="U273" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="274">
@@ -21129,7 +21246,7 @@
         <v>#N/A</v>
       </c>
       <c r="U274" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="275">
@@ -21194,7 +21311,7 @@
         <v>#N/A</v>
       </c>
       <c r="U275" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="276">
@@ -21259,7 +21376,7 @@
         <v>#N/A</v>
       </c>
       <c r="U276" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="277">
@@ -21324,7 +21441,7 @@
         <v>#N/A</v>
       </c>
       <c r="U277" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="278">
@@ -21389,7 +21506,7 @@
         <v>#N/A</v>
       </c>
       <c r="U278" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="279">
@@ -21454,7 +21571,7 @@
         <v>#N/A</v>
       </c>
       <c r="U279" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="280">
@@ -21519,7 +21636,7 @@
         <v>#N/A</v>
       </c>
       <c r="U280" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="281">
@@ -21584,7 +21701,7 @@
         <v>#N/A</v>
       </c>
       <c r="U281" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="282">
@@ -21649,7 +21766,7 @@
         <v>#N/A</v>
       </c>
       <c r="U282" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="283">
@@ -21714,7 +21831,7 @@
         <v>#N/A</v>
       </c>
       <c r="U283" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="284">
@@ -21779,7 +21896,7 @@
         <v>#N/A</v>
       </c>
       <c r="U284" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="285">
@@ -21844,7 +21961,7 @@
         <v>#N/A</v>
       </c>
       <c r="U285" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="286">
@@ -21909,7 +22026,7 @@
         <v>#N/A</v>
       </c>
       <c r="U286" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="287">
@@ -21974,7 +22091,7 @@
         <v>#N/A</v>
       </c>
       <c r="U287" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="288">
@@ -22039,7 +22156,7 @@
         <v>#N/A</v>
       </c>
       <c r="U288" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="289">
@@ -22104,7 +22221,7 @@
         <v>#N/A</v>
       </c>
       <c r="U289" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="290">
@@ -22169,7 +22286,7 @@
         <v>#N/A</v>
       </c>
       <c r="U290" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="291">
@@ -22234,7 +22351,7 @@
         <v>#N/A</v>
       </c>
       <c r="U291" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="292">
@@ -22299,7 +22416,7 @@
         <v>#N/A</v>
       </c>
       <c r="U292" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="293">
@@ -22364,7 +22481,7 @@
         <v>#N/A</v>
       </c>
       <c r="U293" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="294">
@@ -22429,7 +22546,7 @@
         <v>#N/A</v>
       </c>
       <c r="U294" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="295">
@@ -22494,7 +22611,7 @@
         <v>#N/A</v>
       </c>
       <c r="U295" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="296">
@@ -22559,7 +22676,7 @@
         <v>#N/A</v>
       </c>
       <c r="U296" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="297">
@@ -22624,7 +22741,7 @@
         <v>#N/A</v>
       </c>
       <c r="U297" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="298">
@@ -22689,7 +22806,7 @@
         <v>#N/A</v>
       </c>
       <c r="U298" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="299">
@@ -22754,7 +22871,7 @@
         <v>#N/A</v>
       </c>
       <c r="U299" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="300">
@@ -22819,7 +22936,7 @@
         <v>#N/A</v>
       </c>
       <c r="U300" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="301">
@@ -22884,7 +23001,7 @@
         <v>#N/A</v>
       </c>
       <c r="U301" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="302">
@@ -22949,7 +23066,7 @@
         <v>#N/A</v>
       </c>
       <c r="U302" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="303">
@@ -23014,7 +23131,7 @@
         <v>#N/A</v>
       </c>
       <c r="U303" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="304">
@@ -23079,7 +23196,7 @@
         <v>#N/A</v>
       </c>
       <c r="U304" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="305">
@@ -23144,7 +23261,7 @@
         <v>#N/A</v>
       </c>
       <c r="U305" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="306">
@@ -23209,7 +23326,7 @@
         <v>#N/A</v>
       </c>
       <c r="U306" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="307">
@@ -23274,7 +23391,7 @@
         <v>#N/A</v>
       </c>
       <c r="U307" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="308">
@@ -23339,7 +23456,7 @@
         <v>#N/A</v>
       </c>
       <c r="U308" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="309">
@@ -23404,7 +23521,7 @@
         <v>#N/A</v>
       </c>
       <c r="U309" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="310">
@@ -23469,7 +23586,7 @@
         <v>#N/A</v>
       </c>
       <c r="U310" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="311">
@@ -23534,7 +23651,7 @@
         <v>#N/A</v>
       </c>
       <c r="U311" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="312">
@@ -23599,7 +23716,7 @@
         <v>#N/A</v>
       </c>
       <c r="U312" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="313">
@@ -23664,7 +23781,7 @@
         <v>#N/A</v>
       </c>
       <c r="U313" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="314">
@@ -23729,7 +23846,7 @@
         <v>#N/A</v>
       </c>
       <c r="U314" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="315">
@@ -23794,7 +23911,7 @@
         <v>#N/A</v>
       </c>
       <c r="U315" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="316">
@@ -23859,7 +23976,7 @@
         <v>#N/A</v>
       </c>
       <c r="U316" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="317">
@@ -23924,7 +24041,7 @@
         <v>#N/A</v>
       </c>
       <c r="U317" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="318">
@@ -23989,7 +24106,7 @@
         <v>#N/A</v>
       </c>
       <c r="U318" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="319">
@@ -24054,7 +24171,7 @@
         <v>#N/A</v>
       </c>
       <c r="U319" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="320">
@@ -24119,7 +24236,7 @@
         <v>#N/A</v>
       </c>
       <c r="U320" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="321">
@@ -24184,7 +24301,7 @@
         <v>#N/A</v>
       </c>
       <c r="U321" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="322">
@@ -24249,7 +24366,7 @@
         <v>#N/A</v>
       </c>
       <c r="U322" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="323">
@@ -24314,7 +24431,7 @@
         <v>#N/A</v>
       </c>
       <c r="U323" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="324">
@@ -24379,7 +24496,7 @@
         <v>#N/A</v>
       </c>
       <c r="U324" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="325">
@@ -24444,7 +24561,7 @@
         <v>#N/A</v>
       </c>
       <c r="U325" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="326">
@@ -24509,7 +24626,7 @@
         <v>#N/A</v>
       </c>
       <c r="U326" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="327">
@@ -24574,7 +24691,7 @@
         <v>#N/A</v>
       </c>
       <c r="U327" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="328">
@@ -24639,7 +24756,7 @@
         <v>#N/A</v>
       </c>
       <c r="U328" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="329">
@@ -24704,7 +24821,7 @@
         <v>#N/A</v>
       </c>
       <c r="U329" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="330">
@@ -24769,7 +24886,7 @@
         <v>#N/A</v>
       </c>
       <c r="U330" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="331">
@@ -24834,7 +24951,7 @@
         <v>#N/A</v>
       </c>
       <c r="U331" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="332">
@@ -24899,7 +25016,7 @@
         <v>#N/A</v>
       </c>
       <c r="U332" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="333">
@@ -24964,7 +25081,7 @@
         <v>#N/A</v>
       </c>
       <c r="U333" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="334">
@@ -25029,7 +25146,7 @@
         <v>#N/A</v>
       </c>
       <c r="U334" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="335">
@@ -25094,7 +25211,7 @@
         <v>#N/A</v>
       </c>
       <c r="U335" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="336">
@@ -25159,7 +25276,7 @@
         <v>#N/A</v>
       </c>
       <c r="U336" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="337">
@@ -25224,7 +25341,7 @@
         <v>#N/A</v>
       </c>
       <c r="U337" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="338">
@@ -25289,7 +25406,7 @@
         <v>#N/A</v>
       </c>
       <c r="U338" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="339">
@@ -25354,7 +25471,7 @@
         <v>#N/A</v>
       </c>
       <c r="U339" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="340">
@@ -25419,7 +25536,7 @@
         <v>#N/A</v>
       </c>
       <c r="U340" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="341">
@@ -25484,7 +25601,7 @@
         <v>#N/A</v>
       </c>
       <c r="U341" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="342">
@@ -25549,7 +25666,7 @@
         <v>#N/A</v>
       </c>
       <c r="U342" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="343">
@@ -25614,7 +25731,7 @@
         <v>#N/A</v>
       </c>
       <c r="U343" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="344">
@@ -25679,7 +25796,7 @@
         <v>#N/A</v>
       </c>
       <c r="U344" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="345">
@@ -25744,7 +25861,7 @@
         <v>#N/A</v>
       </c>
       <c r="U345" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="346">
@@ -25809,7 +25926,7 @@
         <v>#N/A</v>
       </c>
       <c r="U346" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="347">
@@ -25874,7 +25991,7 @@
         <v>#N/A</v>
       </c>
       <c r="U347" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="348">
@@ -25939,7 +26056,7 @@
         <v>#N/A</v>
       </c>
       <c r="U348" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="349">
@@ -26004,7 +26121,7 @@
         <v>#N/A</v>
       </c>
       <c r="U349" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="350">
@@ -26069,7 +26186,7 @@
         <v>#N/A</v>
       </c>
       <c r="U350" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="351">
@@ -26134,7 +26251,7 @@
         <v>#N/A</v>
       </c>
       <c r="U351" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="352">
@@ -26199,7 +26316,7 @@
         <v>#N/A</v>
       </c>
       <c r="U352" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="353">
@@ -26264,7 +26381,7 @@
         <v>#N/A</v>
       </c>
       <c r="U353" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="354">
@@ -26329,7 +26446,7 @@
         <v>#N/A</v>
       </c>
       <c r="U354" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="355">
@@ -26394,7 +26511,7 @@
         <v>#N/A</v>
       </c>
       <c r="U355" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="356">
@@ -26459,7 +26576,7 @@
         <v>#N/A</v>
       </c>
       <c r="U356" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="357">
@@ -26524,7 +26641,7 @@
         <v>#N/A</v>
       </c>
       <c r="U357" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="358">
@@ -26589,7 +26706,7 @@
         <v>#N/A</v>
       </c>
       <c r="U358" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="359">
@@ -26654,7 +26771,7 @@
         <v>#N/A</v>
       </c>
       <c r="U359" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="360">
@@ -26719,7 +26836,7 @@
         <v>#N/A</v>
       </c>
       <c r="U360" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="361">
@@ -26784,7 +26901,7 @@
         <v>#N/A</v>
       </c>
       <c r="U361" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="362">
@@ -26849,7 +26966,7 @@
         <v>#N/A</v>
       </c>
       <c r="U362" t="s">
-        <v>749</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="363">
@@ -26914,7 +27031,7 @@
         <v>#N/A</v>
       </c>
       <c r="U363" t="s">
-        <v>746</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="364">
@@ -26979,7 +27096,7 @@
         <v>#N/A</v>
       </c>
       <c r="U364" t="s">
-        <v>743</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="365">
@@ -27044,7 +27161,7 @@
         <v>#N/A</v>
       </c>
       <c r="U365" t="s">
-        <v>747</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="366">
@@ -27109,7 +27226,7 @@
         <v>#N/A</v>
       </c>
       <c r="U366" t="s">
-        <v>744</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="367">
@@ -27174,7 +27291,7 @@
         <v>#N/A</v>
       </c>
       <c r="U367" t="s">
-        <v>741</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="368">
@@ -27239,7 +27356,7 @@
         <v>#N/A</v>
       </c>
       <c r="U368" t="s">
-        <v>748</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="369">
@@ -27304,7 +27421,7 @@
         <v>#N/A</v>
       </c>
       <c r="U369" t="s">
-        <v>742</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="370">
@@ -27369,7 +27486,7 @@
         <v>#N/A</v>
       </c>
       <c r="U370" t="s">
-        <v>738</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="371">
@@ -27434,7 +27551,7 @@
         <v>#N/A</v>
       </c>
       <c r="U371" t="s">
-        <v>739</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="372">
@@ -27499,7 +27616,7 @@
         <v>#N/A</v>
       </c>
       <c r="U372" t="s">
-        <v>740</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="373">
@@ -27564,7 +27681,7 @@
         <v>#N/A</v>
       </c>
       <c r="U373" t="s">
-        <v>745</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="374">
@@ -27629,7 +27746,7 @@
         <v>#N/A</v>
       </c>
       <c r="U374" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="375">
@@ -27694,7 +27811,7 @@
         <v>#N/A</v>
       </c>
       <c r="U375" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="376">
@@ -27759,7 +27876,7 @@
         <v>#N/A</v>
       </c>
       <c r="U376" t="s">
-        <v>750</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="377">
@@ -27824,7 +27941,7 @@
         <v>#N/A</v>
       </c>
       <c r="U377" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="378">
@@ -27889,7 +28006,7 @@
         <v>#N/A</v>
       </c>
       <c r="U378" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="379">
@@ -27954,7 +28071,7 @@
         <v>#N/A</v>
       </c>
       <c r="U379" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="380">
@@ -28019,7 +28136,7 @@
         <v>#N/A</v>
       </c>
       <c r="U380" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="381">
@@ -28084,7 +28201,7 @@
         <v>#N/A</v>
       </c>
       <c r="U381" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="382">
@@ -28149,7 +28266,7 @@
         <v>#N/A</v>
       </c>
       <c r="U382" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="383">
@@ -28214,7 +28331,7 @@
         <v>#N/A</v>
       </c>
       <c r="U383" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="384">
@@ -28279,7 +28396,7 @@
         <v>#N/A</v>
       </c>
       <c r="U384" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="385">
@@ -28344,7 +28461,7 @@
         <v>#N/A</v>
       </c>
       <c r="U385" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="386">
@@ -28409,7 +28526,7 @@
         <v>#N/A</v>
       </c>
       <c r="U386" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="387">
@@ -28474,7 +28591,7 @@
         <v>#N/A</v>
       </c>
       <c r="U387" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="388">
@@ -28539,7 +28656,7 @@
         <v>#N/A</v>
       </c>
       <c r="U388" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="389">
@@ -28604,7 +28721,7 @@
         <v>#N/A</v>
       </c>
       <c r="U389" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="390">
@@ -28669,7 +28786,7 @@
         <v>#N/A</v>
       </c>
       <c r="U390" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="391">
@@ -28734,7 +28851,7 @@
         <v>#N/A</v>
       </c>
       <c r="U391" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="392">
@@ -28799,7 +28916,7 @@
         <v>#N/A</v>
       </c>
       <c r="U392" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="393">
@@ -28864,7 +28981,7 @@
         <v>#N/A</v>
       </c>
       <c r="U393" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="394">
@@ -28929,7 +29046,7 @@
         <v>#N/A</v>
       </c>
       <c r="U394" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="395">
@@ -28994,7 +29111,7 @@
         <v>#N/A</v>
       </c>
       <c r="U395" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="396">
@@ -29059,7 +29176,7 @@
         <v>#N/A</v>
       </c>
       <c r="U396" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="397">
@@ -29124,7 +29241,7 @@
         <v>#N/A</v>
       </c>
       <c r="U397" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="398">
@@ -29189,7 +29306,7 @@
         <v>#N/A</v>
       </c>
       <c r="U398" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="399">
@@ -29254,7 +29371,7 @@
         <v>#N/A</v>
       </c>
       <c r="U399" t="s">
-        <v>1015</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="400">
@@ -29313,13 +29430,13 @@
         <v>636</v>
       </c>
       <c r="S400" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="T400" t="e">
         <v>#N/A</v>
       </c>
       <c r="U400" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="401">
@@ -29384,7 +29501,7 @@
         <v>#N/A</v>
       </c>
       <c r="U401" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="402">
@@ -29443,13 +29560,13 @@
         <v>619</v>
       </c>
       <c r="S402" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="T402" t="e">
         <v>#N/A</v>
       </c>
       <c r="U402" t="s">
-        <v>1018</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="403">
@@ -29514,7 +29631,7 @@
         <v>#N/A</v>
       </c>
       <c r="U403" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="404">
@@ -29579,7 +29696,7 @@
         <v>#N/A</v>
       </c>
       <c r="U404" t="s">
-        <v>1020</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="405">
@@ -29644,7 +29761,7 @@
         <v>#N/A</v>
       </c>
       <c r="U405" t="s">
-        <v>1021</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="406">
@@ -29709,7 +29826,7 @@
         <v>#N/A</v>
       </c>
       <c r="U406" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="407">
@@ -29774,7 +29891,7 @@
         <v>#N/A</v>
       </c>
       <c r="U407" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="408">
@@ -29839,7 +29956,7 @@
         <v>#N/A</v>
       </c>
       <c r="U408" t="s">
-        <v>1024</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="409">
@@ -29904,7 +30021,7 @@
         <v>#N/A</v>
       </c>
       <c r="U409" t="s">
-        <v>1025</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="410">
@@ -29969,7 +30086,7 @@
         <v>#N/A</v>
       </c>
       <c r="U410" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="411">
@@ -30034,7 +30151,7 @@
         <v>#N/A</v>
       </c>
       <c r="U411" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="412">
@@ -30099,7 +30216,7 @@
         <v>#N/A</v>
       </c>
       <c r="U412" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="413">
@@ -30164,7 +30281,7 @@
         <v>#N/A</v>
       </c>
       <c r="U413" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="414">
@@ -30229,7 +30346,7 @@
         <v>#N/A</v>
       </c>
       <c r="U414" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="415">
@@ -30294,7 +30411,7 @@
         <v>#N/A</v>
       </c>
       <c r="U415" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="416">
@@ -30359,7 +30476,7 @@
         <v>#N/A</v>
       </c>
       <c r="U416" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="417">
@@ -30424,7 +30541,7 @@
         <v>#N/A</v>
       </c>
       <c r="U417" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="418">
@@ -30489,7 +30606,7 @@
         <v>#N/A</v>
       </c>
       <c r="U418" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="419">
@@ -30554,7 +30671,7 @@
         <v>#N/A</v>
       </c>
       <c r="U419" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="420">
@@ -30619,7 +30736,7 @@
         <v>#N/A</v>
       </c>
       <c r="U420" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="421">
@@ -30684,7 +30801,7 @@
         <v>#N/A</v>
       </c>
       <c r="U421" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="422">
@@ -30749,7 +30866,7 @@
         <v>#N/A</v>
       </c>
       <c r="U422" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="423">
@@ -30814,7 +30931,7 @@
         <v>#N/A</v>
       </c>
       <c r="U423" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="424">
@@ -30879,7 +30996,7 @@
         <v>#N/A</v>
       </c>
       <c r="U424" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="425">
@@ -30944,7 +31061,7 @@
         <v>#N/A</v>
       </c>
       <c r="U425" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="426">
@@ -31009,7 +31126,7 @@
         <v>#N/A</v>
       </c>
       <c r="U426" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="427">
@@ -31074,7 +31191,7 @@
         <v>#N/A</v>
       </c>
       <c r="U427" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="428">
@@ -31139,7 +31256,7 @@
         <v>#N/A</v>
       </c>
       <c r="U428" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="429">
@@ -31204,7 +31321,7 @@
         <v>#N/A</v>
       </c>
       <c r="U429" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="430">
@@ -31269,7 +31386,7 @@
         <v>#N/A</v>
       </c>
       <c r="U430" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="431">
@@ -31334,7 +31451,7 @@
         <v>#N/A</v>
       </c>
       <c r="U431" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="432">
@@ -31399,7 +31516,7 @@
         <v>#N/A</v>
       </c>
       <c r="U432" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="433">
@@ -31464,7 +31581,7 @@
         <v>#N/A</v>
       </c>
       <c r="U433" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="434">
@@ -31529,7 +31646,7 @@
         <v>#N/A</v>
       </c>
       <c r="U434" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="435">
@@ -31594,7 +31711,7 @@
         <v>#N/A</v>
       </c>
       <c r="U435" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="436">
@@ -31659,7 +31776,7 @@
         <v>#N/A</v>
       </c>
       <c r="U436" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="437">
@@ -31724,7 +31841,7 @@
         <v>#N/A</v>
       </c>
       <c r="U437" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="438">
@@ -31789,7 +31906,7 @@
         <v>#N/A</v>
       </c>
       <c r="U438" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="439">
@@ -31854,7 +31971,7 @@
         <v>#N/A</v>
       </c>
       <c r="U439" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="440">
@@ -31919,7 +32036,7 @@
         <v>#N/A</v>
       </c>
       <c r="U440" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="441">
@@ -31984,7 +32101,7 @@
         <v>#N/A</v>
       </c>
       <c r="U441" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="442">
@@ -32049,7 +32166,7 @@
         <v>#N/A</v>
       </c>
       <c r="U442" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="443">
@@ -32114,7 +32231,7 @@
         <v>#N/A</v>
       </c>
       <c r="U443" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="444">
@@ -32179,7 +32296,7 @@
         <v>#N/A</v>
       </c>
       <c r="U444" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="445">
@@ -32244,7 +32361,7 @@
         <v>#N/A</v>
       </c>
       <c r="U445" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="446">
@@ -32309,7 +32426,7 @@
         <v>#N/A</v>
       </c>
       <c r="U446" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="447">
@@ -32374,7 +32491,7 @@
         <v>#N/A</v>
       </c>
       <c r="U447" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="448">
@@ -32439,7 +32556,7 @@
         <v>#N/A</v>
       </c>
       <c r="U448" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="449">
@@ -32504,7 +32621,7 @@
         <v>#N/A</v>
       </c>
       <c r="U449" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="450">
@@ -32569,7 +32686,7 @@
         <v>#N/A</v>
       </c>
       <c r="U450" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="451">
@@ -32634,7 +32751,7 @@
         <v>#N/A</v>
       </c>
       <c r="U451" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="452">
@@ -32699,7 +32816,7 @@
         <v>#N/A</v>
       </c>
       <c r="U452" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="453">
@@ -32764,7 +32881,7 @@
         <v>#N/A</v>
       </c>
       <c r="U453" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="454">
@@ -32829,7 +32946,7 @@
         <v>#N/A</v>
       </c>
       <c r="U454" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="455">
@@ -32894,7 +33011,7 @@
         <v>#N/A</v>
       </c>
       <c r="U455" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="456">
@@ -32959,7 +33076,7 @@
         <v>#N/A</v>
       </c>
       <c r="U456" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="457">
@@ -33024,7 +33141,7 @@
         <v>#N/A</v>
       </c>
       <c r="U457" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="458">
@@ -33089,7 +33206,7 @@
         <v>#N/A</v>
       </c>
       <c r="U458" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="459">
@@ -33154,7 +33271,7 @@
         <v>#N/A</v>
       </c>
       <c r="U459" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="460">
@@ -33219,7 +33336,7 @@
         <v>#N/A</v>
       </c>
       <c r="U460" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="461">
@@ -33284,7 +33401,7 @@
         <v>#N/A</v>
       </c>
       <c r="U461" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="462">
@@ -33349,7 +33466,7 @@
         <v>#N/A</v>
       </c>
       <c r="U462" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="463">
@@ -33414,7 +33531,7 @@
         <v>#N/A</v>
       </c>
       <c r="U463" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="464">
@@ -33479,7 +33596,7 @@
         <v>#N/A</v>
       </c>
       <c r="U464" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="465">
@@ -33544,7 +33661,7 @@
         <v>#N/A</v>
       </c>
       <c r="U465" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="466">
@@ -33609,7 +33726,7 @@
         <v>#N/A</v>
       </c>
       <c r="U466" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="467">
@@ -33674,7 +33791,7 @@
         <v>#N/A</v>
       </c>
       <c r="U467" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="468">
@@ -33739,7 +33856,7 @@
         <v>#N/A</v>
       </c>
       <c r="U468" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="469">
@@ -33804,7 +33921,7 @@
         <v>#N/A</v>
       </c>
       <c r="U469" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="470">
@@ -33869,7 +33986,7 @@
         <v>#N/A</v>
       </c>
       <c r="U470" t="s">
-        <v>720</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="471">
@@ -33934,7 +34051,7 @@
         <v>#N/A</v>
       </c>
       <c r="U471" t="s">
-        <v>724</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="472">
@@ -33999,7 +34116,7 @@
         <v>#N/A</v>
       </c>
       <c r="U472" t="s">
-        <v>721</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="473">
@@ -34064,7 +34181,7 @@
         <v>#N/A</v>
       </c>
       <c r="U473" t="s">
-        <v>723</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="474">
@@ -34129,7 +34246,7 @@
         <v>#N/A</v>
       </c>
       <c r="U474" t="s">
-        <v>717</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="475">
@@ -34194,7 +34311,7 @@
         <v>#N/A</v>
       </c>
       <c r="U475" t="s">
-        <v>722</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="476">
@@ -34259,7 +34376,7 @@
         <v>#N/A</v>
       </c>
       <c r="U476" t="s">
-        <v>714</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="477">
@@ -34324,7 +34441,7 @@
         <v>#N/A</v>
       </c>
       <c r="U477" t="s">
-        <v>715</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="478">
@@ -34389,7 +34506,7 @@
         <v>#N/A</v>
       </c>
       <c r="U478" t="s">
-        <v>725</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="479">
@@ -34454,7 +34571,7 @@
         <v>#N/A</v>
       </c>
       <c r="U479" t="s">
-        <v>718</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="480">
@@ -34519,7 +34636,7 @@
         <v>#N/A</v>
       </c>
       <c r="U480" t="s">
-        <v>716</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="481">
@@ -34584,7 +34701,7 @@
         <v>#N/A</v>
       </c>
       <c r="U481" t="s">
-        <v>719</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="482">
@@ -34649,7 +34766,7 @@
         <v>#N/A</v>
       </c>
       <c r="U482" t="s">
-        <v>732</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="483">
@@ -34714,7 +34831,7 @@
         <v>#N/A</v>
       </c>
       <c r="U483" t="s">
-        <v>731</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="484">
@@ -34779,7 +34896,7 @@
         <v>#N/A</v>
       </c>
       <c r="U484" t="s">
-        <v>736</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="485">
@@ -34844,7 +34961,7 @@
         <v>#N/A</v>
       </c>
       <c r="U485" t="s">
-        <v>734</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="486">
@@ -34909,7 +35026,7 @@
         <v>#N/A</v>
       </c>
       <c r="U486" t="s">
-        <v>729</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="487">
@@ -34974,7 +35091,7 @@
         <v>#N/A</v>
       </c>
       <c r="U487" t="s">
-        <v>728</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="488">
@@ -35039,7 +35156,7 @@
         <v>#N/A</v>
       </c>
       <c r="U488" t="s">
-        <v>733</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="489">
@@ -35104,7 +35221,7 @@
         <v>#N/A</v>
       </c>
       <c r="U489" t="s">
-        <v>735</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="490">
@@ -35169,7 +35286,7 @@
         <v>#N/A</v>
       </c>
       <c r="U490" t="s">
-        <v>730</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="491">
@@ -35234,7 +35351,7 @@
         <v>#N/A</v>
       </c>
       <c r="U491" t="s">
-        <v>727</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="492">
@@ -35299,7 +35416,7 @@
         <v>#N/A</v>
       </c>
       <c r="U492" t="s">
-        <v>726</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="493">
@@ -35364,7 +35481,7 @@
         <v>#N/A</v>
       </c>
       <c r="U493" t="s">
-        <v>737</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="494">
@@ -35423,13 +35540,13 @@
         <v>621</v>
       </c>
       <c r="S494" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="T494" t="e">
         <v>#N/A</v>
       </c>
       <c r="U494" t="s">
-        <v>1026</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="495">
@@ -35494,7 +35611,7 @@
         <v>#N/A</v>
       </c>
       <c r="U495" t="s">
-        <v>1027</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="496">
@@ -35559,7 +35676,7 @@
         <v>#N/A</v>
       </c>
       <c r="U496" t="s">
-        <v>1028</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="497">
@@ -35624,7 +35741,7 @@
         <v>#N/A</v>
       </c>
       <c r="U497" t="s">
-        <v>1029</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="498">
@@ -35689,7 +35806,7 @@
         <v>#N/A</v>
       </c>
       <c r="U498" t="s">
-        <v>1030</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="499">
@@ -35754,7 +35871,7 @@
         <v>#N/A</v>
       </c>
       <c r="U499" t="s">
-        <v>1031</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="500">
@@ -35819,7 +35936,7 @@
         <v>#N/A</v>
       </c>
       <c r="U500" t="s">
-        <v>1032</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="501">
@@ -35884,7 +36001,7 @@
         <v>#N/A</v>
       </c>
       <c r="U501" t="s">
-        <v>1033</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="502">
@@ -35943,13 +36060,13 @@
         <v>637</v>
       </c>
       <c r="S502" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="T502" t="e">
         <v>#N/A</v>
       </c>
       <c r="U502" t="s">
-        <v>1034</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="503">
@@ -36014,7 +36131,7 @@
         <v>#N/A</v>
       </c>
       <c r="U503" t="s">
-        <v>1035</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="504">
@@ -36079,7 +36196,7 @@
         <v>#N/A</v>
       </c>
       <c r="U504" t="s">
-        <v>1036</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="505">
@@ -36144,7 +36261,7 @@
         <v>#N/A</v>
       </c>
       <c r="U505" t="s">
-        <v>1037</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="506">
@@ -36203,13 +36320,13 @@
         <v>622</v>
       </c>
       <c r="S506" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="T506" t="e">
         <v>#N/A</v>
       </c>
       <c r="U506" t="s">
-        <v>1038</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="507">
@@ -36268,13 +36385,13 @@
         <v>638</v>
       </c>
       <c r="S507" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="T507" t="e">
         <v>#N/A</v>
       </c>
       <c r="U507" t="s">
-        <v>1039</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="508">
@@ -36339,7 +36456,7 @@
         <v>#N/A</v>
       </c>
       <c r="U508" t="s">
-        <v>1040</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="509">
@@ -36404,7 +36521,7 @@
         <v>#N/A</v>
       </c>
       <c r="U509" t="s">
-        <v>1041</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="510">
@@ -36469,7 +36586,7 @@
         <v>#N/A</v>
       </c>
       <c r="U510" t="s">
-        <v>1042</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="511">
@@ -36534,7 +36651,7 @@
         <v>#N/A</v>
       </c>
       <c r="U511" t="s">
-        <v>1043</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="512">
@@ -36599,7 +36716,7 @@
         <v>#N/A</v>
       </c>
       <c r="U512" t="s">
-        <v>1044</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="513">
@@ -36658,13 +36775,13 @@
         <v>635</v>
       </c>
       <c r="S513" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="T513" t="e">
         <v>#N/A</v>
       </c>
       <c r="U513" t="s">
-        <v>1045</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="514">
@@ -36729,7 +36846,7 @@
         <v>#N/A</v>
       </c>
       <c r="U514" t="s">
-        <v>1046</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="515">
@@ -36794,7 +36911,7 @@
         <v>#N/A</v>
       </c>
       <c r="U515" t="s">
-        <v>1047</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="516">
@@ -36859,7 +36976,7 @@
         <v>#N/A</v>
       </c>
       <c r="U516" t="s">
-        <v>1048</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="517">
@@ -36924,7 +37041,7 @@
         <v>#N/A</v>
       </c>
       <c r="U517" t="s">
-        <v>1049</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="518">
@@ -36989,7 +37106,7 @@
         <v>#N/A</v>
       </c>
       <c r="U518" t="s">
-        <v>1050</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="519">
@@ -37054,7 +37171,7 @@
         <v>#N/A</v>
       </c>
       <c r="U519" t="s">
-        <v>1051</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="520">
@@ -37113,13 +37230,13 @@
         <v>617</v>
       </c>
       <c r="S520" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="T520" t="e">
         <v>#N/A</v>
       </c>
       <c r="U520" t="s">
-        <v>1052</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="521">
@@ -37178,13 +37295,13 @@
         <v>627</v>
       </c>
       <c r="S521" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="T521" t="e">
         <v>#N/A</v>
       </c>
       <c r="U521" t="s">
-        <v>1053</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="522">
@@ -37249,7 +37366,7 @@
         <v>#N/A</v>
       </c>
       <c r="U522" t="s">
-        <v>1054</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="523">
@@ -37314,7 +37431,7 @@
         <v>#N/A</v>
       </c>
       <c r="U523" t="s">
-        <v>1055</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="524">
@@ -37379,7 +37496,7 @@
         <v>#N/A</v>
       </c>
       <c r="U524" t="s">
-        <v>1056</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="525">
@@ -37438,13 +37555,13 @@
         <v>623</v>
       </c>
       <c r="S525" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="T525" t="e">
         <v>#N/A</v>
       </c>
       <c r="U525" t="s">
-        <v>1057</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="526">
@@ -37509,7 +37626,7 @@
         <v>#N/A</v>
       </c>
       <c r="U526" t="s">
-        <v>1058</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="527">
@@ -37574,7 +37691,7 @@
         <v>#N/A</v>
       </c>
       <c r="U527" t="s">
-        <v>1059</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="528">
@@ -37639,7 +37756,7 @@
         <v>#N/A</v>
       </c>
       <c r="U528" t="s">
-        <v>1060</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="529">
@@ -37704,7 +37821,7 @@
         <v>#N/A</v>
       </c>
       <c r="U529" t="s">
-        <v>1061</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="530">
@@ -37769,7 +37886,7 @@
         <v>#N/A</v>
       </c>
       <c r="U530" t="s">
-        <v>1062</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="531">
@@ -37834,7 +37951,7 @@
         <v>#N/A</v>
       </c>
       <c r="U531" t="s">
-        <v>1063</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="532">
@@ -37899,7 +38016,7 @@
         <v>#N/A</v>
       </c>
       <c r="U532" t="s">
-        <v>1064</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="533">
@@ -37958,13 +38075,13 @@
         <v>626</v>
       </c>
       <c r="S533" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="T533" t="e">
         <v>#N/A</v>
       </c>
       <c r="U533" t="s">
-        <v>1065</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="534">
@@ -38029,7 +38146,7 @@
         <v>#N/A</v>
       </c>
       <c r="U534" t="s">
-        <v>1066</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="535">
@@ -38094,7 +38211,7 @@
         <v>#N/A</v>
       </c>
       <c r="U535" t="s">
-        <v>1067</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="536">
@@ -38159,7 +38276,7 @@
         <v>#N/A</v>
       </c>
       <c r="U536" t="s">
-        <v>1068</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="537">
@@ -38224,7 +38341,7 @@
         <v>#N/A</v>
       </c>
       <c r="U537" t="s">
-        <v>1069</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="538">
@@ -38289,7 +38406,7 @@
         <v>#N/A</v>
       </c>
       <c r="U538" t="s">
-        <v>1070</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="539">
@@ -38354,7 +38471,7 @@
         <v>#N/A</v>
       </c>
       <c r="U539" t="s">
-        <v>1071</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="540">
@@ -38419,7 +38536,7 @@
         <v>#N/A</v>
       </c>
       <c r="U540" t="s">
-        <v>1072</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="541">
@@ -38484,7 +38601,7 @@
         <v>#N/A</v>
       </c>
       <c r="U541" t="s">
-        <v>1073</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="542">
@@ -38543,13 +38660,13 @@
         <v>638</v>
       </c>
       <c r="S542" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="T542" t="e">
         <v>#N/A</v>
       </c>
       <c r="U542" t="s">
-        <v>1074</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="543">
@@ -38614,7 +38731,7 @@
         <v>#N/A</v>
       </c>
       <c r="U543" t="s">
-        <v>1075</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="544">
@@ -38679,7 +38796,7 @@
         <v>#N/A</v>
       </c>
       <c r="U544" t="s">
-        <v>1076</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="545">
@@ -38744,7 +38861,7 @@
         <v>#N/A</v>
       </c>
       <c r="U545" t="s">
-        <v>1077</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="546">
@@ -38809,7 +38926,7 @@
         <v>#N/A</v>
       </c>
       <c r="U546" t="s">
-        <v>1078</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="547">
@@ -38868,13 +38985,13 @@
         <v>635</v>
       </c>
       <c r="S547" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="T547" t="e">
         <v>#N/A</v>
       </c>
       <c r="U547" t="s">
-        <v>1079</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="548">
@@ -38939,7 +39056,7 @@
         <v>#N/A</v>
       </c>
       <c r="U548" t="s">
-        <v>1080</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="549">
@@ -39004,7 +39121,7 @@
         <v>#N/A</v>
       </c>
       <c r="U549" t="s">
-        <v>1081</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="550">
@@ -39069,7 +39186,7 @@
         <v>#N/A</v>
       </c>
       <c r="U550" t="s">
-        <v>1082</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="551">
@@ -39134,7 +39251,7 @@
         <v>#N/A</v>
       </c>
       <c r="U551" t="s">
-        <v>1083</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="552">
@@ -39199,7 +39316,7 @@
         <v>#N/A</v>
       </c>
       <c r="U552" t="s">
-        <v>1084</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="553">
@@ -39264,7 +39381,7 @@
         <v>#N/A</v>
       </c>
       <c r="U553" t="s">
-        <v>1085</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
